--- a/data/raw_hh.xlsx
+++ b/data/raw_hh.xlsx
@@ -463,115 +463,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IT специалист</t>
+          <t>Программист в ресторанные программы</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 5 000 000 до 6 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Настройка сетевых подключений,Настройка ПО,Настройка ПК,Работа с оргтехникой,Настройка серверов,Техническая поддержка</t>
+          <t>Обучение и развитие,Деловое общение,Работа с большим объемом информации,Турецкий — A1 — Начальный,Английский — A1 — Начальный</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ташкент, Янгихаётский район, махаллинский сход граждан Чоштепа</t>
+          <t>Ташкент, улица Батыра Закирова, 7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Мы в поиске активного и ответственного Junior / Junior+ IT-специалиста  Обязанности - Внедрение и сопровождение IT-продуктов локального и международного уровня- Техническая консультация клиентов по работе с программами  и решение различных проблем связанных с кассовыми и сетевыми оборудованиями  Требования - Нужен опыт работы в IT сфере- Языки  Русский и Узбекский- Уверенный пользователь ПК- Полная занятость  совмещать с учебой не получится- Быть готовым к ночной смене  19 00-04 00 Наличие диплома не обязательно Технические навыки 1  Понимание сетевых оборудований роутеры и маршрутизация 2  Системное администрирование - управление корпоративными почтами пользователей 3  ⁠Установка принтера и драйверов 4  ⁠Переустановка ПК (Windows)5  ⁠Администрирование windows на среднем уровне 6  ⁠Навыки коммуникации  общительность  Что вы получите - Опыт работы в IT- Достойная заработная плата- Участие в международных проектах  Условия работы - Офис в центре города- Два графика работы  ночная и дневная Если вы готовы развиваться в IT и решать интересные задачи  ждем ваше резюме!</t>
+          <t>Обязанности  Программист на работу в Ресторанной сфере (Aiko R keeper Jowi и Kerzz ) программе  5 Рабочих дней   С 9 00 до 18 00  выходной суббота воскресенье Знание турецкого языка обязательно Работать будет в ресторанеОбучим    Требования  Ответственный  не конфликтный  аккуратный ​​​​​​​ Условия 5/2 ​​​​​​​</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Специалист технической поддержки IT</t>
+          <t>Графический дизайнер</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 13 000 000 до 18 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Настройка ПК,Техническая поддержка,Пользователь ПК,Ремонт оборудования,Ответственность,Диагностика ПК,Ремонт ПК,Сборка ПК,Работа с оргтехникой,Обслуживание офисной техники,Настройка принтеров,Установка драйверов,Установка ПО,Ремонт принтеров,Английский — B1 — Средний,Узбекский — C2 — В совершенстве,Русский — C2 — В совершенстве</t>
+          <t>Русский — C2 — В совершенстве,Узбекский — C2 — В совершенстве,Английский — B2 — Средне-продвинутый</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ташкент, тупик Фурката, 173</t>
+          <t>Ташкент, Сергелийский район, махаллинский сход граждан Бунёдобод</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности   Обработка и решение сложных технических запросов  поступающих от первой линии поддержки Взаимодействие с командами разработчиков для выявления и устранения технических ошибок  Документирование и передача рекомендаций по улучшению процессов  Техническая настройка офисных программ   Установка ПО на рабочие станции  подготовка рабочих мест    Обслуживание и администрирование рабочих станций    Подключение пользователей к компьютерной и телефонной сети   Настройка оргтехники    Требования   Умение анализировать и решать технические проблемы на уровне второй линии поддержки  Опыт взаимодействия с командами разработчиков и интеграторами  Восстанавливать работоспособность системы после ошибок  Навыки диагностики неисправностей компьютерного  серверного и сетевого оборудования  Выявлять ошибки в работе программного обеспечения на компьютерах пользователей  Обслуживание ИТ оборудования (ТСД  термопринтеры  сканеры ШК и др )   Отличное знание офисных компьютерных программ    Знание языков русский/узбекский    Условия   Возможности для профессионального роста и развития Официальное трудоустройство График работы 5/2 и 6/1 Вкусное бесплатное питание  Открытые коллеги-эксперты в своем деле  готовые делиться своим опытом  </t>
+          <t xml:space="preserve">Группа «ADM GLOBAL» — стремительно растущая  активная команда  которая стала первой среди частных компаний в автобизнесе  кто завез иностранные авто в Узбекистан  Компания мультибрендовая  является официальным дистрибьютором Kia  Chery  Haval  Hyundai Trucks в Узбекистане и работает по мировым стандартам  «ADM GLOBAL» включает в себя автосалоны  сертифицированные производителями  сервисные центры  а самое главное - собственное производство  Штат компании - более 4500 специалистов  включая менеджеров и мастеров  которые прошли аттестацию в учебных центрах производителей  Основная сфера деятельности – производство  продажа  гарантийное и послегарантийное обслуживание автомобилей  а также продажа оригинальных запасных частей и аксессуаров  Дилерская сеть компании насчитывает более 80 центров по всей Республике Узбекистан  Обязанности   Доработка (верстка) макетов полиграфической продукции (визитки  флаеры  буклеты) Разработка концепции и верстка макетов в СМИ Создание собственных концепций дизайна для внутрикорпоративного маркетинга Проверка и доработка сторонних макетов Разработка фирменной стиля  контроль соблюдения фирменного стиля Дизайн сувенирной продукции Дизайн рекламных лэндингов и баннеров Оформление презентационных материалов и документации Монтаж и адаптация видеоматериалов Фотосъемка (по запросу)  Требования    Опыт работы графическим дизайнером / digital-дизайнером от 2 лет   Уверенные навыки верстки полиграфической продукции (визитки  флаеры  буклеты)   Опыт разработки дизайн-концепций и верстки макетов для СМИ   Умение создавать собственные креативные концепции для внутрикорпоративного маркетинга   Навыки проверки  доработки и адаптации сторонних макетов   Понимание принципов разработки и сопровождения фирменного стиля  контроль его соблюдения   Опыт дизайна сувенирной и рекламной продукции   Навыки создания дизайна рекламных лендингов и баннеров   Опыт оформления презентационных материалов и корпоративной документации   Базовые или уверенные навыки видеомонтажа и адаптации видеоматериалов   Навыки фотосъёмки (как преимущество)   Уверенное владение Adobe Photoshop  Illustrator  InDesign  Figma (After Effects / Premiere — плюс)   Внимательность к деталям  чувство композиции и типографики   Умение работать в рамках ТЗ и соблюдать дедлайны   Условия   Официальное трудоустройство по ТК РУз График работы  5/2 с 09 00 до 18 00 Конкурентная заработная плата и премии по результатам работы Возможности профессионального роста и обучения  Частичная компенсация абонемента в спортзал (50%) Обеды  компенсируемые частично компанией (70%) Комфортабельный новый офис с новой  современной техникой Корпоративная культура по европейским стандартам Внутрикорпоративные тимбилдинги </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Инженер по тестированию качества</t>
+          <t>Специалист по развитию бизнеса (Business Development Specialist)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>от 800 до 1 200 $ за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Английский — A1 — Начальный</t>
+          <t>Стратегическое планирование,Анализ обратной связи,Анализ бизнес-процессов,MS Excel,Английский язык,Разработка технических заданий,Деловая коммуникация,B2B Продажи,Автоматизация бизнес-процессов,Английский — C1 — Продвинутый,Русский — C1 — Продвинутый,Узбекский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ташкент, улица Фурката, 5</t>
+          <t>Ташкент, жилой комплекс Зарафшан сити</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Responsibilities     Управление испытаниями  Ответственность за испытания и проверку проектных материалов  компонентов и инженерных элементов  создание и совершенствование систем и документации по управлению испытаниями  контроль приемки сырья  отбора проб и испытаний  а также испытаний в процессе производства для обеспечения достоверности  точности  полноты данных и их соответствия международным стандартам  проектным спецификациям и требованиям контракта  Измерения и разметка  Организация измерений и разметки на объекте на протяжении всего процесса  включая настройку сети контроля  разметку строительных площадок  позиционирование при монтаже и мониторинг деформаций  проверка ключевых данных измерений для обеспечения точности  соответствующей спецификациям  и предоставления надежных эталонных показателей и данных для строительства  Отслеживание и обработка несоответствующей продукции  Выявление  регистрация  отчетность и отслеживание несоответствующих изделий  обнаруженных в ходе испытаний и измерений  сотрудничество с техническим  качественным и строительным отделами для анализа причин  контроля за устранением и проверкой  формирование замкнутой системы управления для контроля рисков качества  Техническое управление и координация  Ответственность за метрологическую проверку и техническое обслуживание приборов и оборудования  подготовка и проверка планов измерений и испытаний  осуществление технической коммуникации и координации с заказчиком  руководителем  консультантами и внутренними подразделениями для обеспечения бесперебойного выполнения работ   Requirements     Минимум 3 года опыта работы в области инженерно-технического тестирования  управления измерениями и внедрения в Узбекистане  опыт работы с крупномасштабными проектами  такими как музеи и театры  приветствуется  Знание инженерно-технических стандартов качества  спецификаций и систем управления  Владение английским языком как рабочим языком приветствуется  Знание стандартов и спецификаций измерений и испытаний  а также владение RTK  тахеометрами и другими измерительными приборами и оборудованием  Высокий уровень понимания управления проектами  умение работать в команде  отличные коммуникативные и координационные навыки  Надежность  преданность и трудолюбие   ​​</t>
+          <t xml:space="preserve">Обязанности    Поиск и оценка новых возможностей для развития бизнеса   Участие в переговорах  сопровождение коммерческих сделок   Анализ рынка  конкурентной среды и коммерческого потенциала   Подготовка предложений  презентаций и материалов для партнёров   Взаимодействие с отделами продаж  маркетинга и продукта   Координация и сопровождение проектов по развитию   Построение долгосрочных партнёрских отношений   Требования    Высшее образование (бизнес  экономика  менеджмент  маркетинг или смежные сферы)   Аналитическое мышление и способность работать с данными   Сильные коммуникативные и переговорные навыки   Инициативность и ориентация на результат   Владение Excel / Google Sheets и инструментами презентаций   Опыт в сфере консалтинга  развития бизнеса  B2B или партнёрских проектов    Владение Excel / Google Sheets и презентационными инструментами   Умение работать как самостоятельно  так и в команде   Английский язык — уровень C1 (обязательно)   Условия    Полная занятость с гибким графиком   Современный офис  дружная и профессиональная команда   Возможности роста и развития  участие в ключевых проектах   Прямое влияние на стратегические решения компании  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик Битрикс24</t>
+          <t>Консультант 1С</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>от 8 000 000 so'm за месяц до вычета налогов</t>
+          <t>от 5 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Бизнес-анализ,Моделирование бизнес процессов,BPMN,Сбор требований,Разработка технических заданий,1С-Битрикс,Битрикс24,Интеграция программных модулей,Аналитическое мышление,Документирование бизнес-требований,Автоматизированное тестирование,API,Bizagi,Draw.io,Camunda,Русский — C1 — Продвинутый</t>
+          <t>1С,Техническая поддержка,Деловое общение,Коммуникабельность,Стрессоустойчивость,Точность и внимательность к деталям,Деловая коммуникация,1С: Предприятие 8,1С: Бухгалтерия,Бухгалтерская отчетность,Бухгалтерский учет,Русский — B2 — Средне-продвинутый</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ташкент, Яккасарайский район, 9-й проезд Абдуллы Каххара, 1А</t>
+          <t>Ташкент, улица Буюк Турон, 77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEADING BUSINESS SOFTWARE - одна из лидирующих компаний на рынке среди программных продуктов   Мы занимаемся автоматизацией бухгалтерского и управленческого учета на базе программных продуктов 1С и Bitrix24  На нашем счету более 1000 успешных внедрений  мы обслуживаем ARTEL  Golden House  Korzinka uz и др  Нам доверяют и их доверие полностью оправдано  В связи с ростом количества проектов  мы в поисках бизнес-аналитика по Битрикс24 Обязанности   Изучение бизнес-процессов заказчика Моделирование бизнес-процессов в BPMN 2 0 Настройка Битрикс24 в соответствии с бизнес-процессами Обучение сотрудников заказчика пользованию системой ​​​​​​​Сопровождение пользователей  Требования   Умение выявлять и документировать текущие процессы заказчика Знание нотации BPMN 2 0 и инструментов для моделирования (например  Bizagi  Camunda Modeler  Draw io и др ) Опыт конфигурации CRM  бизнес-процессов и автоматизаций Умение доносить материал понятным языком для разного уровня пользователей  Условия   Официальное трудоустройство по ТК РУз График  5/2 с 09 00 до 18 00 Зарплата  от 8 млн сум на испытательный срок Карьерный рост Корпоративы и тимбилдинги Кофе-машина  PlayStation  спокойная зона Ежегодный оплачиваемый отпуск  21 календарных дней  Если тебе близки технологичные проекты  понятная логика процессов и работа с компаниями-лидерами — присоединяйся  </t>
+          <t xml:space="preserve">Aiva Group – IT-компания  которая помогает бизнесу становится эффективнее за счёт современных онлайн-сервисов и цифровых решений  Одним из ключевых направлений нашей работы является внедрение и сопровождение 1С в Узбекистане – надёжного инструмента для автоматизации учёта  финансов и управления бизнес-процессами Мы ищем кандидатов  которые хотят освоить работу в 1С и разобраться в основах бухгалтерии  Компания предоставляет обучение  материалы  поддержку наставников и сертификацию 1С за счет компании  Простыми словами - всему обучим  самое главное - желание и самоотдача  ​​​​​​​ Чем предстоит заниматься - Консультировать клиентов по заявкам и помогать клиентам вести правильную работу в 1С  Все что нужно уметь - Уверенное владение ПК - Грамотная устная и письменная русская речь Если у вас уже есть опыт работы в 1С или понимание бухгалтерского учёта — это будет большим плюсом  но необязательно! Условия - Официальное трудоустройство по ТК РУз + соц гарантии (отпуск  больничные) - Обучение и Сертификация по 1С за счет компании - Офис в центре города (рядом метро Космонавтов и Ойбек) - Карьерный и профессиональный рост - Свободный стиль одежды  Главное  чтобы вам было комфортно - У нас ценится обратная связь — мы готовы слушать и обсуждать идеи сотрудников  чтобы вместе улучшать процессы в отделах </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Business Analyst (Middle / Senior) — EdTech</t>
+          <t>Frontend-разработчик</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,74 +581,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>User Story,Постановка задач разработчикам,Стратегическое планирование,Бизнес-анализ,Узбекский — C2 — В совершенстве,Английский — C1 — Продвинутый</t>
+          <t>jQuery,TypeScript,CSS3,React,NextJs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ташкент, улица Юсуфа Хос Ходжиба, 73</t>
+          <t>Ташкент, улица Чигил, 32А</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">About the Project We are launching an EdTech platform for high school students aged 17–18  focused on Mathematics and English (preparation for universities and entrance exams  DTM  National Certificate  SAT  IELTS)  We are looking for a Business Analyst who will be responsible for requirements across the entire development cycle — from idea to MVP launch  Responsibilities   Decompose business ideas into User Stories / Functional Requirements   Define Acceptance Criteria and support requirements throughout their full lifecycle   Work with uncertain and changing inputs  formalizing requirements when complete information is not available   Describe the logic of key platform modules  including    entry testing and level placement   course structure and learning progress   “skip test → start from scratch” scenario     Formalize requirements for the AI assistant (use cases  constraints  input and output data)   Describe the business logic of subscriptions and one-time payments   Participate in requirements prioritization together with the founder and the team   Work directly with backend and frontend developers   Participate in sprints  reducing the number of reworks and clarifications   Maintain and keep documentation up to date (BRD / FRD  user flows  business diagrams)   Requirements   2+ years of experience as a Business Analyst / System Analyst   Experience working with web and mobile products   Strong ability to write    User Stories   Functional Requirements   Acceptance Criteria     Understanding of client–server architecture   Experience with Jira / Confluence / Notion or similar tools   Ability to communicate effectively with developers and speak the same technical language   Nice to Have   Experience in EdTech or subscription-based products   Experience formalizing requirements for AI-driven features   Understanding of LMS and educational platforms   Basic knowledge of API / SQL   What We Offer   Opportunity to build a product from scratch   Participation in the full MVP development cycle   Minimal bureaucracy and direct communication with the Product Manager / COO and the Founder   Remote  full-time work format   Competitive compensation (discussed individually)  </t>
+          <t xml:space="preserve">Обязанности   Развитие пользовательского интерфейса Проектирование архитектуры front-end приложений Обеспечение безопасности front-end приложений Разработка новых модулей и сервисов Оптимизация и поддержка существующих проектов  Требования   Опыт работы с Next js (от 1-х лет) Strong с React  TypeScript и Tailwind CSS Знакомство с Next js и API REST/GraphQL Мышление стартапа  быстрота  гибкость и ориентированность на продукт Английский язык уровень Базовый  Условия   Уютный офис с удобным расположением Уютный офис с удобным расположением Хороший коллектив ЗП договорная </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Backend-разработчик</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>от 5 300 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Настройка сетевых подключений,Настройка ПК,Установка ПО,Администрирование сетевого оборудования,Удаленное администрирование,Ремонт ПК,Сборка ПК,Администрирование серверов Windows</t>
+          <t>Java,SpringBoot,MySQL,PostgreSQL,RESTful,Maven,Gradle,Git,Docker,Английский — B2 — Средне-продвинутый</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ташкент, улица Козитарнов, 50</t>
+          <t>Ташкент, улица Чигил, 32А</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>★ Мы крупный федеральный контактный-центр международного уровня ⁚⁛Хочешь расширить свой опыт работы и работать в крупной компании?Тогда тебе к нам  У нас ты сможешь расширить свои навыки и укрепить их! Что мы делаем? ★ Помогаем партнерам поддерживать непрерывную связь с клиентами  оказываем услуги в сфере телекоммуникаций  горячая линия  тех  поддержка  телемаркетинг и обработка неголосовых каналов Что важно знать о нас? ★ В штате 2000 + человек и 90% — это операторский состав  наши самые важные люди в команде!★ 3 страны Россия  Казахстан и Узбекистан★1200 рабочих операторских мест★ 15 площадок в городах СНГ★ 350 городов география нашей распределенной команды★ Мы – это компания возможностей  У тебя есть все условия расти и развиваться вместе с компанией!Наша компания в поиске Системного администратора  в задачи которого будет входить   поддержка работоспособности офиса (ПК)  сборка ПК и стандартная настройка ОС  установка необходимого софта  работа в команде с системными администраторами в территориально распределенных точках  монтаж  прокладка и сопровождение СКС   Если у тебя есть   опыт работы от 1 года  огромное желание учиться и развиваться  знание русского языка  Мы предлагаем тебе   официальное трудоустройство  график работы 5/2 (полный рабочий день 9-18)  дружный коллектив  возможность профессионального развития и карьерного роста в компании  современный офис с удобной транспортной развязкой   Если тебе интересна наша вакансия  то скорее оставляй свой отклик и мы свяжемся с тобой  До встречи  будем рады видеть тебя в нашей команде!Можно написать самостоятельно  если есть уже желание пройти собеседование  писать в телеграмм</t>
+          <t xml:space="preserve">Обязанности   Развитие пользовательского интерфейса Проектирование архитектуры Backend приложений Обеспечение безопасности Backend приложений Разработка новых модулей и сервисов Оптимизация и поддержка существующих проектов  Требования   Уверенные знания Java  SpringBoot  Websocket  OAuth 2 0 и опыт работы с Spring Boot более 1 годаРеализация RESTful API и интеграция с внешними сервисамиОпыт работы с базами данных PostgreSQL  MySQL (включая сложные SQL-запросы и оптимизацию)Владение инструментами  Maven/Gradle  Git  Docker  Условия   Уютный офис с удобным расположением Уютный офис с удобным расположением Хороший коллектив ЗП договорная </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Бизнес - аналитик 1С</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>от 12 000 000 до 25 000 000 so'm за месяц до вычета налогов</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>от 20 000 до 25 000 so'm за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Аналитическое мышление,Бизнес-анализ,Системный анализ,Управление портфелем продуктов,Планирование ресурсов,Разработка бизнес-плана,Анализ требований,Анализ рисков,Формирование ассортимента,Визуализация данных,Деловая коммуникация,Product-market fit,Управление ожиданиями,Стратегический менеджмент,Продуктовые метрики,Узбекский — C2 — В совершенстве,Русский — C2 — В совершенстве,Английский — B2 — Средне-продвинутый</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ташкент, Яккасарайский район, 9-й проезд Абдуллы Каххара, 1А</t>
+          <t>Ташкент, проспект Шарафа Рашидова, 20А</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">О компании Ты разбираешься в бухгалтерии   в цифрах — но чувствуешь  что хочешь большего  чем просто отчёты?В Leading мы превращаем бухгалтерию в управленческую аналитику Автоматизируем процессы для Coca-Cola  Artel  Golden House и других крупных компаний  Это не просто работа  Это твой карьерный рывок!  Здесь ты сможешь    Участвовать в реальных бизнес-проектахПрокачать аналитику  системное мышление и коммуникацию   Работать с опытными наставниками   Расти профессионально и финансово — без потолка   С нами ты не только применишь знания бухучёта —ты станешь частью проектов  которые меняют бизнес    вырастешь как специалист и личность   Тебе подойдёт  если ты    Умеешь анализировать и искать решения   Готов брать ответственность и учиться новому   Понимаешь основы бухучёта (НСБУ  МСФО — плюс)   Говоришь на русском и узбекском языках   Сертификаты (1С  ACCA) — будет большим плюсом   Что ты получишь   Конкурентную заработную плату (реально выше 20 млн сум)   Наставников и доступ к опыту   Рост в крупные проекты и роли   Уютный офис + кофе  поддержка  обучение   Тимбилдинги  корпоративы и 21 день отпуска   У нас — современные процессы  открытая команда и атмосфера  где идеи реально слушают    </t>
+          <t xml:space="preserve">Наш продукт  HGT — единственное супер приложение для всех основных коммунальных услуг в Узбекистане  Основные функции приложения  Оплата газа  электричества  воды  интернета и вывоз мусора  Пользователи могут просматривать счета  оплачивать  проверять историю и получать бонусы  Пользователям не нужны разные приложения для оплаты коммунальных услуг— HGT предлагает всё в одном месте Обязанности  Разработка и управление жизненным циклом продукта Анализ рынка и конкурентной среды Формирование требований к продукту и взаимодействие с командой разработки Планирование и контроль выполнения задач Взаимодействие с заинтересованными сторонами  Требования  Опыт работы в управлении продуктом от 1 года Знание методологий управления проектами и продуктами Аналитические способности и умение работать с данными Коммуникабельность и умение работать в команде Ответственность и инициативность  Условия  График работы 5/2 с 8 00 до 17 00 Официальное трудоустройство согласно ТК РУзб Работа в офисе Вкусный и сытный обед за счёт компании Возможности для профессионального роста и развития Корпоративные тренинги и обучение  ВАЖНО  Если ты считаешь  что именно ты подходишь нам больше всего — расскажи в сопроводительном письме  почему </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fullstack-разработчик</t>
+          <t>Специалист по визуальному контенту и презентациям</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -656,53 +660,49 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>JavaScript,HTML,PostgreSQL,Linux,REST,Node.js,jQuery,Английский — B2 — Средне-продвинутый</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ташкент, улица Янгишахар, 3А</t>
+          <t>Ташкент, улица Тараса Шевченко, 21А</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IT outsorse kompaniya bilan ichki jamoa ortasida aloqani yolga qoyish togri TZ berish va berilgan topshiriqlarni qabul qilib olish qadriyatli  masulyatli  kirishimli bolishi kerek </t>
+          <t xml:space="preserve">График  Пн–Пт 9 00–18 00  Сб 9 00–15 00Занятость  полнаяЛокация  Ташкент Обязанности   Подготовка презентаций и коммерческих предложений для компании    Создание визуального контента  буклеты  инфографика  карточки объектов  схемы помещений    Оформление корпоративных материалов в Word / PowerPoint / PDF    Разработка визиток  табличек для помещений  внутренней навигации  печатных материалов    Поддержание фирменного стиля и единых стандартов оформления    Обработка изображений  подготовка макетов для печати  взаимодействие с типографиями    Создание шаблонов презентаций  КП и внутренних документов    Требования   Навыки работы в графических редакторах (Figma / Canva / Photoshop или аналогичные)    Уверенное владение PowerPoint  Word и Excel    Опыт подготовки презентаций и коммерческих документов — желательно    Чувство стиля  аккуратность  внимательность к деталям    Умение работать в режиме многозадачности и соблюдать сроки    Грамотная письменная речь    Мы предлагаем   Полный рабочий день и стабильный график    Работа в компании  управляющей объектами коммерческой недвижимости    Возможность профессионального развития в сфере визуального оформления и корпоративного дизайна    Комфортный офис и рабочая атмосфера    Этапы отбора Рассмотрение резюме и портфолио  Интервью с HR  Тестовое задание (фрагмент презентации или коммерческого предложения)  Интервью с директором  Оффер успешному кандидату </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Инженер по безопасности</t>
+          <t>Mobile Developer (Flutter) — Middle+ (EdTech, iOS / Android)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>от 850 до 1 200 $ за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Английский — A2 — Элементарный</t>
+          <t>Git,Flutter,REST API,Clean Architecture,Английский — C1 — Продвинутый,Узбекский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ташкент, улица Фурката, 5</t>
+          <t>Ташкент, улица Юсуфа Хос Ходжиба, 73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Responsibilities   Оказание содействия во взаимодействии с департаментами по надзору за безопасностью  охране окружающей среды и пожарной безопасности города Ташкента  а также поддержание долгосрочных отношений  Проведение ежедневных проверок безопасности и выявление опасностей на объекте  контроль за устранением неполадок на объекте и мониторинг выполнения мер по защите труда работников  Проведение различных программ обучения работников технике безопасности  проверка квалификации персонала специальных операций  а также регулярная организация и проведение инструктажей по технике безопасности и учений по действиям в чрезвычайных ситуациях  Архивирование и сбор документов  связанных с безопасностью  ведение журналов контроля за соблюдением техники безопасности на производстве   Requirements   Степень бакалавра в области архитектуры  гражданского строительства  техники безопасности  машиностроения или смежных областях  Не менее 3 лет опыта работы в сфере безопасности на проектах  Уверенное владение компьютером для работы с электронными таблицами и документами  Наличие сертификата о прохождении обучения по технике безопасности  признанного правительством Узбекистана  Способность работать под давлением  выполнять долгосрочные проектные задания и адаптироваться к китайской строительной культуре  хорошие координационные и организационные навыки  Свободное владение английским и китайским языками приветствуется  </t>
+          <t xml:space="preserve">Mobile Developer (Flutter) — Middle+ (EdTech  iOS / Android) About the project We are launching an EdTech platform for high school students  focused on Mathematics and English (preparation for universities and exams  DTM  National Certificate  SAT  IELTS)  The product includes a mobile application for iOS and Android    online courses and interactive exercises   entry-level testing and level placement   an in-app AI assistant   subscription model and one-time paid sessions with a mentor   We are looking for a Middle+ Flutter Developer who will take part in building the mobile application from scratch and bring it to MVP launch  Responsibilities   Develop and maintain a mobile application using Flutter (iOS / Android)   Participate in designing the application architecture   Implement key user flows    registration and authentication   learning process  exercises  and tests   entry testing and level placement   user progress tracking   interaction with the AI assistant     Integrate with backend services via REST APIs   Implement subscriptions and in-app purchases   Handle edge cases  error states  and offline/slow network scenarios   Participate in sprints  code reviews  and product discussions   Collaborate closely with BA  backend  and product teams   Requirements Must have   At least 2 years of commercial experience with Flutter   Experience publishing apps to the App Store and Google Play   Strong knowledge of Dart   Experience working with REST APIs   Understanding of architectural patterns (Clean Architecture / MVVM  etc )   Experience with state management (Bloc / Provider / Riverpod  etc )   Ability to write maintainable and scalable code   Experience working in a product team   Nice to have   Experience building subscription-based mobile applications   Experience with In-App Purchases / Google Play Billing   Experience integrating AI features (chatbots  assistants)   Understanding of UX for educational products   Experience setting up CI/CD for mobile applications   What we offer   Opportunity to build a product from scratch   Participation in the full MVP development cycle (≈6 months)   Minimal bureaucracy and fast decision-making   Direct collaboration with the product manager / COO and founder   Remote  full-time work format   Compensation  $1 200 – $1 300 (based on experience)  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Системный администратор - Сотрудник по кибербезопасности</t>
+          <t>3D дизайнер</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -712,24 +712,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bitrix24,CRM,Администрирование,Обучение персонала,Техническая поддержка,amoCRM,Базы данных,Администрирование серверов Windows,Настройка ПО,Администрирование серверов,Системное администрирование,Антивирусная защита сети,Мини-АТС,Настройка серверов,Локальные сети,Настройка почтовых серверов,Прокладка кабелей,Администрирование сайтов,Технические средства информационной защиты,Настройка сетевых подключений,Администрирование сетевого оборудования,Системы видеонаблюдения,Информационная безопасность,Информационные технологии,Офисная техника</t>
+          <t>Узбекский — C2 — В совершенстве,Русский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Зангиатинский район, улица Тарихтешар, 1</t>
+          <t>махаллинский сход граждан Хасанбой Гузари, улица ТХАЙ Ёкаси</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полная занятость  полный день Образование - высшее  Мы ищем опытного Администратора  который будет отвечать за настройку software &amp; hardware и управление нашей системой Bitrix24  Ваша задача - оптимизировать рабочие процессы  создавать и настраивать рабочие группы  CRM и внутренние коммуникации  Мы ищем специалиста  обладающего глубокими знаниями основных функциональных возможностей Bitrix24 и способного адаптировать их под наши бизнес-потребности  Обязанности   Настройка и администрирование системы с учетом потребностей компании Оптимизация рабочих процессов  автоматизация задач и улучшение внутренней коммуникации Обучение сотрудников работе с Bitrix24 Решение возникающих проблем и поддержка пользователей в повседневной работе Обеспечение кибербезопасности компании  Требования   Опыт работы с системой Знание основных функциональных возможностей Bitrix24 и умение настраивать их в соответствии с бизнес-потребностями Опыт в управлении рабочими процессами  создании и настройке рабочих групп  CRM и внутренних коммуникаций Понимание бизнес-процессов и умение оптимизировать их с использованием Bitrix24 Коммуникативные навыки и умение обучать пользователей  Условия   Полный рабочий день  шестидневная рабочая неделя с 09 00 до 18 00 Офисное расположение  Канцтоварный базар  Зангиатинский Район  Ташкент  Республика Узбекистан Конкурентоспособная заработная плата  соответствующая опыту и квалификации Возможности профессионального роста и развития в международной компании </t>
+          <t>Обязанности    Создание 3D-дизайнов и визуализаций на компьютере   Разработка 3D-моделей  композиций и макетов по техническому заданию   Подготовка фотореалистичных рендеров для презентаций и согласования   Работа с чертежами и схемами   Внесение правок по комментариям руководства и клиентов   Подготовка файлов для печати  презентаций и производства   Соблюдение сроков выполнения задач   Требования    AutoCAD   Lumion   3ds Max   V-Ray / Corona   Adobe Photoshop   CorelDRAW   Microsoft Office   Также требуется    Понимание основ композиции  света и цвета   Умение работать за компьютером от проекта до финального результата   Аккуратность и внимание к деталям   Ответственность и соблюдение дедлайнов   Наличие портфолио (желательно)     ​​​​​</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Product Manager (Fintech)</t>
+          <t>Senior Java Developer (Fintech/Payment Systems)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -737,22 +737,26 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Java,PostgreSQL,REST API,Docker-compose,Оптимизация кода,Apache Kafka,Spring Data,Spring Security,Английский — B1 — Средний,Русский — B2 — Средне-продвинутый</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ташкент, улица Афросиаб, 4Б</t>
+          <t>Ташкент, Мирзо-Улугбекский район, массив Буз-2, 4А</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CROWE — это международная аудиторско-консалтинговая компания  представленная в 150 странах и входит в ТОП 10 глобальных аудиторских сетей  У нас есть 27 лет опыта работы в Узбекистане с крупнейшими узбекскими и международными Компаниями  годы консалтинговой практики и более 1000 кейсов в области аудита  учёта  консалтинга по налогам и финансовому менеджменту  оптимизации бизнес-процессов  Именно поэтому мы ищем уверенных в себе  профессиональных и опытных людей в команду  Людей  которые разделяют наши цели  ценности и амбиции  ЧТО НУЖНО ЗНАТЬ  Высшее образование в области экономики  финансов  бизнеса или IT  Опыт от 3–5 лет в управлении продуктами или цифровыми сервисами  Желателен опыт в финтехе  SaaS  ERP или платформах для бизнеса  Приветствуется знание бухгалтерского учета  отчетности или налогового законодательства (можно на уровне «понимаю логику  могу общаться с аудиторами»)  Владение русским и английским (узбекский будет преимуществом)  Предпринимательский склад ума  умеет “тащить” продукт  а не ждать инструкций  Понимание потребностей МСБ и корпоративных клиентов в Узбекистане (финансы  комплаенс  отчетность)  Опыт общения с партнерами  банки  регуляторы  интеграторы  Умение находить продуктовые решения для реальных финансовых и операционных проблем клиентов   ЧЕМ НУЖНО БУДЕТ ЗАНИМАТЬСЯ  Управлять продуктом на всех этапах  от идеи и тестирования до запуска и масштабирования  Работать с аналитикой (Google Analytics  Power BI  Tableau и др ) и принимать решения на основе данных  Понимать UX/UI  чтобы совместно с дизайнерами делать продукт удобным  Использовать agile-подходы (Scrum  Kanban)  Находить баланс между бизнес-целями и потребностями клиентов   КАК ИЗМЕРЯЕТСЯ УСПЕХ   Своевременный запуск и успешное внедрение MVP  Рост количества пользователей и их активность  Выполнение планов по монетизации  Позитивная обратная связь от аудиторов и клиентов   МЫ ПРЕДЛАГАЕМ   Стабильная заработная плата с ежегодной индексацией от 20 000 000 до 30 000 000 в зависимости от опыта и навыков  Молодая энергичная команда  каждый сотрудник будет себя чувствовать в особой атмосфере тепла и комфорта  Такси по всем деловым поездкам (при необходимости)  Обучение и повышение квалификации за счет компании  Оплачиваемые командировочные расходы  Мероприятия для Команды  Офис расположен в шаговой доступности от метро Ойбек  </t>
+          <t xml:space="preserve">О проекте Ищем опытного Java-разработчика для работы над платежной системой  которая находится на финальной стадии перед production-запуском  Требуется исправить выявленные архитектурные проблемы и критические уязвимости  Система работает с платежными транзакциями  интеграцией с банками и обработкой валютных операций  Проект имеет высокие требования к надежности и безопасности  Технологический стек Backend  Java 17-24 Spring Boot 3 5 x Spring Data JDBC (не JPA/Hibernate) Spring WebFlux (Reactive Stack) Spring Security (OAuth2  JWT) Spring Cloud Gateway Project Reactor Тесты k6  Databases &amp; Caching  PostgreSQL 15 Liquibase (database migrations) Redis (caching  distributed locking)  Monitoring &amp; Observability  Micrometer Prometheus Grafana OpenTelemetry (traces  metrics  logs)  Infrastructure &amp; DevOps  Docker Docker Compose Kubernetes GitLab CI/CD  Additional Services  Keycloak (authentication) Resilience4j (circuit breaker  retry)  Обязанности  Критические задачи Оптимизация работы с внешними API — улучшение стратегий обработки ошибок  добавление circuit breaker паттернов Валидация бизнес-данных — добавление проверок корректности критических параметров перед обработкой Оптимизация запросов к БД — замена неэффективных запросов  добавление пагинации Обеспечение идемпотентности — добавление защиты от дублирования операций на уровне БД Рефакторинг long-running транзакций — разбиение на более мелкие unit of work  добавление параллельной обработки Исправление race conditions — реализация distributed locking для конкурентных операций Усиление безопасности — перенос sensitive данных в secrets management Дальнейшие задачи  Внедрение event-driven архитектуры (Kafka) Добавление compliance-проверок Оптимизация производительности под высокие нагрузки (target  500+ TPS) Интеграция с дополнительными внешними системами  Требования  Обязательные навыки  5+ лет коммерческой разработки на Java/Spring 3+ года работы с финансовыми или платежными системами Глубокое знание Spring Boot 3 x  Spring Data JDBC  Spring WebFlux Опыт работы с PostgreSQL (индексы  constraints  блокировки  миграции) Понимание reactive programming (Project Reactor) Опыт с микросервисной архитектурой и distributed systems Знание паттернов работы с распределенными транзакциями (saga  compensating transactions) Понимание финансовых расчетов  работа с денежными суммами  точность вычислений  BigDecimal Опыт реализации идемпотентности операций Опыт исправления production incidents в критичных системах  Технические компетенции  Distributed locking  Redis (Redisson)  оптимистичные/пессимистичные блокировки Безопасность  OWASP Top 10  secrets management  OAuth2/JWT  защита от SQL injection/XSS Базы данных  ACID  транзакции  race conditions  миграции под нагрузкой  SELECT FOR UPDATE DevOps  Docker  Kubernetes  CI/CD  мониторинг (Prometheus/Grafana) Testing  JUnit 5  integration tests  нагрузочное тестирование Отказоустойчивость  Circuit breaker  retry policies  Resilience4j  Желательный опыт  Работа с платежными шлюзами (EMVCo  QR-платежи) Опыт миграции legacy-систем на микросервисы Опыт с высоконагруженными системами (500+ TPS) Знание финансовых стандартов (ISO 4217  PCI DSS) Опыт с Kafka и event-driven архитектурой Знание практик double-entry bookkeeping  Что НЕ подходит  Опыт только с монолитными приложениями Отсутствие опыта с финансовыми системами Незнание разницы между JPA и JDBC Незнание reactive programming Непонимание проблем race conditions и distributed locking Легкомысленное отношение к безопасности финансовых систем   </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Менеджер по проектам</t>
+          <t>Бизнес - аналитик со знанием УТ/ERP/ УТ/ Розница</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,127 +767,127 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ташкент, проспект Шарафа Рашидова, 71</t>
+          <t>Ташкент, Яккасарайский район, 9-й проезд Абдуллы Каххара, 1А</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мы  Midea Узбекистан  являемся головным офисом и официальными представителями  Наша компания специализируется на предоставлении широкого ассортимента бытовых и промышленных товаров  включая кондиционеры  холодильники  стиральные машины и многое другое  Подробную информацию о нашем ассортименте вы можете найти на нашем сайте Midea uz  Мы активно присутствуем на рынке Узбекистана с 2014 года  стремясь предоставлять нашим клиентам высококачественные продукты и первоклассное обслуживание  Для нашей команды  ищем крутого Менеджера проектов   Что вам предстоит делать   Планирование  координация и управление проектами на всех этапах — от начала до успешного завершения Взаимодействие с клиентами для уточнения требований и обеспечения соответствия проекта их ожиданиям Разработка и мониторинг графиков проектов  контроль за соблюдением бюджета Организация работы команды проекта  обеспечение эффективного взаимодействия между участниками  Что мы от вас ожидаем   Свободное владение узбекским  русским и английским языками (знание английского будет преимуществом) Опыт работы с программами Microsoft Word и Excel Умение эффективно решать организационные вопросы и управлять процессами Высокий уровень делового общения и умение находить общий язык с разными людьми Способность сохранять спокойствие и вежливость в любых ситуациях Инициативность и проактивный подход к работе  Условия   Оплата труда от 8 000 000 до 11 000 000  оплачивается 2 раза в месяц График работы с 09 00 до 18 00 (понедельник - суббота) Вкусный обед в собственном кафе Офис находится в центре города (Ц-5) с большой стоянкой Обучение  тренинги за счёт компании Корпоративы  тимбилдинги  дружный коллектив   </t>
+          <t>Наша компания является одной из лидирующих на рынке среди программных продуктов   Мы занимаемся автоматизацией бухгалтерского и управленческого учета на базе программных продуктов 1С и сосредоточены на создании качественных и надежных решений для автоматизации бизнеса  На нашем счету более 1000 успешных внедрений  мы обслуживаем ИП ООО «Anglesey Food»  ARTEL  Группу компаний Golden House  СП UZ KOR GAS CHEMICAL  «Coca‑Cola Ichimligi Uzbekiston  LTD»    Нам доверяют и их доверие полностью оправдано  99% наших клиентов ставят максимальную оценку нашей работы и готовы нас рекомендовать  Сейчас мы в поисках сотрудника  который обеспечит нашим клиентам автоматизацию и оптимизацию бизнес-процессов   связанных с УТ  ERP  УК  Розницей Обязанности   Общение с заказчиками и пользователями для уточнения требований  Разработка и моделирование бизнес-процессов Согласование разработок/доработок с клиентами Подготовка технического задания Подготовка схем   диаграмм  картинок работ Тестирование и сдача работ  подготовка инструкций Обучение пользователей программе Сопровождение и консультация пользователей Подготовка протокола /Документирование  Требования   Высшее образование Отличное владение русским и узбекским языками Отличные коммуникативные навыки Навыки работы с “1С” (ERP / УТ / УК/ Розницей )  Наличие сертификатов 1С Профессионал будет преимуществом  Условия   График работы  с 09 00 до 18 00  5/2  Официальное трудоустройство по ТК РУз  Ежегодный оплачиваемый отпуск  21 календарных дней  Дружный коллектив  Важна не только работа  но и атмосфера в команде – у нас комфортная и поддерживающая среда  Корпоративы и тимбилдинги – каждый месяц мы устраиваем мероприятия  чтобы отдыхать и сближаться  Номинация  Лучший сотрудник  – Победителей ждут путевки в Таиланд  Бали  на Мальдивы  Кофе-машина на каждом этаже Работа в центре города  Мы всегда готовы обучать и поддерживать наших сотрудников в освоении всех необходимых навыков и знаний  если вы хотите приобрести крутой опыт в автоматизации и бизнес - анализе крупных предприятий  оставляйте свой отклик</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Специалист по IT + АХО</t>
+          <t>IT специалист</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>от 8 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Установка ОС,Проведение инвентаризация ОС,Настройка ПК,Windows 7,Закупка оргтехники и оборудования,Ремонт ПК,Настройка сетевых подключений,Офисная техника,Работа с оргтехникой,Internet,Организация рабочих мест,Windows Vista,Закупка продуктов питания,Техническая поддержка,Настройка ПО,Русский — C2 — В совершенстве</t>
+          <t>Настройка сетевых подключений,Настройка ПО,Настройка ПК,Работа с оргтехникой,Настройка серверов,Техническая поддержка</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ташкент, проспект Бунёдкор, 7Г</t>
+          <t>Ташкент, Янгихаётский район, махаллинский сход граждан Чоштепа</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аудиотеле — динамично развивающаяся международная компания — приглашает в команду контактного центра IT-специалиста / специалиста АХО Если вы хотите стать частью стабильной и растущей компании  работать в комфортном офисе и быть вовлечённым в реальные процессы — эта вакансия для вас  Обязанности  IT-блок   Организация и оснащение рабочих мест Установка и настройка серверного и коммуникационного оборудования Установка и администрирование ОС Windows  Linux Техническая поддержка пользователей (установка ПК  перенос рабочих мест  замена комплектующих  чистка и модернизация оборудования) Диагностика и устранение неисправностей компьютерного оборудования Монтажные работы Мелкий ремонт комплектующих Инвентаризация IT-оборудования и ведение учёта  АХО-блок   Закуп хозяйственного инвентаря  канцелярии  воды Контроль укомплектованности офиса мебелью  техникой и расходными материалами Мелкий ремонт мебели Взаимодействие с подрядчиками и субподрядчиками  участие в заключении договоров  Требования   Опыт работы на аналогичной должности от 1 года Знание принципов построения и поддержки компьютерных сетей Навыки подключения  настройки и диагностики аппаратных средств Уверенные знания ОС Windows и базового офисного ПО Знание русского языка — обязательно  Условия   Комфортный современный офис (ориентир — метро Новза) Дружный коллектив и адекватное  поддерживающее руководство Перспектива профессионального и карьерного роста Конкурентоспособная система оплаты труда  фиксированный оклад + KPI </t>
+          <t>Мы в поиске активного и ответственного Junior / Junior+ IT-специалиста  Обязанности - Внедрение и сопровождение IT-продуктов локального и международного уровня- Техническая консультация клиентов по работе с программами  и решение различных проблем связанных с кассовыми и сетевыми оборудованиями  Требования - Нужен опыт работы в IT сфере- Языки  Русский и Узбекский- Уверенный пользователь ПК- Полная занятость  совмещать с учебой не получится- Быть готовым к ночной смене  19 00-04 00 Наличие диплома не обязательно Технические навыки 1  Понимание сетевых оборудований роутеры и маршрутизация 2  Системное администрирование - управление корпоративными почтами пользователей 3  ⁠Установка принтера и драйверов 4  ⁠Переустановка ПК (Windows)5  ⁠Администрирование windows на среднем уровне 6  ⁠Навыки коммуникации  общительность  Что вы получите - Опыт работы в IT- Достойная заработная плата- Участие в международных проектах  Условия работы - Офис в центре города- Два графика работы  ночная и дневная Если вы готовы развиваться в IT и решать интересные задачи  ждем ваше резюме!</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Тестировщик (QA)</t>
+          <t>Специалист технической поддержки IT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>от 8 000 000 до 10 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ручное тестирование,Функциональное тестирование</t>
+          <t>Настройка ПК,Техническая поддержка,Пользователь ПК,Ремонт оборудования,Ответственность,Диагностика ПК,Ремонт ПК,Сборка ПК,Работа с оргтехникой,Обслуживание офисной техники,Настройка принтеров,Установка драйверов,Установка ПО,Ремонт принтеров,Русский — C2 — В совершенстве,Английский — B1 — Средний,Узбекский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ташкент, улица Шота Руставели, 150</t>
+          <t>Ташкент, тупик Фурката, 173</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности   Разрабатывать  обновлять и документировать тест-кейсы и тестовые сценарии  Выполнять ручное (manual) функциональное и регрессионное тестирование  Выявлять дефекты  подробно их фиксировать и отслеживать в системе bug-tracking  Сотрудничать с командой разработчиков для оперативного решения возникающих проблем  Участвовать в процессе UAT (приёмочного тестирования) и оказывать необходимую поддержку  Вносить предложения по повышению качества и активно участвовать в улучшении тест-процессовов   Требования   1–2 года опыта работы на позиции QA  Уверенные практические навыки в manual testing  Понимание процесса написания тест-кейсов  баг-трекинга и тестовых процессов  Опыт работы с Jira или аналогичными системами трекинга задач  Внимательность к деталям  организованность и хорошие коммуникативные навыки   Условия   Возможности профессионального роста и обучения  Дружную команду и открытый стиль коммуникации  Участие в ключевых этапах проекта и значимые рабочие задачи  </t>
+          <t xml:space="preserve">Обязанности   Обработка и решение сложных технических запросов  поступающих от первой линии поддержки Взаимодействие с командами разработчиков для выявления и устранения технических ошибок  Документирование и передача рекомендаций по улучшению процессов  Техническая настройка офисных программ   Установка ПО на рабочие станции  подготовка рабочих мест    Обслуживание и администрирование рабочих станций    Подключение пользователей к компьютерной и телефонной сети   Настройка оргтехники    Требования   Умение анализировать и решать технические проблемы на уровне второй линии поддержки  Опыт взаимодействия с командами разработчиков и интеграторами  Восстанавливать работоспособность системы после ошибок  Навыки диагностики неисправностей компьютерного  серверного и сетевого оборудования  Выявлять ошибки в работе программного обеспечения на компьютерах пользователей  Обслуживание ИТ оборудования (ТСД  термопринтеры  сканеры ШК и др )   Отличное знание офисных компьютерных программ    Знание языков русский/узбекский    Условия   Возможности для профессионального роста и развития Официальное трудоустройство График работы 5/2 и 6/1 Вкусное бесплатное питание  Открытые коллеги-эксперты в своем деле  готовые делиться своим опытом  </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Графический дизайнер - наружная реклама</t>
+          <t>Инженер по тестированию качества</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 800 до 1 200 $ за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Специалист</t>
+          <t>Английский — A1 — Начальный</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ташкент, улица Буюк Ипак Йули</t>
+          <t>Ташкент, улица Фурката, 5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Создание и разработка дизайна в сфере наружной рекламы    Требования     Специалист  с опытом работы    Работа в офисе на полную ставку  ОФЛАЙН      Знание программ Corel draw  Adobe Photoshop    Пол не имеет значения    Кандидаты желающие работать в  ОНЛАЙН  системе не рассматриваются    Учащиеся учебных заведений не рассматриваются    Условия    Официальное трудоустройство    График работы 6/1 (09 00 - 18 00)    Обед за счет фирмы    офис расположен на массиве ТТЗ   </t>
+          <t>Responsibilities     Управление испытаниями  Ответственность за испытания и проверку проектных материалов  компонентов и инженерных элементов  создание и совершенствование систем и документации по управлению испытаниями  контроль приемки сырья  отбора проб и испытаний  а также испытаний в процессе производства для обеспечения достоверности  точности  полноты данных и их соответствия международным стандартам  проектным спецификациям и требованиям контракта  Измерения и разметка  Организация измерений и разметки на объекте на протяжении всего процесса  включая настройку сети контроля  разметку строительных площадок  позиционирование при монтаже и мониторинг деформаций  проверка ключевых данных измерений для обеспечения точности  соответствующей спецификациям  и предоставления надежных эталонных показателей и данных для строительства  Отслеживание и обработка несоответствующей продукции  Выявление  регистрация  отчетность и отслеживание несоответствующих изделий  обнаруженных в ходе испытаний и измерений  сотрудничество с техническим  качественным и строительным отделами для анализа причин  контроля за устранением и проверкой  формирование замкнутой системы управления для контроля рисков качества  Техническое управление и координация  Ответственность за метрологическую проверку и техническое обслуживание приборов и оборудования  подготовка и проверка планов измерений и испытаний  осуществление технической коммуникации и координации с заказчиком  руководителем  консультантами и внутренними подразделениями для обеспечения бесперебойного выполнения работ   Requirements     Минимум 3 года опыта работы в области инженерно-технического тестирования  управления измерениями и внедрения в Узбекистане  опыт работы с крупномасштабными проектами  такими как музеи и театры  приветствуется  Знание инженерно-технических стандартов качества  спецификаций и систем управления  Владение английским языком как рабочим языком приветствуется  Знание стандартов и спецификаций измерений и испытаний  а также владение RTK  тахеометрами и другими измерительными приборами и оборудованием  Высокий уровень понимания управления проектами  умение работать в команде  отличные коммуникативные и координационные навыки  Надежность  преданность и трудолюбие   ​​</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Начинающий специалист</t>
+          <t>Бизнес-аналитик Битрикс24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>от 6 000 000 so'm за месяц до вычета налогов</t>
+          <t>от 8 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Узбекский — B1 — Средний,Русский — C2 — В совершенстве</t>
+          <t>Бизнес-анализ,Моделирование бизнес процессов,BPMN,Сбор требований,Разработка технических заданий,1С-Битрикс,Битрикс24,Интеграция программных модулей,Аналитическое мышление,Документирование бизнес-требований,Автоматизированное тестирование,API,Bizagi,Draw.io,Camunda,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ташкент, улица Катартал, 38</t>
+          <t>Ташкент, Яккасарайский район, 9-й проезд Абдуллы Каххара, 1А</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Проект  LIMA О вакансии Мы ищем кандидата  который хочет расти в сфере бизнес-аналитики и участвовать в трансформации ключевых процессов  Опыт работы не обязателен — мы всему научим! Если вам интересно работать с живыми кейсами и видеть  как ваши идеи реально влияют на процессы — эта работа для вас  Что предстоит делать    Анализировать и оптимизировать бизнес-процессы   Собирать  структурировать и оформлять требования   Моделировать процессы в BPMN (Draw io  Bizagi и др )   Выявлять узкие места и точки роста   Помогать команде работать эффективнее   Что ценим    Желание развиваться в бизнес-аналитике   Готовность быстро освоить инструменты для аналитики   Внимание к деталям  организованность  аналитическое мышление   Владение MS Office  знание Notion  Visio  Draw io или Bizagi будет плюсом   Что предлагаем    Реальную возможность влиять на процессы и видеть результат своей работы   Поддержку опытной команды и открытое руководство   Интересные задачи  обучение и профессиональный рост   Комфортный график и современный стек инструментов   График работы с 9 00 до 18 00   Официальное трудоустройство   Если хотите расти и развиваться в бизнес-аналитике — присоединяйтесь к LIMA!</t>
+          <t xml:space="preserve">LEADING BUSINESS SOFTWARE - одна из лидирующих компаний на рынке среди программных продуктов   Мы занимаемся автоматизацией бухгалтерского и управленческого учета на базе программных продуктов 1С и Bitrix24  На нашем счету более 1000 успешных внедрений  мы обслуживаем ARTEL  Golden House  Korzinka uz и др  Нам доверяют и их доверие полностью оправдано  В связи с ростом количества проектов  мы в поисках бизнес-аналитика по Битрикс24 Обязанности   Изучение бизнес-процессов заказчика Моделирование бизнес-процессов в BPMN 2 0 Настройка Битрикс24 в соответствии с бизнес-процессами Обучение сотрудников заказчика пользованию системой ​​​​​​​Сопровождение пользователей  Требования   Умение выявлять и документировать текущие процессы заказчика Знание нотации BPMN 2 0 и инструментов для моделирования (например  Bizagi  Camunda Modeler  Draw io и др ) Опыт конфигурации CRM  бизнес-процессов и автоматизаций Умение доносить материал понятным языком для разного уровня пользователей  Условия   Официальное трудоустройство по ТК РУз График  5/2 с 09 00 до 18 00 Зарплата  от 8 млн сум на испытательный срок Карьерный рост Корпоративы и тимбилдинги Кофе-машина  PlayStation  спокойная зона Ежегодный оплачиваемый отпуск  21 календарных дней  Если тебе близки технологичные проекты  понятная логика процессов и работа с компаниями-лидерами — присоединяйся  </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Менеджер международных проектов / торговый представитель иностранных компаний</t>
+          <t>Business Analyst (Middle / Senior) — EdTech</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -893,78 +897,74 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Деловая переписка,Поиск и привлечение клиентов,Деловая коммуникация</t>
+          <t>User Story,Постановка задач разработчикам,Стратегическое планирование,Бизнес-анализ,Узбекский — C2 — В совершенстве,Английский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ташкент, улица Талабалар, 2</t>
+          <t>Ташкент, улица Юсуфа Хос Ходжиба, 73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Условия   Оклад 400$ Ежемесячная премия до 100% от оклада в зависимости от выполнения показателей (количество проведенных встреч  звонков  переговоров и их результаты) Ежеквартальная премия за заключение российской компанией контракта на поставку продукции в Узбекистан (до 100% от оклада)   Обязанности  Организация работы шоурума российских компаний в Ташкенте в том числе  1 1 демонстрация образцов продукции потенциальным узбекским покупателям 1 2 проведение переговоров  мероприятий  направленных на продвижение российской продукции  1 3 материальный учет ценностей  находящихся в шоуруме   Консультирование российских предприятий по возможностям выхода на узбекский рынок с своей продукцией   Представление интересов российских компаний на рынке Узбекистана в части поиска покупателей   Совершение звонков предприятиям Узбекистана с целью предложения сотрудничества с российскими компаниями   Проведение выездных встреч с предприятиями Узбекистана по вопросу поставок российской продукции Содействие в заключении экспортных контрактов между российскими и узбекскими компаниями (консультирование  участие в переговорах) Командировки по городам Узбекистана (1-2 раза в месяц) Подготовка отчетности по установленной форме   Требования  Высшее экономическое / юридическое образование Уверенное владение ПК (Microsoft Word  Excel  PDF  PowerPoint) Владение русским и узбекским языком в совершенстве Грамотная речь Приветствуется опыт участия в международных проектах (международная торговля  представительство иностранных компаний) Ответственность  исполнительность   Адрес  Технопарк «Инно» - г  Ташкент  Алмазарский район  улица Талабалар 2 (новое современное здание со свежим ремонтом)    </t>
+          <t xml:space="preserve">About the Project We are launching an EdTech platform for high school students aged 17–18  focused on Mathematics and English (preparation for universities and entrance exams  DTM  National Certificate  SAT  IELTS)  We are looking for a Business Analyst who will be responsible for requirements across the entire development cycle — from idea to MVP launch  Responsibilities   Decompose business ideas into User Stories / Functional Requirements   Define Acceptance Criteria and support requirements throughout their full lifecycle   Work with uncertain and changing inputs  formalizing requirements when complete information is not available   Describe the logic of key platform modules  including    entry testing and level placement   course structure and learning progress   “skip test → start from scratch” scenario     Formalize requirements for the AI assistant (use cases  constraints  input and output data)   Describe the business logic of subscriptions and one-time payments   Participate in requirements prioritization together with the founder and the team   Work directly with backend and frontend developers   Participate in sprints  reducing the number of reworks and clarifications   Maintain and keep documentation up to date (BRD / FRD  user flows  business diagrams)   Requirements   2+ years of experience as a Business Analyst / System Analyst   Experience working with web and mobile products   Strong ability to write    User Stories   Functional Requirements   Acceptance Criteria     Understanding of client–server architecture   Experience with Jira / Confluence / Notion or similar tools   Ability to communicate effectively with developers and speak the same technical language   Nice to Have   Experience in EdTech or subscription-based products   Experience formalizing requirements for AI-driven features   Understanding of LMS and educational platforms   Basic knowledge of API / SQL   What We Offer   Opportunity to build a product from scratch   Participation in the full MVP development cycle   Minimal bureaucracy and direct communication with the Product Manager / COO and the Founder   Remote  full-time work format   Competitive compensation (discussed individually)  </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Менеджер по проектированию</t>
+          <t>Системный администратор</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 5 300 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Проектная документация,Проектирование,MS Project,Формирование границ проекта,Английский — B2 — Средне-продвинутый,Русский — C2 — В совершенстве</t>
+          <t>Настройка сетевых подключений,Настройка ПК,Установка ПО,Администрирование сетевого оборудования,Удаленное администрирование,Ремонт ПК,Сборка ПК,Администрирование серверов Windows</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ташкент, улица Буюк Ипак Йули</t>
+          <t>Ташкент, улица Козитарнов, 50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Организация процесса проектирования   Формирование технического задания (ТЗ) на проектирование    Определение объёмов  этапов и состава проектной документации   Планирование сроков и составление графика проектирования    Подбор и координация проектных организаций и подрядчиков    Управление проектной документацией   Координация участников проекта   Согласования и разрешительная документация   Контроль качества проектирования   Управление рисками и сроками   Требования    Высшее техническое образование  Архитектура  Инженерные системы  Промышленное и гражданское строительство  Нефтегазовое дело или смежные направления   Опыт работы в сфере проектирования или управления проектированием от 3–5 лет Знание нормативной базы  Владение программами   AutoCAD — обязательно    MS Office (Excel  Word  PowerPoint) — уверенно    Умение читать чертежи и выявлять коллизии    Опыт работы с графиками проектирования (ГПР)    Навык управления внешними и внутренними проектными командами    Умение вести переписку с госорганами  подрядчиками  заказчиком    Условия    Конкурентоспособную заработную плату (обсуждается по итогам собеседования)    Официальное трудоустройство в соответствии с Трудовым кодексом Республики Узбекистан    Дружный коллектив и возможность профессионального роста    Рабочий график  6/1 (с 9 00 до 18 00)  вс — выходные    Работа в стабильной строительной компании с крупными проектами по Узбекистану   </t>
+          <t>★ Мы крупный федеральный контактный-центр международного уровня ⁚⁛Хочешь расширить свой опыт работы и работать в крупной компании?Тогда тебе к нам  У нас ты сможешь расширить свои навыки и укрепить их! Что мы делаем? ★ Помогаем партнерам поддерживать непрерывную связь с клиентами  оказываем услуги в сфере телекоммуникаций  горячая линия  тех  поддержка  телемаркетинг и обработка неголосовых каналов Что важно знать о нас? ★ В штате 2000 + человек и 90% — это операторский состав  наши самые важные люди в команде!★ 3 страны Россия  Казахстан и Узбекистан★1200 рабочих операторских мест★ 15 площадок в городах СНГ★ 350 городов география нашей распределенной команды★ Мы – это компания возможностей  У тебя есть все условия расти и развиваться вместе с компанией!Наша компания в поиске Системного администратора  в задачи которого будет входить   поддержка работоспособности офиса (ПК)  сборка ПК и стандартная настройка ОС  установка необходимого софта  работа в команде с системными администраторами в территориально распределенных точках  монтаж  прокладка и сопровождение СКС   Если у тебя есть   опыт работы от 1 года  огромное желание учиться и развиваться  знание русского языка  Мы предлагаем тебе   официальное трудоустройство  график работы 5/2 (полный рабочий день 9-18)  дружный коллектив  возможность профессионального развития и карьерного роста в компании  современный офис с удобной транспортной развязкой   Если тебе интересна наша вакансия  то скорее оставляй свой отклик и мы свяжемся с тобой  До встречи  будем рады видеть тебя в нашей команде!Можно написать самостоятельно  если есть уже желание пройти собеседование  писать в телеграмм</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Бизнес - аналитик 1С</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Администрирование сетевого оборудования,TCP/IP,Администрирование серверов Windows,DHCP,Linux,Русский — C2 — В совершенстве,Узбекский — B2 — Средне-продвинутый</t>
-        </is>
-      </c>
+          <t>от 12 000 000 до 25 000 000 so'm за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ташкент, улица Махтумкули, 1А</t>
+          <t>Ташкент, Яккасарайский район, 9-й проезд Абдуллы Каххара, 1А</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Venkon Group занимает половину рынка автоматизации Узбекистана и официально поставляет 1С  Мы создаем решения  которые сохраняют деньги  время и нервы 300+ тысяч бизнесменов  Мы стремимся к тому  чтобы работа в нашей компании была слаженным механизмом  и для нас очень важно  чтобы функционирование информационной инфраструктуры было эффективным и надежным  Сейчас мы ищем системного администратора  который будет обеспечивать работоспособность компьютеров/серверов и сети  Что вы будете делать (задачи)   Техническая поддержка пользователей  а также серверов  Работа со специализированным сетевым оборудованием (SNR  Mikrotik) Прокладка локальной сети  Закуп компьютерной техники Выполнение заданий прямого руководителя   Что ждем от кандидата (обязательно)   Знание основ сетевых технологий (TCP/IP DNS  DHCP)   Знания и навыки в работе с ОС Microsoft Windows  соотв  утилитами (cmd/mmc  ping/nslookup/sfc)    Будет преимуществом в отборе    Опыт работы с системами мониторинга Zabbix    Опыт работы с системами виртуализации Proxmox  Hyper V    Администрирование АТС на базе FreePBX/Asterisk    Администрирование Windows Server 2019 и Linux серверов    Что мы предлагаем    Оклад от 4 до 6 млн  сум  в зависимости от квалификации  оформление по ТК РУз   Руководитель-наставник  профессиональное обучение за счет компании и поддержка 130 сотрудников Venkon   Современный офис в IT-парке   Пятидневная рабочая неделя (9 00 - 18 00)   Равные права и правила для всех  Чтобы воплощать идеи  получать фидбек  слушать и слышать коллег и клиентов   Мы верим  что  чтобы создать что-то стоящее  нужны не только технологии  но и лучшие люди с разным опытом и взглядами  Если вы тоже так думаете  присоединяйтесь!  Присылайте резюме напрямую нашим рекрутерам </t>
+          <t xml:space="preserve">О компании Ты разбираешься в бухгалтерии   в цифрах — но чувствуешь  что хочешь большего  чем просто отчёты?В Leading мы превращаем бухгалтерию в управленческую аналитику Автоматизируем процессы для Coca-Cola  Artel  Golden House и других крупных компаний  Это не просто работа  Это твой карьерный рывок!  Здесь ты сможешь    Участвовать в реальных бизнес-проектахПрокачать аналитику  системное мышление и коммуникацию   Работать с опытными наставниками   Расти профессионально и финансово — без потолка   С нами ты не только применишь знания бухучёта —ты станешь частью проектов  которые меняют бизнес    вырастешь как специалист и личность   Тебе подойдёт  если ты    Умеешь анализировать и искать решения   Готов брать ответственность и учиться новому   Понимаешь основы бухучёта (НСБУ  МСФО — плюс)   Говоришь на русском и узбекском языках   Сертификаты (1С  ACCA) — будет большим плюсом   Что ты получишь   Конкурентную заработную плату (реально выше 20 млн сум)   Наставников и доступ к опыту   Рост в крупные проекты и роли   Уютный офис + кофе  поддержка  обучение   Тимбилдинги  корпоративы и 21 день отпуска   У нас — современные процессы  открытая команда и атмосфера  где идеи реально слушают    </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Сервис Инженер 1С/Установщик 1С</t>
+          <t>Fullstack-разработчик</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -974,101 +974,101 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1С: Предприятие 8,Техническая поддержка,Настройка ПО,Аналитическое мышление,Информационные технологии,Деловое общение,Обновление конфигурации 1С,Техническое обслуживание,Helpdesk,1С: Предприятие,Настройка ПК,Базы данных,Узбекский — C1 — Продвинутый,Русский — C2 — В совершенстве</t>
+          <t>JavaScript,HTML,PostgreSQL,Linux,REST,Node.js,jQuery,Английский — B2 — Средне-продвинутый</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ташкент, улица Махтумкули, 1А</t>
+          <t>Ташкент, улица Янгишахар, 3А</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности  - Установка программы 1С на компьютеры Заказчика - Проведение внедрения и настройки программы 1С на территории клиента - Консультация клиента по техническим вопросам работы с программой 1С (HelpDesk) - Подключение сервисов ИТС  Требования  - Знание ПК на уровне администратора - Грамотное письменное и устное общение - Аналитический склад ума - Высокий уровень ответственности и самостоятельности - Нацеленность на результат  Преимуществом будут знания администрирования 1С  а именно   Возможности платформы 1С Предприятие 8  способы установки платформы  установки и создания прикладных решений  Как сохранить  обновить  сравнить  выгрузить  загрузить  Добавить пользователей  назначить права  Работа со списком пользователей  журналом регистрации и т  д   Способы лицензирования платформы 1С Предприятие 8  а также функциональные возможности при использовании различных видов лицензий  Механизмы взаимодействия системы 1С Предприятие 8 с торговым оборудованием и о его подключении к используемым прикладным решениям  Сетевые технологии  сетевые протоколы  коммутаторы  маршрутизаторы  точки доступа  беспроводные сети  Администрирование операционных систем Windows/Linux  Установка и настройка веб-серверов IIS/Apache с публикацией информационных баз по протоколам HTTP и HTTPS  Архитектура сервера 1С Предприятие 8  назначении его компонент и умении разбираться в настройках кластера рабочих серверов  Установка  настройка и обслуживание баз данных в СУБД MSSQL/PostgreSQL   Условия  - 5 дневная рабочая неделя в комфортабельном офисе - Дружный амбициозный коллектив - Трудоустройство по ТК РУз - Оклад по итогам собеседования </t>
+          <t xml:space="preserve"> IT outsorse kompaniya bilan ichki jamoa ortasida aloqani yolga qoyish togri TZ berish va berilgan topshiriqlarni qabul qilib olish qadriyatli  masulyatli  kirishimli bolishi kerek </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Директор по маркетингу (Финансовое направление)</t>
+          <t>Специалист технической поддержки и ввода данных</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Продвижение бренда,Региональные маркетинговые кампании,Позиционирование бренда,Масштабирование маркетинговых кампаний,Медиапланирование,Анализ эффективности маркетинговых кампаний,Запуск маркетинговых кампаний,Анализ конкурентной среды,Оптимизация маркетинговых кампаний,Целевой маркетинг,Скрытый маркетинг,Маркетинговый анализ,Маркетинговые коммуникации,Маркетинговые исследования,Маркетинговая стратегия,Организаторские навыки,Мессенджер-маркетинг,B2B-маркетинг,B2C-маркетинг,Стратегическое планирование,Анализ эффективности PR-кампании</t>
-        </is>
-      </c>
+          <t>от 1 200 до 1 400 $ за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ташкент, 6-й проезд Навруз, 1/2</t>
+          <t>Aventura</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кто мы? Группа «ADM GLOBAL» — молодая  стремительно растущая  активная команда  которая стала первой среди частных компаний в автобизнесе  кто завез иностранные марки авто в Узбекистан  Компания мультибрендовая  является официальным дистрибьютором Kia  Chery  Haval  Hyundai Trucks в Узбекистане и работает по мировым стандартам  Сеть «ADM GLOBAL» включает в себя автосалоны  сертифицированные производителями  сервисные центры  а самое главное - собственное производство  Штат компании - более 4500 специалистов  включая менеджеров и мастеров  которые прошли аттестацию в учебных центрах производителей  Основная сфера деятельности – производство  продажа  гарантийное и послегарантийное обслуживание автомобилей  а также продажа оригинальных запасных частей и аксессуаров  Дилерская сеть компании насчитывает более 60 центров по всей Республике Узбекистан  Обязанности   Разработка и реализация маркетинговой стратегии компании  Управление командой маркетинга  постановка задач  контроль исполнения  Анализ рынка  конкурентов и целевой аудитории  Планирование и контроль рекламных кампаний (digital  оффлайн  SMM  контекст  таргет и др )  Взаимодействие с подрядчиками и агентствами  Участие в разработке продуктового позиционирования и брендинга  Бюджетирование и оценка ROI маркетинговых активностей   Требования   Опыт более 3х лет на руководящей должности в области маркетинга  Высшее образование в области маркетинга  менеджмента или экономики  Знание русского  узбекского языка  английского языка (свободное владение)  Опыт управления и формирования команды  Организация работы отдела маркетинга и руководство его деятельностью  Анализ эффективности работы сотрудников отдела  Навыки стратегического планирования  Способность разрабатывать и внедрять эффективные маркетинговые стратегии  Знание современных маркетинговых инструментов  Опыт работы с цифровыми и традиционными каналами продвижения (ATL  BTL  Digital  PR)  Продуктовое и клиенториентированное мышление  понимание важности развития целостного клиентского опыта  Умение эффективно взаимодействовать с внутренними и внешними партнёрами  Разработка и реализация маркетинговой стратегии  Создание и внедрение стратегий продвижения бренда Kia  направленных на увеличение рыночной доли и укрепление имиджа компании  Прогнозирование и анализ автомобильного рынка  изучение рынка и конкурентов  Бюджетирование и контроль расходов  Формирование маркетингового бюджета и контроль его эффективного использования  Отчетность о проделанной работе месяц\квартал\год  Формирование рекламной стратегии и знание брендбука  Умение находить нестандартные решения в условиях ограниченных ресурсов  Непрерывное обучение и развитие    Что мы предлагаем    Престижную работу в автомобильной индустрии Узбекистана  Официальное трудоустройство (выплачивается без задержек)  График работы 5/2 с 09 00 до 18 00 Социальный пакет  Скидки на фитнес от наших партнеров  Дружный и амбициозный коллектив профессионалов  Корпоративные мероприятия и яркие тимбилдинги  </t>
+          <t xml:space="preserve">О компании Международная компания  специализирующаяся на краткосрочной аренде частной недвижимости  приглашает в команду Backend Support &amp; Data Entry Specialist для удалённой работы  Обязанности • Управление и поддержка аккаунтов на международных платформах бронирования (Airbnb  Booking com  VRBO и др ) • Контроль актуальности информации об объектах  описания  фотографии  доступность и тарифы • Мониторинг отзывов гостей и оперативное реагирование на возникающие вопросы и обращения • Взаимодействие с маркетинговой командой с целью повышения видимости объявлений и увеличения количества бронирований • Решение технических и операционных вопросов  включая коммуникацию со службами поддержки booking-платформ и поставщиками программного обеспечения • Обновление и контроль контента на корпоративном сайте компании • Работа с системами управления недвижимостью (PMS)  обработка бронирований  ведение отчётности  анализ данных • Реализация и корректировка стратегий ценообразования с учётом сезонности  спроса и рыночных тенденций • Отслеживание изменений и новых возможностей на платформах онлайн-бронирования  подготовка рекомендаций по улучшению процессов • Участие в реализации и оптимизации онлайн-маркетинговых активностей и промо-кампаний  Требования • Свободное владение английским языком (уровень C1 и выше) • Высокая скорость и точность работы с данными • Внимательность к деталям  аналитическое мышление  ответственность • Навыки эффективного управления временем и приоритетами • Уверенное владение ПК и онлайн-сервисами • Постоянный доступ к стабильному высокоскоростному интернету  Условия • Удалённый формат работы • График  понедельник – пятница  16 00 – 00 00 (MSK) • Стабильная ежемесячная выплата заработной платы  Первые 3 месяца оплата 75% от ЗП • Работа в международной команде и участие в масштабируемом проекте  Как откликнуться  Пожалуйста  направьте своё резюме (CV) и сопроводительное письмо  в котором опишите релевантный опыт и мотивацию  Будем рады рассмотреть вашу кандидатуру и благодарим за интерес к нашей компании </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fullstack-разработчик / Программист</t>
+          <t>ВАКАНСИЯ: Оператор систем видеонаблюдения и СКУД</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 5 000 000 до 6 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PHP,Node.js,HTML,React,Русский — C1 — Продвинутый</t>
+          <t>Разработка политики информационной безопасности,Защита персональных данных,Служебные расследования,Организация работы сотрудников,Управление информационной безопасностью</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ташкент, улица Эльбека, 146</t>
+          <t>Ташкент, улица Зульфияханум, 24/2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Требования   Разработка проекты с нуля  Telegram-боты  веб-сайты  интернет-магазины    Разработка backend и frontend (стек обсуждается  важен результат)    Проектировать архитектуру  базы данных  API    Интегрировать проекты с    CRM-системами (amoCRM  Bitrix  кастомные CRM)    платёжными системами    внешними API и сервисами      Настраивать и поддерживать CI/CD  деплой  окружения    Участвовать в формировании технических заданий и помогать переводить бизнес-идеи в технические решения    Работать в команде с менеджерами  дизайнерами и маркетингом    Брать ответственность за техническую часть проекта целиком Что для нас важно   Опыт Full-Stack разработки (не только «что-то одно»)    Понимание архитектуры веб-приложений и принципов масштабирования    Опыт разработки Telegram-ботов и веб-интеграций — большой плюс    Умение работать с БД  API  очередями  кешированием    Понимание  как работает CI/CD  деплой  продакшен-среда    Умение читать бизнес-задачу  а не просто выполнять пункт ТЗ    Самостоятельность  адекватность  ответственность за результат    Опыт работы в командах и стартап-среде Формат и условия   Полностью онлайн    Проектная оплата (обсуждается по каждому проекту отдельно)    Несколько параллельных проектов разного масштаба    Минимум бюрократии и микроменеджмента    Возможность долгосрочного сотрудничества при взаимном совпадении    Реальное влияние на продукт  архитектуру и решения Кому эта позиция НЕ подойдёт   Тем  кто ждёт идеального ТЗ    Тем  кто не готов брать ответственность за техническое решение    Тем  кто не умеет коммуницировать и предлагать варианты   </t>
+          <t xml:space="preserve">Обязанности    Мониторинг систем видеонаблюдения (CCTV) в режиме реального времени   Контроль системы контроля и управления доступом (СКУД / RNT)   Фиксация и регистрация инцидентов и нарушений   Ведение журналов наблюдения и отчетности   Взаимодействие со службой безопасности и ответственными лицами   Обеспечение сохранности и конфиденциальности данных     Требования    Уверенный пользователь ПК   Внимательность  ответственность  стрессоустойчивость   Умение работать с видеосистемами и СКУД   Опыт работы приветствуется   Знание русского языка (узбекский — приветствуется)     Условия    Стабильную работу   Своевременную выплату заработной платы   Комфортные условия труда   Обучение и поддержку на этапе адаптации    </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sola internet provayderda savdo menejer</t>
+          <t>Директор по маркетингу (Финансовое направление)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>от 4 000 000 до 10 000 000 so'm за месяц до вычета налогов</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Продвижение бренда,Региональные маркетинговые кампании,Позиционирование бренда,Масштабирование маркетинговых кампаний,Медиапланирование,Анализ эффективности маркетинговых кампаний,Запуск маркетинговых кампаний,Анализ конкурентной среды,Оптимизация маркетинговых кампаний,Целевой маркетинг,Скрытый маркетинг,Маркетинговый анализ,Маркетинговые коммуникации,Маркетинговые исследования,Маркетинговая стратегия,Организаторские навыки,Мессенджер-маркетинг,B2B-маркетинг,B2C-маркетинг,Стратегическое планирование,Анализ эффективности PR-кампании</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ташкент, улица Шота Руставели, 32А</t>
+          <t>Ташкент, 6-й проезд Навруз, 1/2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOLA — Марказий Осиёдаги илк Wi-Fi операторидир  Биз корпоратив ва хусусий мижозлар билан ҳамкорлик қиламиз ҳамда савдо менежерлари жамоасини фаол ривожлантирмоқдамиз  Ҳозирда биз янги мижозларни жалб қиладиган ва компания хизматларини бириктирилган ҳудудда илгари сурадиган фаол мутахассисларни излаяпмиз  Вазифалар   Мижозлар билан музокаралар олиб бориш ва юқори тезликдаги интернет хизматларини сотиш  Мижозлар базасини юритиш ва ривожлантириш  Бириктирилган ҳудудда кўп қаватли уйларни айланиб  янги абонентларни жалб қилиш  Фаолият натижалари бўйича ҳисобот тайёрлаш   Номзоддан талаблар   Мижозлар билан самарали мулоқот қилиш учун рус ва ўзбек тилларини билиш  Натижага йўналтирилганлик  Савдо соҳасида тажриба — афзаллик  лекин мажбурий эмас   Биз таклиф қиламиз   Ходимларни 0-дан укитиш ва доимий ердам бериш Kechki ish jadvali soat 17 00 dan 21 00 gacha  o'qish bilan birlashtirilishi mumkin Ўзбекистон Республикаси Меҳнат кодексига мувофиқ расмий ишга жойлаштириш  (Staj va pensiyaga  soliqga tolovlar  ish ta'til va barcha afzaliklar) Барқарор компанияда касбий ўсиш имконияти  Иш хаки  fiks+kpi+bonus Харажатларни қоплаш  Шаҳар марказида жойлашган қулай офис (Шота Руставели кўчаси  32а)  Йул харажатини тулаш Ишни ўқиш билан бирга олиб бориш имконияти </t>
+          <t xml:space="preserve">Кто мы? Группа «ADM GLOBAL» — молодая  стремительно растущая  активная команда  которая стала первой среди частных компаний в автобизнесе  кто завез иностранные марки авто в Узбекистан  Компания мультибрендовая  является официальным дистрибьютором Kia  Chery  Haval  Hyundai Trucks в Узбекистане и работает по мировым стандартам  Сеть «ADM GLOBAL» включает в себя автосалоны  сертифицированные производителями  сервисные центры  а самое главное - собственное производство  Штат компании - более 4500 специалистов  включая менеджеров и мастеров  которые прошли аттестацию в учебных центрах производителей  Основная сфера деятельности – производство  продажа  гарантийное и послегарантийное обслуживание автомобилей  а также продажа оригинальных запасных частей и аксессуаров  Дилерская сеть компании насчитывает более 60 центров по всей Республике Узбекистан  Обязанности   Разработка и реализация маркетинговой стратегии компании  Управление командой маркетинга  постановка задач  контроль исполнения  Анализ рынка  конкурентов и целевой аудитории  Планирование и контроль рекламных кампаний (digital  оффлайн  SMM  контекст  таргет и др )  Взаимодействие с подрядчиками и агентствами  Участие в разработке продуктового позиционирования и брендинга  Бюджетирование и оценка ROI маркетинговых активностей   Требования   Опыт более 3х лет на руководящей должности в области маркетинга  Высшее образование в области маркетинга  менеджмента или экономики  Знание русского  узбекского языка  английского языка (свободное владение)  Опыт управления и формирования команды  Организация работы отдела маркетинга и руководство его деятельностью  Анализ эффективности работы сотрудников отдела  Навыки стратегического планирования  Способность разрабатывать и внедрять эффективные маркетинговые стратегии  Знание современных маркетинговых инструментов  Опыт работы с цифровыми и традиционными каналами продвижения (ATL  BTL  Digital  PR)  Продуктовое и клиенториентированное мышление  понимание важности развития целостного клиентского опыта  Умение эффективно взаимодействовать с внутренними и внешними партнёрами  Разработка и реализация маркетинговой стратегии  Создание и внедрение стратегий продвижения бренда Kia  направленных на увеличение рыночной доли и укрепление имиджа компании  Прогнозирование и анализ автомобильного рынка  изучение рынка и конкурентов  Бюджетирование и контроль расходов  Формирование маркетингового бюджета и контроль его эффективного использования  Отчетность о проделанной работе месяц\квартал\год  Формирование рекламной стратегии и знание брендбука  Умение находить нестандартные решения в условиях ограниченных ресурсов  Непрерывное обучение и развитие    Что мы предлагаем    Престижную работу в автомобильной индустрии Узбекистана  Официальное трудоустройство (выплачивается без задержек)  График работы 5/2 с 09 00 до 18 00 Социальный пакет  Скидки на фитнес от наших партнеров  Дружный и амбициозный коллектив профессионалов  Корпоративные мероприятия и яркие тимбилдинги  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intern - Forensic - Strategy Risk &amp; Transactions Department</t>
+          <t>Fullstack-разработчик / Программист</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1078,24 +1078,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Подготовка презентаций,Анализ бизнес-процессов,Описание бизнес-процессов,Финансовый анализ,Финансовая отчетность,MS Excel,MS PowerPoint,Русский — C2 — В совершенстве,Английский — C1 — Продвинутый</t>
+          <t>PHP,Node.js,HTML,React,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ташкент, проспект Мустакиллик, 75</t>
+          <t>Ташкент, улица Эльбека, 146</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your business unit  Deloitte provide advisory services around corporate Financial Advisory  M&amp;A transactions  restructurings  business modelling  valuations and forensic investigations  We are a team with specialists advising on protecting  enhancing and realizing value in companies and organizations  The role will involve   participating in forensic  fraud investigation projects  reviewing supporting documentation as a part of forensic  fraud investigation   Requirements   basic understanding of accounting and financial statements  good written and spoken English and Russian  strong analytical skills and general business knowledge  practical working knowledge of MS Excel and other MS Applications  work experience in any financial field will be an advantage   We offer   an opportunity to help sharpen your skills as well as hands-on experience in the global  fast-changing business world a clear career path  a range of learning and development programmes  </t>
+          <t xml:space="preserve">Требования   Разработка проекты с нуля  Telegram-боты  веб-сайты  интернет-магазины    Разработка backend и frontend (стек обсуждается  важен результат)    Проектировать архитектуру  базы данных  API    Интегрировать проекты с    CRM-системами (amoCRM  Bitrix  кастомные CRM)    платёжными системами    внешними API и сервисами      Настраивать и поддерживать CI/CD  деплой  окружения    Участвовать в формировании технических заданий и помогать переводить бизнес-идеи в технические решения    Работать в команде с менеджерами  дизайнерами и маркетингом    Брать ответственность за техническую часть проекта целиком Что для нас важно   Опыт Full-Stack разработки (не только «что-то одно»)    Понимание архитектуры веб-приложений и принципов масштабирования    Опыт разработки Telegram-ботов и веб-интеграций — большой плюс    Умение работать с БД  API  очередями  кешированием    Понимание  как работает CI/CD  деплой  продакшен-среда    Умение читать бизнес-задачу  а не просто выполнять пункт ТЗ    Самостоятельность  адекватность  ответственность за результат    Опыт работы в командах и стартап-среде Формат и условия   Полностью онлайн    Проектная оплата (обсуждается по каждому проекту отдельно)    Несколько параллельных проектов разного масштаба    Минимум бюрократии и микроменеджмента    Возможность долгосрочного сотрудничества при взаимном совпадении    Реальное влияние на продукт  архитектуру и решения Кому эта позиция НЕ подойдёт   Тем  кто ждёт идеального ТЗ    Тем  кто не готов брать ответственность за техническое решение    Тем  кто не умеет коммуницировать и предлагать варианты   </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Оператор call-центра</t>
+          <t>Intern - Forensic - Strategy Risk &amp; Transactions Department</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Грамотная речь,MS PowerPoint,Грамотность,Написание статей,Написание текстов,Техническая поддержка,Работа с большим объемом информации,Деловое общение,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
+          <t>Подготовка презентаций,Анализ бизнес-процессов,Описание бизнес-процессов,Финансовый анализ,Финансовая отчетность,MS Excel,MS PowerPoint,Русский — C2 — В совершенстве,Английский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ташкент, Юнусабадский район, улица Осиё, 86А</t>
+          <t>Ташкент, проспект Мустакиллик, 75</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">eMaktab – это цифровая образовательная платформа Республики Узбекистан  которая находится online 24/7  Аудитория постоянно растет  а функционал находится в постоянном развитии  Мы развиваем экосистему образовательных сервисов для учителей  учеников и их родителей  которая состоит из электронных журналов и дневников  цифровых образовательных ресурсов  рекламно-информационных сервисов и входим в ТОП-3 самых посещаемых ресурсов в стране    Мы вам доверим   Оказание консультации пользователям Kundalik по письменным  телефонным обращениям Отчётность о проделанной работе Прохождение аттестаций на знание продукта  Нам важно   Владение узбекским и русским языками на уровне родного  Высокий уровень грамотности и способность доходчиво выражать свои мысли (как устно  так письменно)  Умение сохранять вежливость и спокойствие в любых обстоятельствах  Личные качества  ответственность  коммуникабельность  стрессоустойчивость  доброжелательность  обучаемость и внимание к деталям  Умение работать с большим количеством информации и оперативно принимать решения  Интерес к сфере IT  Работа с ПК – уверенный / продвинутый пользователь   Мы предлагаем   График работы – 5/2  с 09 00 до 18 00 Работу над амбициозными и интересными проектами  Возможность непосредственно влиять на развитие продукта  привнося свои идеи в проект  Возможность профессионального роста  Оформление по ТК РУз  «белая» заработная плата  Отличный и дружный коллектив  Корпоративные мероприятия  ДМС Офис в бизнес-центре А класса   У нас интересная  разнообразная работа  занимаясь которой вы точно не будете скучать!  </t>
+          <t xml:space="preserve">Your business unit  Deloitte provide advisory services around corporate Financial Advisory  M&amp;A transactions  restructurings  business modelling  valuations and forensic investigations  We are a team with specialists advising on protecting  enhancing and realizing value in companies and organizations  The role will involve   participating in forensic  fraud investigation projects  reviewing supporting documentation as a part of forensic  fraud investigation   Requirements   basic understanding of accounting and financial statements  good written and spoken English and Russian  strong analytical skills and general business knowledge  practical working knowledge of MS Excel and other MS Applications  work experience in any financial field will be an advantage   We offer   an opportunity to help sharpen your skills as well as hands-on experience in the global  fast-changing business world a clear career path  a range of learning and development programmes  </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Специалист службы поддержки пользователей</t>
+          <t>Оператор call-центра</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Грамотная речь,MS PowerPoint,Грамотность,Написание статей,Написание текстов,Техническая поддержка,Работа с большим объемом информации,Деловое общение</t>
+          <t>Грамотная речь,MS PowerPoint,Грамотность,Написание статей,Написание текстов,Техническая поддержка,Работа с большим объемом информации,Деловое общение,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1142,14 +1142,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">eMaktab – это цифровая образовательная платформа Республики Узбекистан  которая находится online 24/7  Аудитория постоянно растет  а функционал находится в постоянном развитии  Мы развиваем экосистему образовательных сервисов для учителей  учеников и их родителей  которая состоит из электронных журналов и дневников  цифровых образовательных ресурсов  рекламно-информационных сервисов и входим в ТОП-3 самых посещаемых ресурсов в стране    Мы вам доверим   Оказание консультации пользователям Kundalik по письменным  телефонным обращениям Постановка задач разработчикам  взаимодействие со всеми отделами компании Написание статей и руководств Отчётность о проделанной работе Прохождение аттестаций на знание продукта  Нам важно   Владение узбекским и русским языками на уровне родного  Высокий уровень грамотности и способность доходчиво выражать свои мысли (как устно  так письменно)  Умение сохранять вежливость и спокойствие в любых обстоятельствах  Личные качества  ответственность  коммуникабельность  стрессоустойчивость  доброжелательность  обучаемость и внимание к деталям  Умение работать с большим количеством информации и оперативно принимать решения  Интерес к сфере IT  Работа с ПК – уверенный / продвинутый пользователь  Высшее образование   Мы предлагаем   График работы – 5/2  с 09 00 до 18 00 Работу над амбициозными и интересными проектами  Возможность непосредственно влиять на развитие продукта  привнося свои идеи в проект  Возможность профессионального роста  Оформление по ТК РУз  «белая» заработная плата  Отличный и дружный коллектив  ДМС Корпоративные мероприятия  Офис в бизнес-центре А класса   У нас интересная  разнообразная работа  занимаясь которой вы точно не будете скучать!  </t>
+          <t xml:space="preserve">eMaktab – это цифровая образовательная платформа Республики Узбекистан  которая находится online 24/7  Аудитория постоянно растет  а функционал находится в постоянном развитии  Мы развиваем экосистему образовательных сервисов для учителей  учеников и их родителей  которая состоит из электронных журналов и дневников  цифровых образовательных ресурсов  рекламно-информационных сервисов и входим в ТОП-3 самых посещаемых ресурсов в стране    Мы вам доверим   Оказание консультации пользователям Kundalik по письменным  телефонным обращениям Отчётность о проделанной работе Прохождение аттестаций на знание продукта  Нам важно   Владение узбекским и русским языками на уровне родного  Высокий уровень грамотности и способность доходчиво выражать свои мысли (как устно  так письменно)  Умение сохранять вежливость и спокойствие в любых обстоятельствах  Личные качества  ответственность  коммуникабельность  стрессоустойчивость  доброжелательность  обучаемость и внимание к деталям  Умение работать с большим количеством информации и оперативно принимать решения  Интерес к сфере IT  Работа с ПК – уверенный / продвинутый пользователь   Мы предлагаем   График работы – 5/2  с 09 00 до 18 00 Работу над амбициозными и интересными проектами  Возможность непосредственно влиять на развитие продукта  привнося свои идеи в проект  Возможность профессионального роста  Оформление по ТК РУз  «белая» заработная плата  Отличный и дружный коллектив  Корпоративные мероприятия  ДМС Офис в бизнес-центре А класса   У нас интересная  разнообразная работа  занимаясь которой вы точно не будете скучать!  </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Креативный менеджер</t>
+          <t>Специалист службы поддержки пользователей</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1159,24 +1159,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Организаторские навыки,Деловая коммуникация,Adobe Photoshop,Деловое общение,Продвижение бренда,Креативность,Создание креативов</t>
+          <t>Грамотная речь,MS PowerPoint,Грамотность,Написание статей,Написание текстов,Техническая поддержка,Работа с большим объемом информации,Деловое общение</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ташкент, улица Тараккиёт 2-й тупик, 31</t>
+          <t>Ташкент, Юнусабадский район, улица Осиё, 86А</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Мы в 1Fit меняем подход к фитнесу! Один абонемент — сотни видов активности  Запустились в Казахстане в 2018‑м  покорили рынки Узбекистана и Азербайджана  и это только начало  В 2022‑м нас назвали самым востребованным стартапом на Web Summit в Португалии  70% наших пользователей покупают фитнес-абонемент впервые — и мы этим гордимся! Сейчас мы ищем Креативного менеджера глубоко погруженного в узбекскую медиасферу  с нативным пониманием узбекского контекста  Если ты умеешь совмещать коммуникацию с креативом  чтобы делать здоровый образ жизни доступнее — присоединяйся! Чем вы будете заниматься  • Создание идей  сценариев и концепций для креативов в таргетированной рекламе и SMM • Написание цепких заголовков  слоганов и продающих текстов • Проведение A/B-тестов креативов для оптимизации эффективности • Разработка и реализация идей для спецпроектов • Глубокая коммуникация с продакшном • Подготовка отчетов  выводов и рекомендаций для оптимизации будущих активностей Кого мы ищем  • Опыт работы креатором/сценаристом с собранным портфолио • Понимание особенности создания перформанс и охватных видео • Нативное понимание актуальных узбекских трендов  wow-механик • Творческий  но ответственный подход к работе • Знание русского и узбекского языков Мы предлагаем  • Безлимитный абонемент 1Fit — йога  бассейн  тренажерка  выбирай  что хочешь! • Работу в IT-компании  которая растет и захватывает новые рынки • Драйвовую команду  которая поддержит и вдохновит • Медицинскую страховку - после успешного прохождения испытательного срока • Интересные и сложные задачи — у нас всегда есть  куда расти и чему учиться! • Корпоративы и тимбилдинги — заряжаемся энергией и празднуем успехи вместе!</t>
+          <t xml:space="preserve">eMaktab – это цифровая образовательная платформа Республики Узбекистан  которая находится online 24/7  Аудитория постоянно растет  а функционал находится в постоянном развитии  Мы развиваем экосистему образовательных сервисов для учителей  учеников и их родителей  которая состоит из электронных журналов и дневников  цифровых образовательных ресурсов  рекламно-информационных сервисов и входим в ТОП-3 самых посещаемых ресурсов в стране    Мы вам доверим   Оказание консультации пользователям Kundalik по письменным  телефонным обращениям Постановка задач разработчикам  взаимодействие со всеми отделами компании Написание статей и руководств Отчётность о проделанной работе Прохождение аттестаций на знание продукта  Нам важно   Владение узбекским и русским языками на уровне родного  Высокий уровень грамотности и способность доходчиво выражать свои мысли (как устно  так письменно)  Умение сохранять вежливость и спокойствие в любых обстоятельствах  Личные качества  ответственность  коммуникабельность  стрессоустойчивость  доброжелательность  обучаемость и внимание к деталям  Умение работать с большим количеством информации и оперативно принимать решения  Интерес к сфере IT  Работа с ПК – уверенный / продвинутый пользователь  Высшее образование   Мы предлагаем   График работы – 5/2  с 09 00 до 18 00 Работу над амбициозными и интересными проектами  Возможность непосредственно влиять на развитие продукта  привнося свои идеи в проект  Возможность профессионального роста  Оформление по ТК РУз  «белая» заработная плата  Отличный и дружный коллектив  ДМС Корпоративные мероприятия  Офис в бизнес-центре А класса   У нас интересная  разнообразная работа  занимаясь которой вы точно не будете скучать!  </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Видеонаблюдатель</t>
+          <t>Креативный менеджер</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1186,24 +1186,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Системы видеонаблюдения,Контроль сотрудников,Умение работать в коллективе,Деловое общение,Управление информационной безопасностью,Управление подрядчиками,Мониторинг сети,Узбекский — C2 — В совершенстве,Русский — B1 — Средний</t>
+          <t>Организаторские навыки,Деловая коммуникация,Adobe Photoshop,Деловое общение,Продвижение бренда,Креативность,Создание креативов</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>городской посёлок Куксарай, улица Шифобахш сувлар, 17</t>
+          <t>Ташкент, улица Тараккиёт 2-й тупик, 31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">VAZIFALAR   Video kuzatuv  signalizatsiya tizimlarini doimiy kuzatib borish Har qanday shubhali harakatni aniqlashda tezkor choralar ko'rish Belgilangan jadval asosida vazifalarni o'z vaqtida va to’liq bajarish Korxona hududining xavfsizligini ta’minlash Belgilanmagan shaxslarning kirishiga yo’l qo'ymaslik Yong'in  o'g'irlik yoki boshqa xavfli holatlar yuz bersa  tezkor tarzda rahbariyat va tegishli xizmatlarni ogohlantirish Zarurat bo'lsa  birinchi yordam ko'rsatish yoki evakuatsiya qilishga yordam berish Korxona ichki tartib-qoidalarini buzgan xodim yoki tashrif buyuruvchilarni aniqlash va bu haqida rahbaryatga xabar berish Kirgan/chiqgan transport vositalari va shaxslar haqida qaydlar yuritish Ish vaqtida yuz bergan holatlar haqida hisobot tuzish Hududni kechki vaqtlarda piyoda aylanish orqali tekshirish    TALABLAR   Kompyuter texnologiyalari va dasturlarida ishlash O’z vazifasiga jiddiy yondashish E’tiborli  xushyor va tezkor bo’lish Xodimlar va tashrif buyuruvchilar bilan xolis munosabatda bo’lish Bo’lim rahbariga bo’ysunish Ish rejimiga qat’iy amal qilish Korxonaga nisbatan sadoqat va omonatdorlik Ishga mas’uliyat va punktuallik  TAKLIFLAR   Ish grafigi  6/1 Ish soati  8 00 dan 19 00 gacha 4 mahal issiq taom O’z vaqtida oylik maosh Qadriyatli rahbar va jamoa Jamoaviy tadbirlar Mentordan tavsiyalar Karerada o’sish imkoniyati Rasmiy ish faoliyati  Ahil jamoa muhiti   Teambuilding va treninglar   Manzil  Yangi TOSHMI blok posti atrofida    </t>
+          <t>Мы в 1Fit меняем подход к фитнесу! Один абонемент — сотни видов активности  Запустились в Казахстане в 2018‑м  покорили рынки Узбекистана и Азербайджана  и это только начало  В 2022‑м нас назвали самым востребованным стартапом на Web Summit в Португалии  70% наших пользователей покупают фитнес-абонемент впервые — и мы этим гордимся! Сейчас мы ищем Креативного менеджера глубоко погруженного в узбекскую медиасферу  с нативным пониманием узбекского контекста  Если ты умеешь совмещать коммуникацию с креативом  чтобы делать здоровый образ жизни доступнее — присоединяйся! Чем вы будете заниматься  • Создание идей  сценариев и концепций для креативов в таргетированной рекламе и SMM • Написание цепких заголовков  слоганов и продающих текстов • Проведение A/B-тестов креативов для оптимизации эффективности • Разработка и реализация идей для спецпроектов • Глубокая коммуникация с продакшном • Подготовка отчетов  выводов и рекомендаций для оптимизации будущих активностей Кого мы ищем  • Опыт работы креатором/сценаристом с собранным портфолио • Понимание особенности создания перформанс и охватных видео • Нативное понимание актуальных узбекских трендов  wow-механик • Творческий  но ответственный подход к работе • Знание русского и узбекского языков Мы предлагаем  • Безлимитный абонемент 1Fit — йога  бассейн  тренажерка  выбирай  что хочешь! • Работу в IT-компании  которая растет и захватывает новые рынки • Драйвовую команду  которая поддержит и вдохновит • Медицинскую страховку - после успешного прохождения испытательного срока • Интересные и сложные задачи — у нас всегда есть  куда расти и чему учиться! • Корпоративы и тимбилдинги — заряжаемся энергией и празднуем успехи вместе!</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DevOps-инженер</t>
+          <t>Видеонаблюдатель</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1213,78 +1213,78 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Узбекский — B2 — Средне-продвинутый,Русский — C1 — Продвинутый</t>
+          <t>Системы видеонаблюдения,Контроль сотрудников,Умение работать в коллективе,Деловое общение,Управление информационной безопасностью,Управление подрядчиками,Мониторинг сети,Узбекский — C2 — В совершенстве,Русский — B1 — Средний</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ташкент, Яшнабадский район, улица Махтумкули, 1</t>
+          <t>городской посёлок Куксарай, улица Шифобахш сувлар, 17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности   Поддерживать и развивать существующую инфраструктуру (серверы  контейнеры  CI/CD)  Настраивать и поддерживать CI/CD пайплайны (сборка  тестирование  деплой)  Работать с Kubernetes  деплоить приложения  управлять кластером  настраивать деплои  мониторинг  Автоматизировать рутинные задачи с помощью Ansible/Terraform и скриптов  Настраивать мониторинг и алертинг (Prometheus + Grafana и т п )  Участвовать в инцидентах  разбираться в причинах  фиксить  писать пост-мортемы  Помогать разработчикам с деплойментами  окружениями и отладкой  Работать с IaC (инфраструктура как код)  поддерживать репозитории конфигураций  Участвовать в планировании и оценке задач по инфраструктуре   Требования   Опыт работы DevOps/System Administrator от 2 лет  Хорошее знание Kubernetes (уметь деплоить приложения  работать с Helm  понимать базовые ресурсы  Deployment  StatefulSet  ConfigMap  Secret  PV/PVC)  Опыт работы с CI/CD инструментами (GitLab CI на уверенном уровне)  Уверенная работа с Linux (администрирование  bash-скриптинг  диагностика проблем)  Опыт работы с инструментами IaC  Terraform или Ansible (понимание  как писать модули/плейбуки  управлять стейтами)  Знание Docker и контейнеризации  Базовые навыки мониторинга  Prometheus  Grafana  Zabbix  VictoriaMetrics и т д   Понимание сетей (TCP/IP  DNS  HTTP/HTTPS  базовая настройка балансировщиков)  Опыт работы с высоконагруженными web серверами  Будет плюсом  Helm-чарты  ArgoCD  Vault   Условия   Конкурентную зарплату (обсуждаем по итогам собеседования  учитываем текущий уровень)  Оформление по ТК Узбекистана  оплачиваемый отпуск  Комфортабельный офис в центре города  Дружная команда  адекватный менеджмент  минимум бюрократии  Возможность роста  участвовать в архитектурных решениях  </t>
+          <t xml:space="preserve">VAZIFALAR   Video kuzatuv  signalizatsiya tizimlarini doimiy kuzatib borish Har qanday shubhali harakatni aniqlashda tezkor choralar ko'rish Belgilangan jadval asosida vazifalarni o'z vaqtida va to’liq bajarish Korxona hududining xavfsizligini ta’minlash Belgilanmagan shaxslarning kirishiga yo’l qo'ymaslik Yong'in  o'g'irlik yoki boshqa xavfli holatlar yuz bersa  tezkor tarzda rahbariyat va tegishli xizmatlarni ogohlantirish Zarurat bo'lsa  birinchi yordam ko'rsatish yoki evakuatsiya qilishga yordam berish Korxona ichki tartib-qoidalarini buzgan xodim yoki tashrif buyuruvchilarni aniqlash va bu haqida rahbaryatga xabar berish Kirgan/chiqgan transport vositalari va shaxslar haqida qaydlar yuritish Ish vaqtida yuz bergan holatlar haqida hisobot tuzish Hududni kechki vaqtlarda piyoda aylanish orqali tekshirish    TALABLAR   Kompyuter texnologiyalari va dasturlarida ishlash O’z vazifasiga jiddiy yondashish E’tiborli  xushyor va tezkor bo’lish Xodimlar va tashrif buyuruvchilar bilan xolis munosabatda bo’lish Bo’lim rahbariga bo’ysunish Ish rejimiga qat’iy amal qilish Korxonaga nisbatan sadoqat va omonatdorlik Ishga mas’uliyat va punktuallik  TAKLIFLAR   Ish grafigi  6/1 Ish soati  8 00 dan 19 00 gacha 4 mahal issiq taom O’z vaqtida oylik maosh Qadriyatli rahbar va jamoa Jamoaviy tadbirlar Mentordan tavsiyalar Karerada o’sish imkoniyati Rasmiy ish faoliyati  Ahil jamoa muhiti   Teambuilding va treninglar   Manzil  Yangi TOSHMI blok posti atrofida    </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Специалист технической поддержки клиентов по Сергели</t>
+          <t>DevOps-инженер</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>от 5 500 000 до 6 500 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Русский — B1 — Средний,Узбекский — B1 — Средний</t>
+          <t>Узбекский — B2 — Средне-продвинутый,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ташкент, Сергелийский район</t>
+          <t>Ташкент, Яшнабадский район, улица Махтумкули, 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Приём и обработка обращений клиентов по вопросам работы сети  интернета  телефонии  VPN  SIP-транков и других сервисов    Обучение и консультация специалистов группы технической поддержки    Выполнение служебных распоряжений и заданий руководства абонентского и технического отделов    Требования   Образование — не ниже среднего специального (колледж)  Опыт работы — от 2 лет на аналогичной должности   Знание технологий и правил прокладки кабельных линий    Понимание сетевых протоколов   Умение читать техническую документацию  Готовность к физической работе и аварийным выездам  Личные качества  ответственность  обучаемость  стрессоустойчивость  внимательность  умение общаться с клиентами   Условия   Оформление по ТК РУз График работы 5/2 с 9 00 до 18 00 для обеспечения рабочего и личного баланса Выплаты два раза в месяц Обучение  тренинги и менторская поддержка для повышения профессиональных навыков Корпоративные тренинги и тимбилдинги для развития командного духа Ежегодный пересмотр зарплаты по итогам работы Дружный коллектив Интересные проекты и сильная команда </t>
+          <t xml:space="preserve">Обязанности   Поддерживать и развивать существующую инфраструктуру (серверы  контейнеры  CI/CD)  Настраивать и поддерживать CI/CD пайплайны (сборка  тестирование  деплой)  Работать с Kubernetes  деплоить приложения  управлять кластером  настраивать деплои  мониторинг  Автоматизировать рутинные задачи с помощью Ansible/Terraform и скриптов  Настраивать мониторинг и алертинг (Prometheus + Grafana и т п )  Участвовать в инцидентах  разбираться в причинах  фиксить  писать пост-мортемы  Помогать разработчикам с деплойментами  окружениями и отладкой  Работать с IaC (инфраструктура как код)  поддерживать репозитории конфигураций  Участвовать в планировании и оценке задач по инфраструктуре   Требования   Опыт работы DevOps/System Administrator от 2 лет  Хорошее знание Kubernetes (уметь деплоить приложения  работать с Helm  понимать базовые ресурсы  Deployment  StatefulSet  ConfigMap  Secret  PV/PVC)  Опыт работы с CI/CD инструментами (GitLab CI на уверенном уровне)  Уверенная работа с Linux (администрирование  bash-скриптинг  диагностика проблем)  Опыт работы с инструментами IaC  Terraform или Ansible (понимание  как писать модули/плейбуки  управлять стейтами)  Знание Docker и контейнеризации  Базовые навыки мониторинга  Prometheus  Grafana  Zabbix  VictoriaMetrics и т д   Понимание сетей (TCP/IP  DNS  HTTP/HTTPS  базовая настройка балансировщиков)  Опыт работы с высоконагруженными web серверами  Будет плюсом  Helm-чарты  ArgoCD  Vault   Условия   Конкурентную зарплату (обсуждаем по итогам собеседования  учитываем текущий уровень)  Оформление по ТК Узбекистана  оплачиваемый отпуск  Комфортабельный офис в центре города  Дружная команда  адекватный менеджмент  минимум бюрократии  Возможность роста  участвовать в архитектурных решениях  </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Специалист контактного центра (чат-поддержка)</t>
+          <t>Специалист технической поддержки клиентов по Сергели</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 5 500 000 до 6 500 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Деловое общение,Техническая поддержка,Организаторские навыки,Работа с большим объемом информации,Деловая переписка,Точность и внимательность к деталям,Ориентация на клиента,Аналитическое мышление,Навыки переговоров,Узбекский — C2 — В совершенстве,Русский — C2 — В совершенстве</t>
+          <t>Узбекский — B1 — Средний,Русский — B1 — Средний</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ташкент, Юнусабадский район, Малая кольцевая дорога, 54</t>
+          <t>Ташкент, Сергелийский район</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uzum — это современная экосистема цифровых сервисов в Узбекистане  онлайн-шопинг  удобные платежи  сервисы для бизнеса и решения для повседневной жизни  Uzum Tezkor — наш новый сервис быстрой доставки из кафе  ресторанов и магазинов  Проект активно растёт  и вместе с ним мы ищем энергичных специалистов службы поддержки  которые готовы развиваться вместе с нами  📌 Что ты будешь делать   Общаться с нашими клиентами  курьерами и партнёрами  по телефону (входящие/исходящие) и в чатах    Помогать решать вопросы и даже сложные ситуации — быстро и профессионально    Подробно объяснять  предлагать решения  учить пользоваться сервисом    Работать с телефонией  чатами и внутренней CRM-системой    Быть частью команды  которая каждый день делает сервис удобнее для миллионов пользователей    📌 Что мы ждём от тебя   Умение чётко выражать мысли и писать без ошибок    Знание русского и узбекского языков    Быструю обучаемость и готовность к изменениям    Желание находить решения даже в нестандартных ситуациях    📌 Мы предлагаем   Сменный график 2/2 — баланс работы и отдыха    Обучение 3 дня — оплачиваемое при трудоустройстве    Карьерный рост внутри компании  от оператора до ведущего специалиста и выше    Сильную команду и поддержку коллег    Амбициозные задачи и возможность повлиять на развитие нового сервиса    Комфортный современный офис в центре Ташкента    Официальное оформление по ТК УЗ и стабильная зарплата    В Uzum ты получишь не просто работу  а возможность строить карьеру в компании  которая развивается вместе со своими сотрудниками и меняет рынок цифровых сервисов в Узбекистан  </t>
+          <t xml:space="preserve">Обязанности    Приём и обработка обращений клиентов по вопросам работы сети  интернета  телефонии  VPN  SIP-транков и других сервисов    Обучение и консультация специалистов группы технической поддержки    Выполнение служебных распоряжений и заданий руководства абонентского и технического отделов    Требования   Образование — не ниже среднего специального (колледж)  Опыт работы — от 2 лет на аналогичной должности   Знание технологий и правил прокладки кабельных линий    Понимание сетевых протоколов   Умение читать техническую документацию  Готовность к физической работе и аварийным выездам  Личные качества  ответственность  обучаемость  стрессоустойчивость  внимательность  умение общаться с клиентами   Условия   Оформление по ТК РУз График работы 5/2 с 9 00 до 18 00 для обеспечения рабочего и личного баланса Выплаты два раза в месяц Обучение  тренинги и менторская поддержка для повышения профессиональных навыков Корпоративные тренинги и тимбилдинги для развития командного духа Ежегодный пересмотр зарплаты по итогам работы Дружный коллектив Интересные проекты и сильная команда </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Strong Middle PHP Developer (Yii2,Laravel)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1292,80 +1292,72 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Русский — C1 — Продвинутый,Английский — B2 — Средне-продвинутый</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ташкент, Яшнабадский район, улица Махтумкули, 1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Что нужно будет делать   Разрабатывать и поддерживать backend-приложения на PHP (Yii2  Laravel) Оптимизировать и дорабатывать существующие продукты Участвовать в планировании  обсуждении задач и предлагать архитектурные решения Интегрировать внешние и внутренние API Взаимодействовать с командами Frontend  Backend  QA для решения совместных задач Поддерживать качество кода и участвовать в code review  Что мы ожидаем   Опыт разработки на PHP (Yii2) — от 2 лет Знание архитектуры современных приложений  принципов REST  SOLID  владение ООП Уверенные знания SQL  понимание принципов работы очередей и кеширования Опыт работы с Docker  приветствуется знание Kubernetes Свободное владение русским языком  знание английского и/или узбекского языков — будет плюсом  Что предлагаем   Оформление по ТК Узбекистана  оплачиваемый отпуск Рост и развитие внутри проекта Комфортабельный офис в центре города График работы с 9 00 до 18 00 (возможность гибкого графика по согласованию) Дружный  молодой и амбициозный коллектив </t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Продукт оунер (партнёрство)</t>
+          <t>Strong Middle PHP Developer (Yii2,Laravel)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>от 3 000 до 4 000 $ за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Целеустремленность,Адаптивность,Готовность обучать других колле,Коммуникабельность,Английский — B1 — Средний,Узбекский — C1 — Продвинутый,Русский — C1 — Продвинутый</t>
+          <t>Английский — B2 — Средне-продвинутый,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ташкент, улица Эски-Сарикул</t>
+          <t>Ташкент, Яшнабадский район, улица Махтумкули, 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Основные обязанности   Запуск новых продуктов в роли Product Owner/Manager с нуля с учётом требований законодательства  регулятора и информационной безопасности  Обеспечение роста ключевых бизнес-показателей  увеличение числа партнёров и доходов (эквайринг  C2G  трансграничные платежи)  Разработка и реализация уникального торгового предложения (УТП) без демпинга  Построение технологичной и бесшовной схемы выхода на рынок e-commerce и государственных платежей (gov pmnts)  Анализ рынка  конкурентов  потребностей клиентов и партнёров  Участие в agile/scrum-командах в роли продукт овнера   Требования   Опыт работы от 3 лет в сфере эквайринга  платёжных решений  финтеха или в банке  Глубокое понимание рынка платежей  QR  Humo  Munis  Uzcard и т п  Знание законодательства Узбекистана в области эквайринга и электронной коммерции  Опыт вывода новых продуктов на рынок  Навыки работы с KYC / AML в контексте платёжных решений  Владение подходами discovery  создание концепций и сопровождение продуктов  Опыт проектной работы и/или участия в agile-командах   Образование   Высшее образование (не ниже бакалавра) Дополнительные курсы  управление проектами  SCRUM  Agile  </t>
+          <t xml:space="preserve">Что нужно будет делать   Разрабатывать и поддерживать backend-приложения на PHP (Yii2  Laravel) Оптимизировать и дорабатывать существующие продукты Участвовать в планировании  обсуждении задач и предлагать архитектурные решения Интегрировать внешние и внутренние API Взаимодействовать с командами Frontend  Backend  QA для решения совместных задач Поддерживать качество кода и участвовать в code review  Что мы ожидаем   Опыт разработки на PHP (Yii2) — от 2 лет Знание архитектуры современных приложений  принципов REST  SOLID  владение ООП Уверенные знания SQL  понимание принципов работы очередей и кеширования Опыт работы с Docker  приветствуется знание Kubernetes Свободное владение русским языком  знание английского и/или узбекского языков — будет плюсом  Что предлагаем   Оформление по ТК Узбекистана  оплачиваемый отпуск Рост и развитие внутри проекта Комфортабельный офис в центре города График работы с 9 00 до 18 00 (возможность гибкого графика по согласованию) Дружный  молодой и амбициозный коллектив </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Consultant 1 (Audit &amp; Assurance Department, IT Audit Team)</t>
+          <t>Продукт оунер (партнёрство)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 3 000 до 4 000 $ за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Английский язык,MS Access,Business Analysis,Leadership Skills,MS Excel,Analytical skills,SQL,Power BI,Системный анализ,Бизнес-анализ,Tableau,Qlik Sense,Английский — C1 — Продвинутый,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
+          <t>Целеустремленность,Адаптивность,Готовность обучать других колле,Коммуникабельность,Узбекский — C1 — Продвинутый,Русский — C1 — Продвинутый,Английский — B1 — Средний</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ташкент, проспект Мустакиллик, 75</t>
+          <t>Ташкент, улица Эски-Сарикул</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">What you can do in IT Audit Group As a member of the IT Audit team  you will perform challenging projects for clients across different industries  linking business to underpinning IT systems  Our team keeps up with information technology trends and emerging risks that impact our clients  ranging from compliance risk and IT risks to financial risks  You will be client focused and use your analytical mindset to identify risks  control them  and improve IT processes and controls  For these risk assessments  we use our internal Deloitte Risk Methodology as well as frameworks like COBIT  ISO  and ITIL  The goals of IT system audit are to systematize  improve and integrate business procedures and the coverage of business information in the information system  identify risks and weaknesses  accelerate the business information collection process  reduce IT-related costs  as they represent a significant proportion of the organization's total costs  assess ERP system before and after implementation  and attain IT management standards  The role will involve   Assisting in analysis large amounts of financial data using modern data analytics tools  Assisting in obtaining an understanding of the accounting and IT processes  Assisting with computer-technical aspects of the financial statement audit engagement  Identifying and assessing risks related to computerized processing  Evaluating the design and implementation of control activities  Planning  designing and performing tests of IT General Controls (information security  systems acquisition and change  datacenter operations)  Participating in integrated audits in accordance with the PCAOB standards (Internal controls over Financial Reporting)  Interacting with employees of the client's company   Requirements    Graduates (last or penultimate year of study) in the fields of Information technology  Business Informatics  Mathematics  Physics  Engineering or Economics with IT    Analytical and solution-oriented mind  critical and logical thinking  ability to reach the correct conclusion base on the available facts and arguments    Ability to draft reports and participate in presentations    Good written and oral communication skills in Russian and English    The following will be recognised as an advantage    Experience in IT consulting/auditing  information security administration or electronic data processing/Big Data analytics experience will be an asset    Experience working with analytics and data management platforms such as Power BI  Tableau  Qlik  Python  R or SQL    What we offer    Good salary  transparent career and professional development system   Well-being  Mobility  Comprehensive corporate discount programmes </t>
+          <t xml:space="preserve">Основные обязанности   Запуск новых продуктов в роли Product Owner/Manager с нуля с учётом требований законодательства  регулятора и информационной безопасности  Обеспечение роста ключевых бизнес-показателей  увеличение числа партнёров и доходов (эквайринг  C2G  трансграничные платежи)  Разработка и реализация уникального торгового предложения (УТП) без демпинга  Построение технологичной и бесшовной схемы выхода на рынок e-commerce и государственных платежей (gov pmnts)  Анализ рынка  конкурентов  потребностей клиентов и партнёров  Участие в agile/scrum-командах в роли продукт овнера   Требования   Опыт работы от 3 лет в сфере эквайринга  платёжных решений  финтеха или в банке  Глубокое понимание рынка платежей  QR  Humo  Munis  Uzcard и т п  Знание законодательства Узбекистана в области эквайринга и электронной коммерции  Опыт вывода новых продуктов на рынок  Навыки работы с KYC / AML в контексте платёжных решений  Владение подходами discovery  создание концепций и сопровождение продуктов  Опыт проектной работы и/или участия в agile-командах   Образование   Высшее образование (не ниже бакалавра) Дополнительные курсы  управление проектами  SCRUM  Agile  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Consultant (Audit &amp; Assurance Department , IT Audit Team)</t>
+          <t>Consultant 1 (Audit &amp; Assurance Department, IT Audit Team)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1375,7 +1367,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Английский язык,MS PowerPoint,MS Access,Business Analysis,Leadership Skills,MS Excel,Analytical skills,Power BI,SQL,Бизнес-анализ,Анализ бизнес-процессов,Tableau,Qlik Sense,Русский — C1 — Продвинутый,Английский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
+          <t>Английский язык,MS Access,Business Analysis,Leadership Skills,MS Excel,Analytical skills,SQL,Power BI,Системный анализ,Бизнес-анализ,Tableau,Qlik Sense,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый,Английский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1392,7 +1384,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C#/.NET-Developer</t>
+          <t>Consultant (Audit &amp; Assurance Department , IT Audit Team)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1400,22 +1392,26 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Английский язык,MS PowerPoint,MS Access,Business Analysis,Leadership Skills,MS Excel,Analytical skills,Power BI,SQL,Бизнес-анализ,Анализ бизнес-процессов,Tableau,Qlik Sense,Русский — C1 — Продвинутый,Английский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ташкент, Учтепинский район</t>
+          <t>Ташкент, проспект Мустакиллик, 75</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kompaniya  Hippo uzIsh turi  Offlineish vaqti  10 00 - 19 00 5/2 Asosiy Texnik Talablar - C# va  Net Framework - ASP NET MVC bilan WEB-ilovalarini ishlab chiqish  shuningdek  C# da API yaratish va joriy etish - SQL va PostgreSQL bilan ishlash tajribasi - Sifatli kod yozish  SOLID prinsiplari va OOD tamoyillarini amalda qo'llash - Dizayn patternlarini qo'llash  JSON / XML bilan ishlash ko'nikmalari  Takliflar - Kasbiy o‘sish va doimiy rivojlanish imkoniyati - Kompaniya hisobidan tushlik - O‘sib boruvchi maosh - Yosh va ahil jamoa   </t>
+          <t xml:space="preserve">What you can do in IT Audit Group As a member of the IT Audit team  you will perform challenging projects for clients across different industries  linking business to underpinning IT systems  Our team keeps up with information technology trends and emerging risks that impact our clients  ranging from compliance risk and IT risks to financial risks  You will be client focused and use your analytical mindset to identify risks  control them  and improve IT processes and controls  For these risk assessments  we use our internal Deloitte Risk Methodology as well as frameworks like COBIT  ISO  and ITIL  The goals of IT system audit are to systematize  improve and integrate business procedures and the coverage of business information in the information system  identify risks and weaknesses  accelerate the business information collection process  reduce IT-related costs  as they represent a significant proportion of the organization's total costs  assess ERP system before and after implementation  and attain IT management standards  The role will involve   Assisting in analysis large amounts of financial data using modern data analytics tools  Assisting in obtaining an understanding of the accounting and IT processes  Assisting with computer-technical aspects of the financial statement audit engagement  Identifying and assessing risks related to computerized processing  Evaluating the design and implementation of control activities  Planning  designing and performing tests of IT General Controls (information security  systems acquisition and change  datacenter operations)  Participating in integrated audits in accordance with the PCAOB standards (Internal controls over Financial Reporting)  Interacting with employees of the client's company   Requirements    Graduates (last or penultimate year of study) in the fields of Information technology  Business Informatics  Mathematics  Physics  Engineering or Economics with IT    Analytical and solution-oriented mind  critical and logical thinking  ability to reach the correct conclusion base on the available facts and arguments    Ability to draft reports and participate in presentations    Good written and oral communication skills in Russian and English    The following will be recognised as an advantage    Experience in IT consulting/auditing  information security administration or electronic data processing/Big Data analytics experience will be an asset    Experience working with analytics and data management platforms such as Power BI  Tableau  Qlik  Python  R or SQL    What we offer    Good salary  transparent career and professional development system   Well-being  Mobility  Comprehensive corporate discount programmes </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HR-аналитик/рекрутер</t>
+          <t>C#/.NET-Developer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1423,76 +1419,76 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Подбор персонала,Обучение и развитие,Организация мероприятий,Адаптация персонала,Проведение презентаций,Адаптация,Мотивация,Мотивация персонала,Аналитическое мышление,Рекрутмент,Внутренние коммуникации,Деловая коммуникация,Организаторские навыки,Оценка персонала,Работа с большим объемом информации,Деловая переписка,Деловое общение,Корпоративная культура,Оценка кандидатов,Английский — A1 — Начальный</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ташкент, Чиланзарская линия, метро Сквер Амира Темура</t>
+          <t>Ташкент, Учтепинский район</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Ведение и консолидация HR-данных по всем филиалам в системе 1С  Зарплата и Управление Персоналом (ЗУП)  Подготовка аналитических отчетов для HR-директора и топ-менеджмента (численность  текучесть  KPI  ФОТ и др )  Создание дашбордов  визуализаций и презентаций на основе HR-данных  Анализ эффективности HR-процессов и разработка предложений по оптимизации и автоматизации  Участие в подборе персонала  анализ  поиск и отбор качественных кандидатов на все уровни — от топ-менеджеров до линейного персонала  Формирование сводных HR-отчетов  включая ФЕЙ и другие ключевые показатели холдинга  Требования Отличное знание 1С  Зарплата и Управление Персоналом (ЗУП)  опыт работы не менее 3 лет  Отличное владение Excel  формулы  сводные таблицы  Power Query  визуализация данных  Высокий уровень компьютерной грамотности  уверенное владение MS Office  электронной почтой  базами данных и файловыми системами  Опыт подготовки HR-аналитики и отчетности для руководства  Аналитический склад ума  внимательность к деталям  умение системно мыслить  Преимуществом будет Опыт работы с Power BI  Tableau или Google Data Studio  Базовые знания SQL или Python  Опыт работы в крупном холдинге или производственной структуре с несколькими филиалами  Компания предлагает Работа в стратегическом центре холдинга  прямое взаимодействие с HR-директором и руководством  Участие в ключевых HR-проектах SAMMIX и развитие аналитических инструментов компании  Конкурентная заработная плата  бонусная система  современные условия труда  Возможности профессионального роста и обучения    Оформление согласно ТКРУз  </t>
+          <t xml:space="preserve">Kompaniya  Hippo uzIsh turi  Offlineish vaqti  10 00 - 19 00 5/2 Asosiy Texnik Talablar - C# va  Net Framework - ASP NET MVC bilan WEB-ilovalarini ishlab chiqish  shuningdek  C# da API yaratish va joriy etish - SQL va PostgreSQL bilan ishlash tajribasi - Sifatli kod yozish  SOLID prinsiplari va OOD tamoyillarini amalda qo'llash - Dizayn patternlarini qo'llash  JSON / XML bilan ishlash ko'nikmalari  Takliflar - Kasbiy o‘sish va doimiy rivojlanish imkoniyati - Kompaniya hisobidan tushlik - O‘sib boruvchi maosh - Yosh va ahil jamoa   </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Моушн-дизайнер</t>
+          <t>HR-аналитик/рекрутер</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>от 10 000 000 до 12 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Adobe After Effect,Брейнсторминг,Adobe Photoshop,Adobe Illustrator,Графический дизайн,CorelDRAW,Моушн-дизайн,Дизайн упаковки,Типографика,Полиграфический дизайн,Дизайн наружной рекламы,Узбекский — B2 — Средне-продвинутый,Русский — B2 — Средне-продвинутый</t>
+          <t>Подбор персонала,Обучение и развитие,Организация мероприятий,Адаптация персонала,Проведение презентаций,Адаптация,Мотивация,Мотивация персонала,Аналитическое мышление,Рекрутмент,Внутренние коммуникации,Деловая коммуникация,Организаторские навыки,Оценка персонала,Работа с большим объемом информации,Деловая переписка,Деловое общение,Корпоративная культура,Оценка кандидатов,Английский — A1 — Начальный</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ташкент, улица Мукими, 158/1</t>
+          <t>Ташкент, Чиланзарская линия, метро Сквер Амира Темура</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Задачи Работа с международными брендами• Разработка визуалов для SMM• Дизайн полиграфии  наружной рекламы  меню• Работа в рамках брендбуков • Самостоятельное ведение дизайн-проектов с фокусом на продажу продукта  Требования • Опыт работы в графическом дизайне • Знание основных инструментов (Adobe Photoshop  Illustrator  After Effects  Premier Pro и др)• Умение работать в рамках фирменного стиля и адаптировать его под разные форматы • Понимание маркетинга и визуальных инструментов продаж  Условия • Работа в офисе 5/2• Полная занятость • Командная поддержка и участие в развитии бренда   </t>
+          <t xml:space="preserve">Обязанности    Ведение и консолидация HR-данных по всем филиалам в системе 1С  Зарплата и Управление Персоналом (ЗУП)  Подготовка аналитических отчетов для HR-директора и топ-менеджмента (численность  текучесть  KPI  ФОТ и др )  Создание дашбордов  визуализаций и презентаций на основе HR-данных  Анализ эффективности HR-процессов и разработка предложений по оптимизации и автоматизации  Участие в подборе персонала  анализ  поиск и отбор качественных кандидатов на все уровни — от топ-менеджеров до линейного персонала  Формирование сводных HR-отчетов  включая ФЕЙ и другие ключевые показатели холдинга  Требования Отличное знание 1С  Зарплата и Управление Персоналом (ЗУП)  опыт работы не менее 3 лет  Отличное владение Excel  формулы  сводные таблицы  Power Query  визуализация данных  Высокий уровень компьютерной грамотности  уверенное владение MS Office  электронной почтой  базами данных и файловыми системами  Опыт подготовки HR-аналитики и отчетности для руководства  Аналитический склад ума  внимательность к деталям  умение системно мыслить  Преимуществом будет Опыт работы с Power BI  Tableau или Google Data Studio  Базовые знания SQL или Python  Опыт работы в крупном холдинге или производственной структуре с несколькими филиалами  Компания предлагает Работа в стратегическом центре холдинга  прямое взаимодействие с HR-директором и руководством  Участие в ключевых HR-проектах SAMMIX и развитие аналитических инструментов компании  Конкурентная заработная плата  бонусная система  современные условия труда  Возможности профессионального роста и обучения    Оформление согласно ТКРУз  </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Сетевой инженер</t>
+          <t>Моушн-дизайнер</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>от 10 000 000 до 12 000 000 so'm за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Adobe After Effect,Брейнсторминг,Adobe Photoshop,Adobe Illustrator,Графический дизайн,CorelDRAW,Моушн-дизайн,Дизайн упаковки,Типографика,Полиграфический дизайн,Дизайн наружной рекламы,Узбекский — B2 — Средне-продвинутый,Русский — B2 — Средне-продвинутый</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Навоийская область</t>
+          <t>Ташкент, улица Мукими, 158/1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Диагностировать и решать сетевые проблемы в штаб-квартире и филиалах    Содержание и обновление сетевой инфраструктуры и межсетевых стен в головном офисе    Поддержка и улучшение сетевых систем в филиалах и на объектах непрерывности бизнеса    Создайте и настройте профили систем мониторинга для производительности и доступности сети    Проактивно контролируйте сетевые системы и своевременно реагируйте на инциденты    Регулярно обновлять прошивку сетевого оборудования и соответствующее программное обеспечение    Планируйте  внедряйте и управляйте решениями для резервного копирования данных и восстановления после стихийных бедствий    Предоставьте техническую поддержку пользователям  у которых возникли проблемы с сетью    Обрабатывайте запросы пользователей на обслуживание и обеспечивайте надлежащее разрешение билетов    Постоянно совершенствуйте технические навыки и будьте в курсе тенденций отрасли    Проводить тренинги для обмена знаниями и повышения квалификации команды    Требования    Хорошее понимание сетевых сервисов и протоколов (модель OSI  TCP/IP  подсеть  маршрутизация  VLAN и т д )    Владеет технологиями сетевого взаимодействия  включая коммутацию и маршрутизацию    Прочные знания в области проектирования и эксплуатации локальных сетей  включая компоненты основной сети    Практический опыт использования VPN-технологий (Site-to-Site VPN  Remote Access VPN) и протоколов  таких как IPsec  GRE  DMVPN  SSL VPN    Опыт работы с сетевым оборудованием Cisco  Juniper  MikroTik  HPE  Huawei или аналогичным    Опыт работы с системами мониторинга (Zabbix  Nagios  PRTG и др )   Минимум 5 лет опыта работы в сложных и высокодоступных IT-средах  из них не менее 2 лет в роли ведущего или старшего инженера    Сильные аналитические и проблемные навыки с проактивным подходом    Отличные коммуникативные и документационные навыки    Условия   Официальное трудоустройство с первого рабочего дня  Своевременная заработная плата  Обеспечение транспортом из города Зарафшан (включено питание в обед)  Возможность проживания на месте работы (включено трёхразовое питание)  Гарантированный карьерный рост  Работа в быстро растущей компании с экспертами мирового уровня  Участие в тимбилдингах и программах личного развития  </t>
+          <t xml:space="preserve">Задачи Работа с международными брендами• Разработка визуалов для SMM• Дизайн полиграфии  наружной рекламы  меню• Работа в рамках брендбуков • Самостоятельное ведение дизайн-проектов с фокусом на продажу продукта  Требования • Опыт работы в графическом дизайне • Знание основных инструментов (Adobe Photoshop  Illustrator  After Effects  Premier Pro и др)• Умение работать в рамках фирменного стиля и адаптировать его под разные форматы • Понимание маркетинга и визуальных инструментов продаж  Условия • Работа в офисе 5/2• Полная занятость • Командная поддержка и участие в развитии бренда   </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Системный администратор</t>
+          <t>Сетевой инженер</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1508,14 +1504,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности   Установка и администрирование ОС  Windows  Linux  macOS Поддержка Microsoft Entra ID (Azure AD) Работа с Microsoft Exchange Server (on-prem и hybrid) Мониторинг системной производительности  обеспечение отказоустойчивости Обновления безопасности  патчи  защита конечных точек Администрирование Active Directory  Group Policy  DNS  DHCP и др  Поддержка Microsoft 365  Exchange Online Управление учётными записями  политиками  рассылками Участие в проектах (миграции  апгрейды  автоматизация) Документация и реагирование на инциденты Обеспечение соответствия внутренним IT-политикам и требованиям лицензирования  Требования   Опыт от 2–3 лет на позиции системного администратора Уверенное владение Azure AD  Microsoft Exchange  Windows Server Навыки работы с виртуализацией (VMware  Hyper-V) Понимание принципов безопасности  VPN  IDS/IPS  firewall  антивирус Базовые знания скриптов (PowerShell  Bash) Опыт работы с резервным копированием (Veeam  Windows Backup) Внимательность к деталям  дисциплина в документации Умение работать с инцидентами и в режиме многозадачности  Условия   Официальное трудоустройство с первого рабочего дня  Своевременная заработная плата  Обеспечение транспортом из города Зарафшан (включено питание в обед)  Возможность проживания на месте работы (включено трёхразовое питание)  Гарантированный карьерный рост  Работа в быстро растущей компании с экспертами мирового уровня  Участие в тимбилдингах и программах личного развития  </t>
+          <t xml:space="preserve">Обязанности    Диагностировать и решать сетевые проблемы в штаб-квартире и филиалах    Содержание и обновление сетевой инфраструктуры и межсетевых стен в головном офисе    Поддержка и улучшение сетевых систем в филиалах и на объектах непрерывности бизнеса    Создайте и настройте профили систем мониторинга для производительности и доступности сети    Проактивно контролируйте сетевые системы и своевременно реагируйте на инциденты    Регулярно обновлять прошивку сетевого оборудования и соответствующее программное обеспечение    Планируйте  внедряйте и управляйте решениями для резервного копирования данных и восстановления после стихийных бедствий    Предоставьте техническую поддержку пользователям  у которых возникли проблемы с сетью    Обрабатывайте запросы пользователей на обслуживание и обеспечивайте надлежащее разрешение билетов    Постоянно совершенствуйте технические навыки и будьте в курсе тенденций отрасли    Проводить тренинги для обмена знаниями и повышения квалификации команды    Требования    Хорошее понимание сетевых сервисов и протоколов (модель OSI  TCP/IP  подсеть  маршрутизация  VLAN и т д )    Владеет технологиями сетевого взаимодействия  включая коммутацию и маршрутизацию    Прочные знания в области проектирования и эксплуатации локальных сетей  включая компоненты основной сети    Практический опыт использования VPN-технологий (Site-to-Site VPN  Remote Access VPN) и протоколов  таких как IPsec  GRE  DMVPN  SSL VPN    Опыт работы с сетевым оборудованием Cisco  Juniper  MikroTik  HPE  Huawei или аналогичным    Опыт работы с системами мониторинга (Zabbix  Nagios  PRTG и др )   Минимум 5 лет опыта работы в сложных и высокодоступных IT-средах  из них не менее 2 лет в роли ведущего или старшего инженера    Сильные аналитические и проблемные навыки с проактивным подходом    Отличные коммуникативные и документационные навыки    Условия   Официальное трудоустройство с первого рабочего дня  Своевременная заработная плата  Обеспечение транспортом из города Зарафшан (включено питание в обед)  Возможность проживания на месте работы (включено трёхразовое питание)  Гарантированный карьерный рост  Работа в быстро растущей компании с экспертами мирового уровня  Участие в тимбилдингах и программах личного развития  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Junior System analyst</t>
+          <t>Junior Project Manager</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1535,14 +1531,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чем предстоит заниматься   Сбор  анализ и документирование требований от заказчиков  Подготовка BRD  SRS  User Stories  Use Cases  UML / BPMN диаграмм  Описание бизнес-процессов и выявление зон оптимизации  Поддержание актуальности документации (Confluence  Jira)   Что мы ожидаем   Опыт работы системным / бизнес-аналитиком от 1 года Понимание архитектуры веб-приложений  REST API  JSON Опыт взаимодействия с техническими и бизнес-командами  Владение инструментами  Jira  Confluence  Miro  Draw io  Навыки построения UML / BPMN диаграмм  Опыт работы с SQL (SELECT  JOIN  GROUP BY)  Опыт в Agile/Scrum командах     Что мы предлагаем   График работы  5/2 с 9 00 до 18 00  Комфортабельный офис в центре города  Работа в стабильной компании и мультикультурной команде  Возможность развития и профессионального роста  курсы по нетология  Конкурентная заработная плата (обсуждается индивидуально с кандидатом)  Испытательный срок длится 3 месяца и оплачивается полностью  Полезные и вкусные перекусы от компании  Push30  Яндекс такси (для корпоративных поездок)  </t>
+          <t xml:space="preserve">Чем предстоит заниматься    Ведение текущих проектных задач в Jira / ClickUp    Участие в планировании и приоритизации задач совместно с аналитиками и тимлидами    Подготовка и ведение командных встреч  daily  grooming  retro  demo    Помощь в контроле сроков и целостности проекта    Работа с требованиями  уточнение  разбор  декомпозиция на задачи    Ведение проектной документации (Confluence / Notion / Google Docs)    Регулярная коммуникация с участниками команды (Dev  QA  Designer  Analyst)    Мониторинг активности и выявление блокировок  эскалация при необходимости    Что мы ожидаем    Понимание Agile  Scrum  Kanban (теория + базовый практический опыт)    Навыки декомпозиции задач и их постановки в таск-трекере    Базовое понимание жизненного цикла разработки ПО (SDLC)    Умение структурировать информацию и формулировать мысли чётко и лаконично    Навыки фасилитации рабочих встреч и коммуникаций    Инициативность  проактивность  желание брать ответственность    Что мы предлагаем    График работы  5/2 с 9 00 до 18 00    Комфортабельный офис в центре города    Работа в стабильной компании и мультикультурной команде    Возможность развития и профессионального роста  курсы по нетологии    Конкурентная заработная плата (обсуждается индивидуально с кандидатом)    Испытательный срок длится 3 месяца и оплачивается полностью    Полезные и вкусные перекусы от компании  Push30  Яндекс такси (для корпоративных поездок)  </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Delivery manager</t>
+          <t>Junior System analyst</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1552,74 +1548,74 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Project management,Agile Project Management,Scrum,A/B тесты,Roadmap,Product Led Growth,Визуализация данных,Русский — C1 — Продвинутый</t>
+          <t>Русский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ташкент, улица Истикбол, 21</t>
+          <t>Ташкент, улица Бабура, 34</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Основные обязанности  Организация и управление процессом доставки цифровых продуктов банка   Обеспечение прозрачной и эффективной коммуникации между продукт-оунерами  разработчиками  аналитиками  дизайнерами  QA и стейкхолдерами  Управление полным циклом доставки продуктов  соблюдение сроков релизов и выполнение планов спринтов  Обеспечение 100% прозрачности статуса задач и блокеров для всех участников процесса  Контроль стабильности продуктового цикла и предотвращение задержек  Организация работы команд разработки  устранение операционных проблем и обеспечение бесперебойности процессов     Управление рисками и блокерами   Быстрое выявление  структурирование и устранение блокеров (в течение 24 часов)  Эскалация критических проблем и сопровождение их до полного решения  Коммуникация с руководителями и стейкхолдерами относительно рисков и состояния продукта     Оптимизация процессов   Анализ и улучшение текущих процессов разработки и тестирования  Внедрение лучших практик проектного управления  Повышение эффективности команд и минимизация потерь времени     Коммуникация и фасилитация   Проведение регулярных митингов  стендапы  ретро  планирование  демо  Поддержка команд в достижении целей  Управление эмоциональным состоянием команды  предотвращение профессионального выгорания  Формирование прозрачной структуры задач и статусов     Требования к кандидату Образование   Высшее (предпочтительно в сфере IT  управления проектами  системной инженерии)     Опыт работы   От 3 лет в роли Delivery Manager / Project Manager / Scrum Master в IT     Ключевые навыки и знания   Отличные коммуникативные навыки  ясное  структурированное и современное общение  Умение работать со сложными процессами разработки  Навык модерировать стиль работы команд  Быстрое управление блокерами  Умение правильно эскалировать проблемы  Навык проведения ретроспектив  планирований и демо  Способность работать в условиях ограниченных ресурсов и сжатых сроков  Умение поддерживать команду и создавать здоровый рабочий климат  Навыки фасилитации встреч (планирование  ретро  обсуждения  синхронизации)  Базовое понимание CI/CD  Agile  Scrum  Kanban  Понимание продуктовой аналитики и принципов приоритизации (например  MoSCoW  RICE)     Мы предлагаем   Работу в первом цифровом банке Узбекистана  Возможность влиять на развитие ключевых продуктов  Современные процессы  сильная IT-команда  Профессиональный рост и участие в масштабных проектах    </t>
+          <t xml:space="preserve">Чем предстоит заниматься   Сбор  анализ и документирование требований от заказчиков  Подготовка BRD  SRS  User Stories  Use Cases  UML / BPMN диаграмм  Описание бизнес-процессов и выявление зон оптимизации  Поддержание актуальности документации (Confluence  Jira)   Что мы ожидаем   Опыт работы системным / бизнес-аналитиком от 1 года Понимание архитектуры веб-приложений  REST API  JSON Опыт взаимодействия с техническими и бизнес-командами  Владение инструментами  Jira  Confluence  Miro  Draw io  Навыки построения UML / BPMN диаграмм  Опыт работы с SQL (SELECT  JOIN  GROUP BY)  Опыт в Agile/Scrum командах     Что мы предлагаем   График работы  5/2 с 9 00 до 18 00  Комфортабельный офис в центре города  Работа в стабильной компании и мультикультурной команде  Возможность развития и профессионального роста  курсы по нетология  Конкурентная заработная плата (обсуждается индивидуально с кандидатом)  Испытательный срок длится 3 месяца и оплачивается полностью  Полезные и вкусные перекусы от компании  Push30  Яндекс такси (для корпоративных поездок)  </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Дизайнер экстерьера</t>
+          <t>Delivery manager</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>от 2 000 до 5 000 $ за месяц до вычета налогов</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Project management,Agile Project Management,Scrum,A/B тесты,Roadmap,Product Led Growth,Визуализация данных,Русский — C1 — Продвинутый</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ташкент, улица Адхама Рахмата, 15/1</t>
+          <t>Ташкент, улица Истикбол, 21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Создавать планировочные решения  зонирование зала  размещение мебели  кассовой зоны  кухонного оборудования  мест хранения    Разрабатывать визуализации (3D) интерьеров и экстерьеров для согласования с руководством и франчайзером    Готовить рабочие чертежи и спецификации (отделка  мебель  свет  рекламные конструкции  элементы декора)    Оформлять технические задания для подрядчиков (отделочные работы  мебель  POS-декор  наружная реклама)    Контролировать реализацию проектов — сопровождать стройку и монтаж  проверять соответствие дизайн-проекта и фактического исполнения    Взаимодействовать с подрядчиками и поставщиками по подбору материалов  мебели  светильников  наружных элементов    Работать с корпоративными стандартами бренда  обеспечивать точное соблюдение цветовой гаммы  оформления фасадов  бренд-элементов    Подготавливать презентационные материалы для утверждения концепций и согласования с франчайзером    Проводить офлайн-занятия по направлению «Экстерьер»  архитектурная визуализация  фасады  планировка  композиция  материалы    Обучать так же студентов созданию экстерьеров в 3ds Max  SketchUp  Lumion  Corona/V-Ray (в зависимости от программы)    Давать так же студентам обратную связь по проектам  развивать их чувство композиции и визуальный вкус    Объяснять принципы архитектурной композиции  света  пропорций и окружения    Поддерживать актуальность учебной программы (добавлять современные примеры и инструменты)    Требования    Профильное образование — архитектура  дизайн среды  интерьер/экстерьер  визуализация  строительство или смежные направления    Владение программами    3ds Max + Corona/V-Ray   — SketchUp / Revit (по необходимости)— Lumion / Enscape— AutoCAD или аналог (для чертежей)— Photoshop (постобработка визуализаций)— Будет плюсом  ArchiCAD  Illustrator  Умение создавать — планировочные решения (зонирование  расстановка мебели  оборудование) — 3D-визуализации интерьеров и экстерьеров — фасадные решения  подбор материалов для наружной отделки — рабочие чертежи и спецификации    Условия   6/1 с 9 00 до 18 00 (возможна гибкость)  Оформление  официальное трудоустройство / договор ГПХ или самозанятость  Выплаты  1 раза в месяц </t>
+          <t xml:space="preserve">Основные обязанности  Организация и управление процессом доставки цифровых продуктов банка   Обеспечение прозрачной и эффективной коммуникации между продукт-оунерами  разработчиками  аналитиками  дизайнерами  QA и стейкхолдерами  Управление полным циклом доставки продуктов  соблюдение сроков релизов и выполнение планов спринтов  Обеспечение 100% прозрачности статуса задач и блокеров для всех участников процесса  Контроль стабильности продуктового цикла и предотвращение задержек  Организация работы команд разработки  устранение операционных проблем и обеспечение бесперебойности процессов     Управление рисками и блокерами   Быстрое выявление  структурирование и устранение блокеров (в течение 24 часов)  Эскалация критических проблем и сопровождение их до полного решения  Коммуникация с руководителями и стейкхолдерами относительно рисков и состояния продукта     Оптимизация процессов   Анализ и улучшение текущих процессов разработки и тестирования  Внедрение лучших практик проектного управления  Повышение эффективности команд и минимизация потерь времени     Коммуникация и фасилитация   Проведение регулярных митингов  стендапы  ретро  планирование  демо  Поддержка команд в достижении целей  Управление эмоциональным состоянием команды  предотвращение профессионального выгорания  Формирование прозрачной структуры задач и статусов     Требования к кандидату Образование   Высшее (предпочтительно в сфере IT  управления проектами  системной инженерии)     Опыт работы   От 3 лет в роли Delivery Manager / Project Manager / Scrum Master в IT     Ключевые навыки и знания   Отличные коммуникативные навыки  ясное  структурированное и современное общение  Умение работать со сложными процессами разработки  Навык модерировать стиль работы команд  Быстрое управление блокерами  Умение правильно эскалировать проблемы  Навык проведения ретроспектив  планирований и демо  Способность работать в условиях ограниченных ресурсов и сжатых сроков  Умение поддерживать команду и создавать здоровый рабочий климат  Навыки фасилитации встреч (планирование  ретро  обсуждения  синхронизации)  Базовое понимание CI/CD  Agile  Scrum  Kanban  Понимание продуктовой аналитики и принципов приоритизации (например  MoSCoW  RICE)     Мы предлагаем   Работу в первом цифровом банке Узбекистана  Возможность влиять на развитие ключевых продуктов  Современные процессы  сильная IT-команда  Профессиональный рост и участие в масштабных проектах    </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UX/UI-дизайнер</t>
+          <t>Дизайнер экстерьера</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Английский — B1 — Средний,Русский — B2 — Средне-продвинутый</t>
-        </is>
-      </c>
+          <t>от 2 000 до 5 000 $ за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ташкент, Яшнабадский район, улица Махтумкули, 1</t>
+          <t>Ташкент, улица Адхама Рахмата, 15/1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Что предстоит делать   ​​​​​​Проектировать интерфейсы веб-сервисов и мобильных приложений  Работать в Figma  собирать макеты  прототипы  пользовательские сценарии и полноценные дизайн-системы  Создавать UI-киты и компонентные библиотеки  поддерживать дизайн-гайды  Передавать макеты разработчикам  помогать на этапе реализации и следить за качеством  Исследовать пользовательский опыт  находить UX-проблемы и предлагать улучшения  Участвовать в обсуждении требований  предлагать идеи и влиять на продуктовые решения   Мы ждём от тебя   Опыт работы UI/UX-дизайнером от 2 лет  Уверенное владение Figma  Навык создания UI-макетов и интерактивных прототипов  Опыт разработки дизайн-систем и систем компонентов   Будет преимуществом   Базовое понимание UX-аналитики и пользовательских исследований  Знание основ HTML/CSS  Опыт работы с Miro   Мы предлагаем      Оформление по ТК Узбекистана  оплачиваемый отпуск  Комфортабельный офис в центре города График работы с 9 00 до 18 00 или с 10 00 до 19 00 Команду которая ценит инициативность и дизайн-мышление    Рост  обучение и развитие внутри компании   P s  Не забудьте портфолио! Возможно  там именно то  что мы ищем </t>
+          <t xml:space="preserve">Обязанности    Создавать планировочные решения  зонирование зала  размещение мебели  кассовой зоны  кухонного оборудования  мест хранения    Разрабатывать визуализации (3D) интерьеров и экстерьеров для согласования с руководством и франчайзером    Готовить рабочие чертежи и спецификации (отделка  мебель  свет  рекламные конструкции  элементы декора)    Оформлять технические задания для подрядчиков (отделочные работы  мебель  POS-декор  наружная реклама)    Контролировать реализацию проектов — сопровождать стройку и монтаж  проверять соответствие дизайн-проекта и фактического исполнения    Взаимодействовать с подрядчиками и поставщиками по подбору материалов  мебели  светильников  наружных элементов    Работать с корпоративными стандартами бренда  обеспечивать точное соблюдение цветовой гаммы  оформления фасадов  бренд-элементов    Подготавливать презентационные материалы для утверждения концепций и согласования с франчайзером    Проводить офлайн-занятия по направлению «Экстерьер»  архитектурная визуализация  фасады  планировка  композиция  материалы    Обучать так же студентов созданию экстерьеров в 3ds Max  SketchUp  Lumion  Corona/V-Ray (в зависимости от программы)    Давать так же студентам обратную связь по проектам  развивать их чувство композиции и визуальный вкус    Объяснять принципы архитектурной композиции  света  пропорций и окружения    Поддерживать актуальность учебной программы (добавлять современные примеры и инструменты)    Требования    Профильное образование — архитектура  дизайн среды  интерьер/экстерьер  визуализация  строительство или смежные направления    Владение программами    3ds Max + Corona/V-Ray   — SketchUp / Revit (по необходимости)— Lumion / Enscape— AutoCAD или аналог (для чертежей)— Photoshop (постобработка визуализаций)— Будет плюсом  ArchiCAD  Illustrator  Умение создавать — планировочные решения (зонирование  расстановка мебели  оборудование) — 3D-визуализации интерьеров и экстерьеров — фасадные решения  подбор материалов для наружной отделки — рабочие чертежи и спецификации    Условия   6/1 с 9 00 до 18 00 (возможна гибкость)  Оформление  официальное трудоустройство / договор ГПХ или самозанятость  Выплаты  1 раза в месяц </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Продакт-менеджер с высшим медицинским образованием</t>
+          <t>UX/UI-дизайнер</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1629,201 +1625,205 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Узбекский — B2 — Средне-продвинутый,Русский — C1 — Продвинутый</t>
+          <t>Английский — B1 — Средний,Русский — B2 — Средне-продвинутый</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ташкент, Мирабадский район, улица Фидокор</t>
+          <t>Ташкент, Яшнабадский район, улица Махтумкули, 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продукт менеджер с медицинским образованием   Orville Services ищет сильного Продакт-менеджера для оцифровки и оптимизации ключевых бизнес-процессов (маркетинг  дистрибуция  R&amp;D)  Обязанности   разработка и продвижение стратегии по развитию продукта составление бюджета по продукту презентация продукта коммуникация  устная и письменная участие в маркетинговых активностях командировки   Требования   знание языков  русский(хорошо)  узбекский(средний) владение MS office умение работать в базе данных IMS Drug Audit высшее медицинское образование опыт по продвижение биологических активных добавок   Условия   график  5/2  с 9 00 до 18 00 адрес  Мирабадский район  ул  Чехова  </t>
+          <t xml:space="preserve">Что предстоит делать   ​​​​​​Проектировать интерфейсы веб-сервисов и мобильных приложений  Работать в Figma  собирать макеты  прототипы  пользовательские сценарии и полноценные дизайн-системы  Создавать UI-киты и компонентные библиотеки  поддерживать дизайн-гайды  Передавать макеты разработчикам  помогать на этапе реализации и следить за качеством  Исследовать пользовательский опыт  находить UX-проблемы и предлагать улучшения  Участвовать в обсуждении требований  предлагать идеи и влиять на продуктовые решения   Мы ждём от тебя   Опыт работы UI/UX-дизайнером от 2 лет  Уверенное владение Figma  Навык создания UI-макетов и интерактивных прототипов  Опыт разработки дизайн-систем и систем компонентов   Будет преимуществом   Базовое понимание UX-аналитики и пользовательских исследований  Знание основ HTML/CSS  Опыт работы с Miro   Мы предлагаем      Оформление по ТК Узбекистана  оплачиваемый отпуск  Комфортабельный офис в центре города График работы с 9 00 до 18 00 или с 10 00 до 19 00 Команду которая ценит инициативность и дизайн-мышление    Рост  обучение и развитие внутри компании   P s  Не забудьте портфолио! Возможно  там именно то  что мы ищем </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Middle FullStack Javascript Developer</t>
+          <t>Продакт-менеджер с высшим медицинским образованием</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>от 6 000 000 до 8 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JavaScript,Node.js,React,Git,Docker,Русский — C1 — Продвинутый</t>
+          <t>Русский — C1 — Продвинутый,Узбекский — B2 — Средне-продвинутый</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ташкент, Чиланзарский район, 3-й проезд Навбахор, 24</t>
+          <t>Ташкент, Мирабадский район, улица Фидокор</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>О компании Мы — GetSpace uz  современная цифровая платформа  которая помогает людям находить и бронировать конференц-залы  коворкинги  офисы и студии Мы создаём удобный сервис  объединяющий бизнес-пространства по всей стране и делаем аренду простой  быстрой и понятной  Наши ценности Честность — мы строим продукт прозрачно и с уважением Доверие — держим слово  отвечаем за качество Развитие — каждый день учимся и улучшаем платформу Польза обществу — создаём сервис  который помогает людям и бизнесам    Что вас ждёт   Офис в 3 минутах от метро Новза    Обед за счёт компании — вкусный и разнообразный (вы сами выбираете  что кушать)    Кофе и чай всегда в свободном доступе    Любите читать? Компания оплатит книги для вашего развития    Дружная и открытая команда  которая поддержит и поможет    Современный офис и комфортные условия    Мы поддерживаем инициативы сотрудников и всегда выслушиваем их идеи    Ваши задачи 🔵 Frontend (React uz)    Разработка и поддержка интерфейсов платформы GetSpace    Адаптивная верстка и улучшение UX    Работа с API  формы  фильтры  личный кабинет пользователей    🔵 Backend (Node js)    Создание и поддержка API-эндпоинтов    Работа с PostgreSQL / MySQL (запросы  миграции)    Подключение внешних сервисов по ТЗ (AmoCRM  Telegram Bot API  платежи)    🔵 Общие задачи    Исправление багов и оптимизация скорости    Работа с Git  написание чистого и понятного кода    Участие в улучшении платформы и предложениях по оптимизации    Требования Обязательные    Опыт разработки от 1 года    Уверенные знания React js    Базовые/средние знания Node js   Умение работать с REST API    Знание PostgreSQL или MySQL    Работа с Git (ветки  pull request)    Желательные    Опыт создания Telegram-ботов    Опыт интеграций (CRM  платежи  сторонние API)    Docker на базовом уровне    Личностные качества   Ответственность и аккуратность    Самостоятельность в работе    Желание учиться и расти профессионально    Внимательность к деталям    Умение работать по ТЗ и срокам    Мы предлагаем   Зарплата  7 000 000 – 8 00 000 сум (по итогам собеседования)    Работа над реальным продуктом  который растет по всей стране    Карьерный рост до Middle+/Senior разработчика    Участие в создании одного из самых современных B2B-сервисов Узбекистана    Прозрачное руководство и минимум бюрократии    Выплаты два раза в месяц    Как откликнуться Отправьте резюме или портфолио Telegram  @getspaceuz</t>
+          <t xml:space="preserve">Продукт менеджер с медицинским образованием   Orville Services ищет сильного Продакт-менеджера для оцифровки и оптимизации ключевых бизнес-процессов (маркетинг  дистрибуция  R&amp;D)  Обязанности   разработка и продвижение стратегии по развитию продукта составление бюджета по продукту презентация продукта коммуникация  устная и письменная участие в маркетинговых активностях командировки   Требования   знание языков  русский(хорошо)  узбекский(средний) владение MS office умение работать в базе данных IMS Drug Audit высшее медицинское образование опыт по продвижение биологических активных добавок   Условия   график  5/2  с 9 00 до 18 00 адрес  Мирабадский район  ул  Чехова  </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Графический дизайнер</t>
+          <t>Middle FullStack Javascript Developer</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>от 4 000 000 до 7 000 000 so'm за месяц до вычета налогов</t>
+          <t>от 6 000 000 до 8 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adobe Photoshop,Adobe Illustrator,Графический дизайн,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
+          <t>JavaScript,Node.js,React,Git,Docker,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ташкент, проспект Амира Темура, 118А</t>
+          <t>Ташкент, Чиланзарский район, 3-й проезд Навбахор, 24</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Работа в штате  нужен кандидат с г Ташкент Обязанности    Разработка и адаптация баннеров  карточек товаров  инфографики и лендингов под требования WB  OZON  UZUM  Яндекс Маркет и др    Создание стильного и продающего визуала для акций  распродаж и спецпредложений    Поддержка и развитие визуального стиля наших брендов    Сотрудничество с маркетологом и менеджером маркетплейсов    Быстрое и аккуратное внесение правок по фидбеку    Требования    Опыт работы дизайнером от 2 года и выше (обязательно  желательно с проектами на маркетплейсах)    Знание технических требований и ограничений платформ (размеры  форматы  читаемость)    Понимание  как дизайн влияет на конверсию и продажи    Владение Adobe Photoshop  Illustrator  Figma (плюсом будет Canva  Tilda)    Аккуратность  внимание к деталям  умение соблюдать сроки    Готовность выполнить тестовое задание !!!!   Наличие портфолио обязательно  Без портфолио резюме не рассматриваем    Мы предлагаем    Чёткие задачи и оперативный фидбек    Проекты в разных нишах  fashion  электроника  товары для дома    Возможность развиваться вместе с командой    Офисная работа  полная занятость   </t>
+          <t>О компании Мы — GetSpace uz  современная цифровая платформа  которая помогает людям находить и бронировать конференц-залы  коворкинги  офисы и студии Мы создаём удобный сервис  объединяющий бизнес-пространства по всей стране и делаем аренду простой  быстрой и понятной  Наши ценности Честность — мы строим продукт прозрачно и с уважением Доверие — держим слово  отвечаем за качество Развитие — каждый день учимся и улучшаем платформу Польза обществу — создаём сервис  который помогает людям и бизнесам    Что вас ждёт   Офис в 3 минутах от метро Новза    Обед за счёт компании — вкусный и разнообразный (вы сами выбираете  что кушать)    Кофе и чай всегда в свободном доступе    Любите читать? Компания оплатит книги для вашего развития    Дружная и открытая команда  которая поддержит и поможет    Современный офис и комфортные условия    Мы поддерживаем инициативы сотрудников и всегда выслушиваем их идеи    Ваши задачи 🔵 Frontend (React uz)    Разработка и поддержка интерфейсов платформы GetSpace    Адаптивная верстка и улучшение UX    Работа с API  формы  фильтры  личный кабинет пользователей    🔵 Backend (Node js)    Создание и поддержка API-эндпоинтов    Работа с PostgreSQL / MySQL (запросы  миграции)    Подключение внешних сервисов по ТЗ (AmoCRM  Telegram Bot API  платежи)    🔵 Общие задачи    Исправление багов и оптимизация скорости    Работа с Git  написание чистого и понятного кода    Участие в улучшении платформы и предложениях по оптимизации    Требования Обязательные    Опыт разработки от 1 года    Уверенные знания React js    Базовые/средние знания Node js   Умение работать с REST API    Знание PostgreSQL или MySQL    Работа с Git (ветки  pull request)    Желательные    Опыт создания Telegram-ботов    Опыт интеграций (CRM  платежи  сторонние API)    Docker на базовом уровне    Личностные качества   Ответственность и аккуратность    Самостоятельность в работе    Желание учиться и расти профессионально    Внимательность к деталям    Умение работать по ТЗ и срокам    Мы предлагаем   Зарплата  7 000 000 – 8 00 000 сум (по итогам собеседования)    Работа над реальным продуктом  который растет по всей стране    Карьерный рост до Middle+/Senior разработчика    Участие в создании одного из самых современных B2B-сервисов Узбекистана    Прозрачное руководство и минимум бюрократии    Выплаты два раза в месяц    Как откликнуться Отправьте резюме или портфолио Telegram  @getspaceuz</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Middle .NET Engineer</t>
+          <t>Графический дизайнер</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 4 000 000 до 7 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>.NET Core</t>
+          <t>Adobe Photoshop,Adobe Illustrator,Графический дизайн,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ташкент, проезд Лабзак</t>
+          <t>Ташкент, проспект Амира Темура, 118А</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">В IT компанию срочно требуется Middle  NET Engineer Заработная плата  от 1500 USDФормат работы  Офис Технологический стек  NET Core  ASP NET Core  FastEndpoints  DapperPostgreSQLRedis  RabbitMQDocker  KubernetesElasticsearch  KibanaCI/CD (Jenkins  GitLab CI/CD) Требования * 3+ лет коммерческого опыта в разработке на  NET Core  ASP NET Core  FastEndpoints* Глубокие знания ООП  SOLID  паттернов проектирования* Опыт работы с микросервисной архитектурой* Владение Docker и Kubernetes* Практический опыт работы с CI/CD (Jenkins  GitLab CI/CD)* Понимание принципов логирования и мониторинга (Elasticsearch  Kibana)* Опыт взаимодействия с Frontend-разработчиками* Хорошие коммуникационные навыки и умение работать в команде Условия Работа в офисеОфициальное трудоустройствоСовременный стек технологий и сильная командаПредоставление необходимой техники Отправьте резюме на бот  @RezyumeRecipientBot Важно  приложите ссылки на реальные проекты </t>
+          <t xml:space="preserve">Работа в штате  нужен кандидат с г Ташкент Обязанности    Разработка и адаптация баннеров  карточек товаров  инфографики и лендингов под требования WB  OZON  UZUM  Яндекс Маркет и др    Создание стильного и продающего визуала для акций  распродаж и спецпредложений    Поддержка и развитие визуального стиля наших брендов    Сотрудничество с маркетологом и менеджером маркетплейсов    Быстрое и аккуратное внесение правок по фидбеку    Требования    Опыт работы дизайнером от 2 года и выше (обязательно  желательно с проектами на маркетплейсах)    Знание технических требований и ограничений платформ (размеры  форматы  читаемость)    Понимание  как дизайн влияет на конверсию и продажи    Владение Adobe Photoshop  Illustrator  Figma (плюсом будет Canva  Tilda)    Аккуратность  внимание к деталям  умение соблюдать сроки    Готовность выполнить тестовое задание !!!!   Наличие портфолио обязательно  Без портфолио резюме не рассматриваем    Мы предлагаем    Чёткие задачи и оперативный фидбек    Проекты в разных нишах  fashion  электроника  товары для дома    Возможность развиваться вместе с командой    Офисная работа  полная занятость   </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Инженер-проектировщик</t>
+          <t>Middle .NET Engineer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>от 12 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ведение проектной документации,Деловая коммуникация,Стратегический менеджмент,AutoCAD,Autodesk Revit</t>
+          <t>.NET Core</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ташкент, проезд Пахлавона Махмуда, 2</t>
+          <t>Ташкент, проезд Лабзак</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности    Анализ и разработка технической документации (ТЗ  чертежи  схемы  спецификации  расчеты)    Участие в планировании проектов  формировании календарных графиков и контроле сроков  Сопровождение проектов на всех этапах  от идеи до пуско-наладочных работ и приемки    Контроль качества и соответствия работ проектным решениям  техническим регламентам и стандартам (ГОСТ  СНиП  отраслевые нормы)    Взаимодействие с подрядчиками  поставщиками и внутренними подразделениями  участие в технических совещаниях    Техническая экспертиза предложений (анализ ТКП)  подбор оборудования и материалов  согласование параметров    Ведение  актуализация и хранение всей проектной и технической документации (отчеты  акты  схемы)    Анализ проблемных зон и разработка предложений по улучшению и оптимизации инженерных и проектных процессов    Требования    Основы и этапы проектного менеджмента (сроки  риски  ресурсы)    Уверенное чтение и понимание технической документации (чертежи  спецификации  ТЗ)    Знание нормативно-технической документации и стандартов (ГОСТ  СНиП  отраслевые регламенты)    Базовое понимание смежных инженерных направлений (электрика  механика  автоматизация) и процессов закупок и технического сравнения оборудования/материалов    Уверенная работа в AutoCAD / SolidWorks / Revit или аналогичных программах (по профилю)    Умение разрабатывать технические решения  проводить расчеты  подбирать оборудование и составлять спецификации    Навыки формирования календарных планов  оценки сроков и работы с несколькими проектами одновременно    Опыт ведения переговоров  деловой переписки и эффективного взаимодействия с контрагентами и командой    Навыки составления ТЗ  технических описаний  отчетов и презентаций    Навыки контроля сроков  качества и бюджетов проектов    Условия   Официальное трудоустройство по ТК РУз Современную команду профессионалов  нацеленных на успешную совместную работу по модернизации бизнеса Обед и полдник за счёт Компании Зарплата в зависимости от профессиональных навыков озвучивается на финальном интервью </t>
+          <t xml:space="preserve">В IT компанию срочно требуется Middle  NET Engineer Заработная плата  от 1500 USDФормат работы  Офис Технологический стек  NET Core  ASP NET Core  FastEndpoints  DapperPostgreSQLRedis  RabbitMQDocker  KubernetesElasticsearch  KibanaCI/CD (Jenkins  GitLab CI/CD) Требования * 3+ лет коммерческого опыта в разработке на  NET Core  ASP NET Core  FastEndpoints* Глубокие знания ООП  SOLID  паттернов проектирования* Опыт работы с микросервисной архитектурой* Владение Docker и Kubernetes* Практический опыт работы с CI/CD (Jenkins  GitLab CI/CD)* Понимание принципов логирования и мониторинга (Elasticsearch  Kibana)* Опыт взаимодействия с Frontend-разработчиками* Хорошие коммуникационные навыки и умение работать в команде Условия Работа в офисеОфициальное трудоустройствоСовременный стек технологий и сильная командаПредоставление необходимой техники Отправьте резюме на бот  @RezyumeRecipientBot Важно  приложите ссылки на реальные проекты </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Junior QA</t>
+          <t>Инженер-проектировщик</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>от 12 000 000 so'm за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ведение проектной документации,Деловая коммуникация,Стратегический менеджмент,AutoCAD,Autodesk Revit</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ташкент, улица Бабура, 34</t>
+          <t>Ташкент, проезд Пахлавона Махмуда, 2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Задачи   Тестирование новых микросервисов и доработок существующих    Проведение интеграционного тестирования (взаимодействие микросервисов и фронта)    Участие в регрессионном тестировании    Написание и поддержка тестовой документации (чек-листы  тест-кейсы  баг-репорты)    Взаимодействие с разработчиками и аналитиками для уточнения требований и повышения качества продукта    Участие в оптимизации процессов тестирования    Требования   Понимание видов и уровней тестирования    Знание принципов клиент-серверного взаимодействия и работы API    Опыт работы с Postman для тестирования API    Базовые знания SQL (включая JOIN-запросы)    Понимание принципов микросервисной архитектуры и тестирования интеграций    Мы предлагаем   График работы  5/2 с 9 00 до 18 00  Комфортабельный офис в центре города  Работа в стабильной компании и мультикультурной команде  Возможность развития и профессионального роста  курсы по неотология  Конкурентная заработная плата (обсуждается индивидуально с кандидатом)  Испытательный срок длится 3 месяца и оплачивается полностью  Полезные и вкусные перекусы от компании  Push30  Яндекс такси (для корпоративных поездок)    </t>
+          <t xml:space="preserve">Обязанности    Анализ и разработка технической документации (ТЗ  чертежи  схемы  спецификации  расчеты)    Участие в планировании проектов  формировании календарных графиков и контроле сроков  Сопровождение проектов на всех этапах  от идеи до пуско-наладочных работ и приемки    Контроль качества и соответствия работ проектным решениям  техническим регламентам и стандартам (ГОСТ  СНиП  отраслевые нормы)    Взаимодействие с подрядчиками  поставщиками и внутренними подразделениями  участие в технических совещаниях    Техническая экспертиза предложений (анализ ТКП)  подбор оборудования и материалов  согласование параметров    Ведение  актуализация и хранение всей проектной и технической документации (отчеты  акты  схемы)    Анализ проблемных зон и разработка предложений по улучшению и оптимизации инженерных и проектных процессов    Требования    Основы и этапы проектного менеджмента (сроки  риски  ресурсы)    Уверенное чтение и понимание технической документации (чертежи  спецификации  ТЗ)    Знание нормативно-технической документации и стандартов (ГОСТ  СНиП  отраслевые регламенты)    Базовое понимание смежных инженерных направлений (электрика  механика  автоматизация) и процессов закупок и технического сравнения оборудования/материалов    Уверенная работа в AutoCAD / SolidWorks / Revit или аналогичных программах (по профилю)    Умение разрабатывать технические решения  проводить расчеты  подбирать оборудование и составлять спецификации    Навыки формирования календарных планов  оценки сроков и работы с несколькими проектами одновременно    Опыт ведения переговоров  деловой переписки и эффективного взаимодействия с контрагентами и командой    Навыки составления ТЗ  технических описаний  отчетов и презентаций    Навыки контроля сроков  качества и бюджетов проектов    Условия   Официальное трудоустройство по ТК РУз Современную команду профессионалов  нацеленных на успешную совместную работу по модернизации бизнеса Обед и полдник за счёт Компании Зарплата в зависимости от профессиональных навыков озвучивается на финальном интервью </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Frontend-разработчик</t>
+          <t>Junior QA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>от 4 000 000 до 6 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ташкент, улица Богибустан, 186</t>
+          <t>Ташкент, улица Бабура, 34</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Требования    Минимум 2 года опыта в frontend web-разработке    Участие минимум в 5 реальных веб-проектах    Опыт работы с REST API    Владение современных стеков  React  Next js и др     Понимание UI/UX принципов и опыт создания адаптивных (responsive) интерфейсов    Умение писать чистый  оптимизированный и модульно структурированный код    Мы предлагаем    Дружную и открытую команду  где ценится твой вклад    Возможность расти вместе с опытными специалистами    Все условия для твоего профессионального и личностного развития    Своевременную и стабильную оплату труда  согласованную заранее — без задержек       </t>
+          <t xml:space="preserve">Задачи   Тестирование новых микросервисов и доработок существующих    Проведение интеграционного тестирования (взаимодействие микросервисов и фронта)    Участие в регрессионном тестировании    Написание и поддержка тестовой документации (чек-листы  тест-кейсы  баг-репорты)    Взаимодействие с разработчиками и аналитиками для уточнения требований и повышения качества продукта    Участие в оптимизации процессов тестирования    Требования   Понимание видов и уровней тестирования    Знание принципов клиент-серверного взаимодействия и работы API    Опыт работы с Postman для тестирования API    Базовые знания SQL (включая JOIN-запросы)    Понимание принципов микросервисной архитектуры и тестирования интеграций    Мы предлагаем   График работы  5/2 с 9 00 до 18 00  Комфортабельный офис в центре города  Работа в стабильной компании и мультикультурной команде  Возможность развития и профессионального роста  курсы по неотология  Конкурентная заработная плата (обсуждается индивидуально с кандидатом)  Испытательный срок длится 3 месяца и оплачивается полностью  Полезные и вкусные перекусы от компании  Push30  Яндекс такси (для корпоративных поездок)    </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Trigger Center Manager</t>
+          <t>Frontend-разработчик</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>от 4 000 000 до 6 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ташкент, улица Алишера Навои, 22</t>
+          <t>Ташкент, улица Богибустан, 186</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">We’re building the Radius Trigger Center — the brain of sales growth It’s where math meets psychology  turning data and behavior into smarter sales actions  We’re looking for a Trigger Center Manager — a system thinker who can see the entire sales process as a living  measurable mechanism  You’ll fit perfectly if you • Think in numbers and patterns  not assumptions• Understand customer psychology and timing• Love connecting logic  data  and sales results• Have curiosity  discipline  and a drive for continuous improvement• See yourself in the top 1%  yet stay humble and self-critical enough to keep earning itYou don’t need to code — but you must think like a strategist and communicate like a builder If you’re ready to design one of the most advanced growth engines inside Radius — welcome to the Trigger Center   </t>
+          <t xml:space="preserve">Требования    Минимум 2 года опыта в frontend web-разработке    Участие минимум в 5 реальных веб-проектах    Опыт работы с REST API    Владение современных стеков  React  Next js и др     Понимание UI/UX принципов и опыт создания адаптивных (responsive) интерфейсов    Умение писать чистый  оптимизированный и модульно структурированный код    Мы предлагаем    Дружную и открытую команду  где ценится твой вклад    Возможность расти вместе с опытными специалистами    Все условия для твоего профессионального и личностного развития    Своевременную и стабильную оплату труда  согласованную заранее — без задержек       </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Системный администратор поддержки</t>
+          <t>Trigger Center Manager</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1831,26 +1831,22 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Русский — C2 — В совершенстве</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ташкент, проспект Ханабадтепа, 2/1</t>
+          <t>Ташкент, улица Алишера Навои, 22</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обязанности   Своевременное оказание технической поддержки сотрудникам офиса и склада  Поддержание работоспособности оборудования и технических систем Ведение учета  прием и выдача оборудования Ведение рабочей документации  Требования   Свободное владение компьютером  опыт установки операционных систем  драйверов и другого ПО Хорошее знание Windows  Office (Linux желательно) Опыт обслуживания периферийного оборудования  МФУ  принтеры и т д  Знание основ построения локальных вычислительных сетей  Опыт работы с сетевым оборудованием  Условия   Конкурентоспособная ЗП Обед за счет компании Сменный график работы 2/2 </t>
+          <t xml:space="preserve">We’re building the Radius Trigger Center — the brain of sales growth It’s where math meets psychology  turning data and behavior into smarter sales actions  We’re looking for a Trigger Center Manager — a system thinker who can see the entire sales process as a living  measurable mechanism  You’ll fit perfectly if you • Think in numbers and patterns  not assumptions• Understand customer psychology and timing• Love connecting logic  data  and sales results• Have curiosity  discipline  and a drive for continuous improvement• See yourself in the top 1%  yet stay humble and self-critical enough to keep earning itYou don’t need to code — but you must think like a strategist and communicate like a builder If you’re ready to design one of the most advanced growth engines inside Radius — welcome to the Trigger Center   </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Графический дизайнер</t>
+          <t>Системный администратор поддержки</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1860,24 +1856,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Adobe Photoshop,Adobe Illustrator,Разработка фирменного стиля,Графический планшет,Web-дизайн</t>
+          <t>Русский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ташкент, Чиланзарский район, проспект Бунёдкор, 7Г</t>
+          <t>Ташкент, проспект Ханабадтепа, 2/1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Формат роли  работа под началом основного дизайнера  Позиция не стажёрская — нужен специалист  который уверенно работает с техническими требованиями и доводит макеты до готовности Требования (обязательные)Опыт в графическом дизайне/production от 2 лет (или уверенный уровень по портфолио) CorelDRAW — уверенно (вектор  техническая аккуратность  работа с шаблонами)  Adobe Photoshop — уверенно (ретушь  подготовка изображений  мокапы на базовом/среднем уровне)  Понимание полиграфии и предпечатной подготовки CMYK/RGB  базово ICC-профили (что и когда применять)вылеты/поля/безопасные зонышрифты (встраивание/кривые)  растровые эффектыэкспорт корректных PDF для типографииоверпринт/чёрный/мелкий текст — базовые правила Умение работать по ТЗ  гайдлайнам и референсам  Аккуратность и ответственность  внимательность к мелочам  самостоятельная проверка перед сдачей Будет плюсомAdobe Illustrator Adobe InDesign (верстка многостранички / инструкции / каталоги)  Опыт с упаковкой  этикеткой  FMCG  понимание тех  ограничений печати и материалов Опыт в наружной рекламе (форматы  расстояния  требования к макетам) Опыт взаимодействия с типографиями/подрядчиками (тех  вопросы  контроль PDF) Понимание Pantone/спот-цветов/лаков/тиснения/гравировки (если встречается в проектах)  Задачи Адаптации упаковки и этикеток  обновления  версии SKU  тексты/штрихкоды/служебная информация  локальные правки  подготовка финалов Адаптация KV под носители  POSM  наружная реклама  digital-форматы (ресайзы  версии  тиражирование) Верстка полиграфии  листовки  плакаты  ценники  шелфтокеры  воблеры  стопперы  каталоги/буклеты (по необходимости) Подготовка макетов в печать (prepress)  вылеты/поля  корректные PDF  шрифты  оверпринт  треппинг (при необходимости)  базовые проверки перед отправкой Векторная графика  иконки  схемы  элементы  аккуратная работа с кривыми  качественная трассировка/отрисовка растровых изображений Мокапы и презентационные материалы для согласований (упаковка  POSM/наружка) Базовая ретушь/коррекция изображений для макетов (чистка  цвет/тон  подготовка ассетов) Ведение файлов  версии  структура папок  порядок в исходниках  работа по шаблонам/гайдам  Условия   Культура  где можно расти  развиваться и чувствовать себя комфортно Команда ориентированная на создание крутого продукта Мы помогаем и поощряем развитие  Работа в крупной стабильной компании   Своевременная и стабильная оплата труда  </t>
+          <t xml:space="preserve">Обязанности   Своевременное оказание технической поддержки сотрудникам офиса и склада  Поддержание работоспособности оборудования и технических систем Ведение учета  прием и выдача оборудования Ведение рабочей документации  Требования   Свободное владение компьютером  опыт установки операционных систем  драйверов и другого ПО Хорошее знание Windows  Office (Linux желательно) Опыт обслуживания периферийного оборудования  МФУ  принтеры и т д  Знание основ построения локальных вычислительных сетей  Опыт работы с сетевым оборудованием  Условия   Конкурентоспособная ЗП Обед за счет компании Сменный график работы 2/2 </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Project Manager — E-sports &amp; Events</t>
+          <t>Графический дизайнер</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1887,78 +1883,78 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Английский — A2 — Элементарный,Русский — C1 — Продвинутый</t>
+          <t>Adobe Photoshop,Adobe Illustrator,Разработка фирменного стиля,Графический планшет,Web-дизайн</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Ташкент, Юнусабадский район, массив Юнусабад, 14-й квартал, 71</t>
+          <t>Ташкент, Чиланзарский район, проспект Бунёдкор, 7Г</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Project Manager — DARK ZONE E-SPORT DARK ZONE E-SPORT — современная кибер-арена и игровой хаб  где мы развиваем ивенты  турниры  медиа-проекты и внутренние инициативы клуба  Мы ищем Project Manager  который сможет выстроить процессы  держать под контролем задачи и доводить проекты до качественного результата  Наша философия DARK ZONE строит культуру  где киберспорт это не просто игра  а профессиональная работа Мы стремимся развивать индустрию  поддерживать талантливых людей и создавать качественные проекты  которые приносят пользу рынку и сообществу Обязанности    Формировать план проекта  выстраивать этапы работ и контролировать соблюдение сроков    Разрабатывать структуру проекта  собирать требования  подготавливать технические задания и согласовывать детали с командой    Контролировать бюджет  оценивать предстоящие расходы  отслеживать фактические затраты  предлагать оптимальные решения    Организовывать взаимодействие между участниками проекта  распределять задачи  проводить рабочие встречи  следить за качеством выполнения    Вести коммуникацию с поставщиками и подрядчиками  контролировать сроки и выполнение договорённостей    Подготавливать документацию  отчёты  спецификации  планы  внутренние регламенты    Анализировать возможные риски и своевременно предлагать корректирующие меры    Обеспечивать  чтобы итоговый результат соответствовал стандартам качества и требованиям проекта    Требования    Опыт управления задачами и проектами от постановки до результата    Внимательность к деталям  умение работать в многозадачной среде    Навыки выстраивания эффективной коммуникации    Понимание принципов работы с бюджетом    Стрессоустойчивость  аналитическое мышление  умение расставлять приоритеты    Знание языков  узбекский / русский (английский будет преимуществом)    Личностные качества    Аккуратность в работе и умение держать порядок в задачах    Способность спокойно работать в разных ситуациях и не теряться при небольших нагрузках    Умение общаться с людьми и поддерживать рабочий диалог    Ответственное отношение к срокам и договорённостям    Готовность брать инициативу  когда это действительно нужно    Внимание к деталям там  где это важно для результата    Лёгкость в адаптации к изменениям и новым задачам    Способность выполнять работу самостоятельно  но при необходимости задавать вопросы    Умение работать в команде и поддерживать позитивную атмосферу    Спокойный  уравновешенный подход к работе и принятию решений    Преимущества    Работа в динамично развивающейся сфере e-sports и кибер-индустрии    Возможность реализовывать собственные идеи и влиять на развитие проектов    Прямое взаимодействие с профессиональной  молодой и энергичной командой    Минимальная бюрократия — быстрые решения и гибкость в процессах    Чёткая структура задач и поддержка руководства    Комфортный офис   Возможность профессионального роста внутри компании    Путь к международной индустрии   Условия  График работы  10 00 — 19 00   Помни! DARK ZONE теперь это твоя территория   </t>
+          <t xml:space="preserve">Формат роли  работа под началом основного дизайнера  Позиция не стажёрская — нужен специалист  который уверенно работает с техническими требованиями и доводит макеты до готовности Требования (обязательные)Опыт в графическом дизайне/production от 2 лет (или уверенный уровень по портфолио) CorelDRAW — уверенно (вектор  техническая аккуратность  работа с шаблонами)  Adobe Photoshop — уверенно (ретушь  подготовка изображений  мокапы на базовом/среднем уровне)  Понимание полиграфии и предпечатной подготовки CMYK/RGB  базово ICC-профили (что и когда применять)вылеты/поля/безопасные зонышрифты (встраивание/кривые)  растровые эффектыэкспорт корректных PDF для типографииоверпринт/чёрный/мелкий текст — базовые правила Умение работать по ТЗ  гайдлайнам и референсам  Аккуратность и ответственность  внимательность к мелочам  самостоятельная проверка перед сдачей Будет плюсомAdobe Illustrator Adobe InDesign (верстка многостранички / инструкции / каталоги)  Опыт с упаковкой  этикеткой  FMCG  понимание тех  ограничений печати и материалов Опыт в наружной рекламе (форматы  расстояния  требования к макетам) Опыт взаимодействия с типографиями/подрядчиками (тех  вопросы  контроль PDF) Понимание Pantone/спот-цветов/лаков/тиснения/гравировки (если встречается в проектах)  Задачи Адаптации упаковки и этикеток  обновления  версии SKU  тексты/штрихкоды/служебная информация  локальные правки  подготовка финалов Адаптация KV под носители  POSM  наружная реклама  digital-форматы (ресайзы  версии  тиражирование) Верстка полиграфии  листовки  плакаты  ценники  шелфтокеры  воблеры  стопперы  каталоги/буклеты (по необходимости) Подготовка макетов в печать (prepress)  вылеты/поля  корректные PDF  шрифты  оверпринт  треппинг (при необходимости)  базовые проверки перед отправкой Векторная графика  иконки  схемы  элементы  аккуратная работа с кривыми  качественная трассировка/отрисовка растровых изображений Мокапы и презентационные материалы для согласований (упаковка  POSM/наружка) Базовая ретушь/коррекция изображений для макетов (чистка  цвет/тон  подготовка ассетов) Ведение файлов  версии  структура папок  порядок в исходниках  работа по шаблонам/гайдам  Условия   Культура  где можно расти  развиваться и чувствовать себя комфортно Команда ориентированная на создание крутого продукта Мы помогаем и поощряем развитие  Работа в крупной стабильной компании   Своевременная и стабильная оплата труда  </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Scrum-мастер</t>
+          <t>Project Manager — E-sports &amp; Events</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>до 15 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Scrum,Agile Project Management,Kanban,Roadmap,Agile,Atlassian Jira,Управление коммуникациями,Управление изменениями,Управление бэклогом,Деловая коммуникация,Мотивация сотрудников,Русский — C1 — Продвинутый</t>
+          <t>Английский — A2 — Элементарный,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ташкент, улица Истикбол, 21</t>
+          <t>Ташкент, Юнусабадский район, массив Юнусабад, 14-й квартал, 71</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Банк ANORBANK усиливает команду разработки и ищет Scrum Master для сопровождения цифровых IT-продуктов в рамках Agile/Scrum  Нам нужен специалист  который сможет выстроить эффективные процессы  поддерживать команду  улучшать взаимодействие и обеспечивать стабильный и предсказуемый результат  Преимущества  Работа в цифровой экосистеме банка ANORBANK  Участие в Agile-трансформации и развитии современных банковских продуктов  Конкурентные условия и корпоративные бонусы  Возможность карьерного роста в сильной и мотивированной команде  Комфортный офис  современная инфраструктура  Основные обязанности  Управление жизненным циклом IT-проектов в рамках Agile/Scrum  планирование  проведение спринтов  ретроспектив  демо  Обеспечение прозрачности процессов  контроль выполнения задач  управление бэклогом вместе с Product Owner  Организация и фасилитация ежедневных митингов  планирования  оценок  обсуждений требований  Координация взаимодействия между разработчиками  аналитиками  дизайнерами  тестировщиками и другими участниками команды (UX/UI  DevOps)  Управление рисками  сроками  зависимостями и ресурсами  Контроль качества реализации задач и соблюдения процессов разработки  Обеспечение эффективной коммуникации между всеми участниками проекта  Формирование культуры Agile  развитие и вовлечённость команды  Требования к кандидату  Образование  Высшее (желательно в сфере IT)  Профессиональная квалификация  1–3 года опыта работы  Опыт и навыки  Опыт работы IT Project Manager / Scrum Master не менее 1 года (опыт в банковской сфере — преимущество)  Практический опыт ведения проектов по Agile/Scrum (Kanban будет плюсом)  Понимание жизненного цикла разработки ПО  CI/CD  QA-процессов  Уверенная работа в Jira/Confluence/Trello и других Agile-инструментах  Навыки формализации требований  подготовки документации  Опыт работы с кросс-функциональными командами  Развитые способности к планированию  оценке  ретроспективам    Личностные качества  Высокий уровень коммуникации и эмпатии  Умение сглаживать конфликты и находить компромиссы  Структурность  системное мышление  ответственность  Проактивность  ориентация на результат  Навыки фасилитации встреч (stand-up  planning  review  retrospective)  Дополнительные требования  Готовность работать в быстро меняющейся среде  Стремление развивать команды и улучшать процессы  Понимание принципов цифровой трансформации </t>
+          <t xml:space="preserve">Project Manager — DARK ZONE E-SPORT DARK ZONE E-SPORT — современная кибер-арена и игровой хаб  где мы развиваем ивенты  турниры  медиа-проекты и внутренние инициативы клуба  Мы ищем Project Manager  который сможет выстроить процессы  держать под контролем задачи и доводить проекты до качественного результата  Наша философия DARK ZONE строит культуру  где киберспорт это не просто игра  а профессиональная работа Мы стремимся развивать индустрию  поддерживать талантливых людей и создавать качественные проекты  которые приносят пользу рынку и сообществу Обязанности    Формировать план проекта  выстраивать этапы работ и контролировать соблюдение сроков    Разрабатывать структуру проекта  собирать требования  подготавливать технические задания и согласовывать детали с командой    Контролировать бюджет  оценивать предстоящие расходы  отслеживать фактические затраты  предлагать оптимальные решения    Организовывать взаимодействие между участниками проекта  распределять задачи  проводить рабочие встречи  следить за качеством выполнения    Вести коммуникацию с поставщиками и подрядчиками  контролировать сроки и выполнение договорённостей    Подготавливать документацию  отчёты  спецификации  планы  внутренние регламенты    Анализировать возможные риски и своевременно предлагать корректирующие меры    Обеспечивать  чтобы итоговый результат соответствовал стандартам качества и требованиям проекта    Требования    Опыт управления задачами и проектами от постановки до результата    Внимательность к деталям  умение работать в многозадачной среде    Навыки выстраивания эффективной коммуникации    Понимание принципов работы с бюджетом    Стрессоустойчивость  аналитическое мышление  умение расставлять приоритеты    Знание языков  узбекский / русский (английский будет преимуществом)    Личностные качества    Аккуратность в работе и умение держать порядок в задачах    Способность спокойно работать в разных ситуациях и не теряться при небольших нагрузках    Умение общаться с людьми и поддерживать рабочий диалог    Ответственное отношение к срокам и договорённостям    Готовность брать инициативу  когда это действительно нужно    Внимание к деталям там  где это важно для результата    Лёгкость в адаптации к изменениям и новым задачам    Способность выполнять работу самостоятельно  но при необходимости задавать вопросы    Умение работать в команде и поддерживать позитивную атмосферу    Спокойный  уравновешенный подход к работе и принятию решений    Преимущества    Работа в динамично развивающейся сфере e-sports и кибер-индустрии    Возможность реализовывать собственные идеи и влиять на развитие проектов    Прямое взаимодействие с профессиональной  молодой и энергичной командой    Минимальная бюрократия — быстрые решения и гибкость в процессах    Чёткая структура задач и поддержка руководства    Комфортный офис   Возможность профессионального роста внутри компании    Путь к международной индустрии   Условия  График работы  10 00 — 19 00   Помни! DARK ZONE теперь это твоя территория   </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Графический дизайнер</t>
+          <t>Scrum-мастер</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>до 15 000 000 so'm за месяц до вычета налогов</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Adobe Photoshop,Adobe Illustrator,Графический дизайн,CorelDRAW,Полиграфический дизайн,Английский — B1 — Средний,Русский — C2 — В совершенстве</t>
+          <t>Scrum,Agile Project Management,Kanban,Roadmap,Agile,Atlassian Jira,Управление коммуникациями,Управление изменениями,Управление бэклогом,Деловая коммуникация,Мотивация сотрудников,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ташкент, 5-й проезд Буюк Ипак Йули, 1</t>
+          <t>Ташкент, улица Истикбол, 21</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Вдохновляй визуально  стань частью FreshLab как графический дизайнер! Ты чувствуешь цвет  форму и стиль на кончиках пальцев? Любишь создавать визуальные истории  которые цепляют взгляд и остаются в памяти? Тогда тебе к нам! FreshLab — инновационный производитель косметики и товаров для дома  ищет креативного графического дизайнера  который поможет сделать наш бренд ещё ярче и узнаваемее  Твои задачи   Разработка дизайн-концепций для упаковки  этикеток и рекламных материалов Создание визуального контента для digital и офлайн-каналов (баннеры  презентации  соцсети  POS-материалы) Поддержка единого фирменного стиля бренда на всех носителях Взаимодействие с маркетологами и продуктовой командой для воплощения идей в жизнь Подготовка макетов к печати и контроль качества финального результата Участие в брейнштормах и генерация свежих креативных решений  Что важно для нас   Опыт работы графическим дизайнером от 3 лет в смежных сферах (FMCG  косметика  ритейл  агентства) Уверенное владение Adobe Photoshop  Illustrator  InDesign (знание Figma и After Effects — плюс) Портфолио реализованных проектов (упаковка  брендинг  digital) Чувство стиля  внимание к деталям  умение работать в заданных сроках Навыки препресс-подготовки и понимание печатных процессов Креативность  инициативность  умение работать в команде  Условия и преимущества   Официальное трудоустройство  стабильная  белая  зарплата График 5/2  рабочий день с 9 00 до 18 00 Современный офис и дружная команда профессионалов Возможность влиять на визуальный облик ведущего бренда Простор для творчества и реализации собственных идей Продукция компании по специальным ценам  О компанииFreshLab — один из лидеров рынка косметической и аэрозольной продукции в Узбекистане  Мы разрабатываем уникальные формулы во Франции  а производим в Узбекистане  обеспечивая высочайшее качество и доступность  Наши продукты Vegan-friendly  содержат до 100% натуральных ингредиентов и проходят строгую сертификацию FRESHLAB CERTIFIED  Присоединяйся к команде  которая меняет стандарты индустрии!</t>
+          <t xml:space="preserve">Банк ANORBANK усиливает команду разработки и ищет Scrum Master для сопровождения цифровых IT-продуктов в рамках Agile/Scrum  Нам нужен специалист  который сможет выстроить эффективные процессы  поддерживать команду  улучшать взаимодействие и обеспечивать стабильный и предсказуемый результат  Преимущества  Работа в цифровой экосистеме банка ANORBANK  Участие в Agile-трансформации и развитии современных банковских продуктов  Конкурентные условия и корпоративные бонусы  Возможность карьерного роста в сильной и мотивированной команде  Комфортный офис  современная инфраструктура  Основные обязанности  Управление жизненным циклом IT-проектов в рамках Agile/Scrum  планирование  проведение спринтов  ретроспектив  демо  Обеспечение прозрачности процессов  контроль выполнения задач  управление бэклогом вместе с Product Owner  Организация и фасилитация ежедневных митингов  планирования  оценок  обсуждений требований  Координация взаимодействия между разработчиками  аналитиками  дизайнерами  тестировщиками и другими участниками команды (UX/UI  DevOps)  Управление рисками  сроками  зависимостями и ресурсами  Контроль качества реализации задач и соблюдения процессов разработки  Обеспечение эффективной коммуникации между всеми участниками проекта  Формирование культуры Agile  развитие и вовлечённость команды  Требования к кандидату  Образование  Высшее (желательно в сфере IT)  Профессиональная квалификация  1–3 года опыта работы  Опыт и навыки  Опыт работы IT Project Manager / Scrum Master не менее 1 года (опыт в банковской сфере — преимущество)  Практический опыт ведения проектов по Agile/Scrum (Kanban будет плюсом)  Понимание жизненного цикла разработки ПО  CI/CD  QA-процессов  Уверенная работа в Jira/Confluence/Trello и других Agile-инструментах  Навыки формализации требований  подготовки документации  Опыт работы с кросс-функциональными командами  Развитые способности к планированию  оценке  ретроспективам    Личностные качества  Высокий уровень коммуникации и эмпатии  Умение сглаживать конфликты и находить компромиссы  Структурность  системное мышление  ответственность  Проактивность  ориентация на результат  Навыки фасилитации встреч (stand-up  planning  review  retrospective)  Дополнительные требования  Готовность работать в быстро меняющейся среде  Стремление развивать команды и улучшать процессы  Понимание принципов цифровой трансформации </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fullstack Web Developer</t>
+          <t>Графический дизайнер</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1968,24 +1964,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>JavaScript,HTML,Работа с большим объемом информации,CSS3,Python,JSON API</t>
+          <t>Adobe Photoshop,Adobe Illustrator,Графический дизайн,CorelDRAW,Полиграфический дизайн,Английский — B1 — Средний,Русский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ташкент, Мирзо-Улугбекский район, махаллинский сход граждан Асака, 1-й проезд Дархан, 7</t>
+          <t>Ташкент, 5-й проезд Буюк Ипак Йули, 1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">О компании  BM Agency — динамично развивающаяся команда  специализирующаяся на разработке и реализации решений в области eCommerce  Мы предоставляем нашим клиентам инновационные цифровые решения  создавая мощные платформы для онлайн-торговли  В BM Agency мы ценим экспертизу  креативность и командный дух  Мы ищем талантливого Fullstack Web Developer  который поможет нам развивать высококачественные продукты и обеспечивать максимальный опыт для наших пользователей  Обязанности  Разработка  тестирование и поддержка фронтенд и бэкенд частей веб-приложений  Создание динамичных интерфейсов с использованием современных JavaScript-фреймворков (React  Vue js и т д )  Разработка серверной логики  API и интеграция с внешними сервисами  Работа с различными базами данных (MySQL  PostgreSQL  MongoDB)  Оптимизация и улучшение производительности приложений  Обеспечение безопасности и стабильности платформы  Взаимодействие с командой разработчиков  дизайнерами и менеджерами проектов  Участие в планировании архитектуры новых функциональностей  Требования  Опыт работы с JavaScript  HTML  CSS  а также современными фреймворками (React  Angular  Vue js)  Опыт разработки серверной логики с использованием Node js  Express  Django  или других технологий  Опыт работы с реляционными и NoSQL базами данных (MySQL  PostgreSQL  MongoDB)  Знание принципов разработки RESTful API и опыт интеграции с внешними сервисами  Умение работать с системами контроля версий (например  Git)  Хорошие знания английского на техническом уровне (для работы с документацией и международными коллегами)  Опыт работы в удалённых командах — будет плюсом  Будет плюсом  Опыт работы с облачными технологиями (AWS  Google Cloud  Azure)  Знание основ CI/CD и DevOps практик  Знания в области тестирования и обеспечения качества кода  Мы предлагаем  Конкурентоспособную зарплату (6-10 млн сум в месяц  в зависимости от опыта)  Полностью удаленную работу с гибким графиком  Дружелюбную и профессиональную команду  Возможность работать над интересными проектами в сфере eCommerce  Постоянное обучение и развитие  участие в корпоративных тренингах и курсах  Гибкие условия работы  возможность карьерного роста </t>
+          <t>Вдохновляй визуально  стань частью FreshLab как графический дизайнер! Ты чувствуешь цвет  форму и стиль на кончиках пальцев? Любишь создавать визуальные истории  которые цепляют взгляд и остаются в памяти? Тогда тебе к нам! FreshLab — инновационный производитель косметики и товаров для дома  ищет креативного графического дизайнера  который поможет сделать наш бренд ещё ярче и узнаваемее  Твои задачи   Разработка дизайн-концепций для упаковки  этикеток и рекламных материалов Создание визуального контента для digital и офлайн-каналов (баннеры  презентации  соцсети  POS-материалы) Поддержка единого фирменного стиля бренда на всех носителях Взаимодействие с маркетологами и продуктовой командой для воплощения идей в жизнь Подготовка макетов к печати и контроль качества финального результата Участие в брейнштормах и генерация свежих креативных решений  Что важно для нас   Опыт работы графическим дизайнером от 3 лет в смежных сферах (FMCG  косметика  ритейл  агентства) Уверенное владение Adobe Photoshop  Illustrator  InDesign (знание Figma и After Effects — плюс) Портфолио реализованных проектов (упаковка  брендинг  digital) Чувство стиля  внимание к деталям  умение работать в заданных сроках Навыки препресс-подготовки и понимание печатных процессов Креативность  инициативность  умение работать в команде  Условия и преимущества   Официальное трудоустройство  стабильная  белая  зарплата График 5/2  рабочий день с 9 00 до 18 00 Современный офис и дружная команда профессионалов Возможность влиять на визуальный облик ведущего бренда Простор для творчества и реализации собственных идей Продукция компании по специальным ценам  О компанииFreshLab — один из лидеров рынка косметической и аэрозольной продукции в Узбекистане  Мы разрабатываем уникальные формулы во Франции  а производим в Узбекистане  обеспечивая высочайшее качество и доступность  Наши продукты Vegan-friendly  содержат до 100% натуральных ингредиентов и проходят строгую сертификацию FRESHLAB CERTIFIED  Присоединяйся к команде  которая меняет стандарты индустрии!</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Проектный менеджер (со знанием английского и русского языков)</t>
+          <t>Fullstack Web Developer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1995,24 +1991,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Активные продажи,Работа в команде,Проведение презентаций,Навыки продаж,Ориентация на результат,Поиск и привлечение клиентов,Уверенный пользователь ПК,Русский — C2 — В совершенстве,Английский — C1 — Продвинутый</t>
+          <t>JavaScript,HTML,Работа с большим объемом информации,CSS3,Python,JSON API</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ташкент, улица Алишера Навои, 16</t>
+          <t>Ташкент, Мирзо-Улугбекский район, махаллинский сход граждан Асака, 1-й проезд Дархан, 7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мы TECHNOGYM! Вы заслуживаете стать частью нашей семьи Если Вы любите спорт и активный образ жизни!Продажи - это ваше всё!Являетесь профессионалом своего дела и всегда нацелены на результат! Обязанности  - Поиск потенциальных клиентов  определение и удовлетворение их потребностей - Консультирование по ассортименту и техническим параметрам товара (услуги) - Исполнение проектов от А до Я  Чертежи  планы  ценовые предложения - Консультирование клиентов (индивидуальный подход к каждому клиенту) - Ведение отчетности по работе с текущими клиентами и поступающим обращениям - Прием товара и поддержание его выкладки в торговых залах - Проведение презентаций и тренингов по новым продуктам и акциям компании - Участие в выставках  Требования  - умеете продавать!- умеете планировать  ставить амбициозные цели и организовывать процесс их достижения - Способность работать на результат в установленные сроки - имеете дар находить подход к разным людям  завоевываете их расположения  принимаете и цените их отличия - Интерес расти и развиваться - На Ты с компьютером  Знание ПК  офисных программ  умение работать с электронными каталогами - Позитивный взгляд на жизнь  видеть задачи  а не проблемы!- Навыки активных продаж - Опыт работы в сфере продаж - Навыки оформления основных коммерческих документов (договоров  счетов  актов-фактур  накладных и т п ) - Знание английского языка Условия  ​​​​​​​- работа с оборудованием законодателем в мире фитнеса ручной работы - творчески ориентированный коллектив - возможность реализации интересных и важных проектов резиденций и домов  гостиниц  клиник  фитнес проектов- интересную и разностороннюю систему обучения в разных сферах- международные стажировки- корпоративные мероприятия- Обед за счет организации </t>
+          <t xml:space="preserve">О компании  BM Agency — динамично развивающаяся команда  специализирующаяся на разработке и реализации решений в области eCommerce  Мы предоставляем нашим клиентам инновационные цифровые решения  создавая мощные платформы для онлайн-торговли  В BM Agency мы ценим экспертизу  креативность и командный дух  Мы ищем талантливого Fullstack Web Developer  который поможет нам развивать высококачественные продукты и обеспечивать максимальный опыт для наших пользователей  Обязанности  Разработка  тестирование и поддержка фронтенд и бэкенд частей веб-приложений  Создание динамичных интерфейсов с использованием современных JavaScript-фреймворков (React  Vue js и т д )  Разработка серверной логики  API и интеграция с внешними сервисами  Работа с различными базами данных (MySQL  PostgreSQL  MongoDB)  Оптимизация и улучшение производительности приложений  Обеспечение безопасности и стабильности платформы  Взаимодействие с командой разработчиков  дизайнерами и менеджерами проектов  Участие в планировании архитектуры новых функциональностей  Требования  Опыт работы с JavaScript  HTML  CSS  а также современными фреймворками (React  Angular  Vue js)  Опыт разработки серверной логики с использованием Node js  Express  Django  или других технологий  Опыт работы с реляционными и NoSQL базами данных (MySQL  PostgreSQL  MongoDB)  Знание принципов разработки RESTful API и опыт интеграции с внешними сервисами  Умение работать с системами контроля версий (например  Git)  Хорошие знания английского на техническом уровне (для работы с документацией и международными коллегами)  Опыт работы в удалённых командах — будет плюсом  Будет плюсом  Опыт работы с облачными технологиями (AWS  Google Cloud  Azure)  Знание основ CI/CD и DevOps практик  Знания в области тестирования и обеспечения качества кода  Мы предлагаем  Конкурентоспособную зарплату (6-10 млн сум в месяц  в зависимости от опыта)  Полностью удаленную работу с гибким графиком  Дружелюбную и профессиональную команду  Возможность работать над интересными проектами в сфере eCommerce  Постоянное обучение и развитие  участие в корпоративных тренингах и курсах  Гибкие условия работы  возможность карьерного роста </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ведущий аналитик данных CVM</t>
+          <t>Проектный менеджер (со знанием английского и русского языков)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2022,29 +2018,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Анализ данных,SQL,Аналитическое мышление,Python,Визуализация данных,Business intelligence,Power BI,Tableau,ETL,A/B тесты,Моделирование бизнес процессов,Математическое моделирование</t>
+          <t>Активные продажи,Работа в команде,Проведение презентаций,Навыки продаж,Ориентация на результат,Поиск и привлечение клиентов,Уверенный пользователь ПК,Русский — C2 — В совершенстве,Английский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ташкент, улица Нукус, 29А</t>
+          <t>Ташкент, улица Алишера Навои, 16</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Команда AVO SERVICES AND TECHNOLOGY создает новый технологичный розничный банк на рынке Узбекистана  Основная концепция сервиса - клиент самостоятельно может получить все услуги банка через мобильное приложение и устройства самообслуживания  Наш сегодняшний вызов - создать самый продвинутый digital банк в Узбекистане  Мы ищем Ведущего аналитика клиентских данных! Обязанности   Поддержка продуктовой стратегии через подготовку аналитики  анализ клиентского поведения  развития продукта и рынка и конкурентов  Формирование и сопровождение P&amp;L продукта  анализ доходов/расходов  unit-экономики и драйверов прибыльности  Расчет и моделирование сценариев для ценообразования (ставки  комиссии  тарифы  кэшбэк) с оценкой влияния на прибыльность и активность и удержание клиентов  Построение и мониторинг ключевых продуктовых метрик (LTV  CAC  NIM  Cost of Risk  Retention  активация карт  транзакционная активность)  Поиск аномалий и неэффективностей в продуктовой модели  формулировка гипотез для оптимизации  Подготовка бизнес-кейсов и аналитических обоснований для запуска новых продуктов  изменений тарифов и маркетинговых акций  Участие в постановке и оценке A/B-тестов и экспериментов по продукту  Взаимодействие с владельцем продукта  командой CVM  маркетингом  рисками и IT для превращения данных в бизнес-решения   Требования   Опыт работы дата-/продуктовым аналитиком (желательно в банке/финтехе  в направлении кредитных или дебетовых карт)  Владение SQL  умение работать с большими массивами данных  Навыки финансового анализа и моделирования P&amp;L продукта  unit-экономики  расчета маржинальности  Опыт анализа и оптимизации ценообразования (ставки  комиссии  программы лояльности)  Знание ключевых продуктовых метрик (LTV  CAC  NII  NIM  Cost of Risk  Retention)  Владение BI-инструментами (Tableau  Power BI) и Excel на продвинутом уровне  Умение формулировать понятные бизнес-выводы и рекомендации для владельца продукта  Плюсом  знание Python/R для моделирования и A/B-тестирования   Условия   Трудоустройство в соответствии с ТК Республики Узбекистан Помощь с релокацией  Данная позиция подразумевает работу из офиса в Ташкенте  Высокая конкурентная заработная плата (рассматриваем ожидания кандидатов)  Амбициозный проект  в котором ты будешь играть одну из важнейших ролей   Где предстоит работать Ташкент  улица Нукус  29А</t>
+          <t xml:space="preserve">Мы TECHNOGYM! Вы заслуживаете стать частью нашей семьи Если Вы любите спорт и активный образ жизни!Продажи - это ваше всё!Являетесь профессионалом своего дела и всегда нацелены на результат! Обязанности  - Поиск потенциальных клиентов  определение и удовлетворение их потребностей - Консультирование по ассортименту и техническим параметрам товара (услуги) - Исполнение проектов от А до Я  Чертежи  планы  ценовые предложения - Консультирование клиентов (индивидуальный подход к каждому клиенту) - Ведение отчетности по работе с текущими клиентами и поступающим обращениям - Прием товара и поддержание его выкладки в торговых залах - Проведение презентаций и тренингов по новым продуктам и акциям компании - Участие в выставках  Требования  - умеете продавать!- умеете планировать  ставить амбициозные цели и организовывать процесс их достижения - Способность работать на результат в установленные сроки - имеете дар находить подход к разным людям  завоевываете их расположения  принимаете и цените их отличия - Интерес расти и развиваться - На Ты с компьютером  Знание ПК  офисных программ  умение работать с электронными каталогами - Позитивный взгляд на жизнь  видеть задачи  а не проблемы!- Навыки активных продаж - Опыт работы в сфере продаж - Навыки оформления основных коммерческих документов (договоров  счетов  актов-фактур  накладных и т п ) - Знание английского языка Условия  ​​​​​​​- работа с оборудованием законодателем в мире фитнеса ручной работы - творчески ориентированный коллектив - возможность реализации интересных и важных проектов резиденций и домов  гостиниц  клиник  фитнес проектов- интересную и разностороннюю систему обучения в разных сферах- международные стажировки- корпоративные мероприятия- Обед за счет организации </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer (Node.js / NestJS)</t>
+          <t>Middle Frontend Engineer (React / Next.js)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>от 18 000 000 so'm за месяц до вычета налогов</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2055,57 +2051,57 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мы ищем опытного Senior Backend Engineer  который возьмёт на себя ключевую роль в проектировании и развитии backend-архитектуры продукта  Это позиция с высоким уровнем ответственности и прямым влиянием на технические решения  Задачи  Проектирование и развитие архитектуры backend-системы Разработка и поддержка ключевых модулей продукта Создание и развитие API для Web и Mobile клиентов Работа с асинхронными процессами  очередями и событиями Участие в технических решениях и выборе архитектурных подходов  Требования  Опыт коммерческой разработки от 4 лет Уверенное владение Node js и TypeScript Отличное знание NestJS Опыт проектирования модульной и масштабируемой архитектуры Практический опыт работы с PostgreSQL  Redis Понимание и применение принципов DDD (Domain-Driven Design) Опыт работы с очередями и событийной архитектурой Опыт разработки API для Web и Mobile приложений Будет плюсом  опыт интеграций с внешними сервисами разработка backend-части Telegram Bot  Условия  Формат работы  офис / гибрид (удалёнка нежелательна) Участие в разработке ядра системы Полная ответственность за архитектуру и ключевые модули Конкурентная заработная плата и рост вместе с проектом  Заработная плата от 18 млн(обсуждается индивидуально в зависимости от квалификации) Как откликнуться Если вы готовы влиять на архитектуру продукта и брать ответственность за ключевые технические решения — оставляйте отклик на вакансию и заполните форму Мы внимательно рассматриваем каждый отклик и обязательно свяжемся с подходящими кандидатами </t>
+          <t>Мы ищем Middle Frontend Engineer  который будет участвовать в разработке и развитии Web-интерфейсов B2B-продукта  Роль предполагает работу со сложными пользовательскими сценариями и вклад в построение интерфейсной архитектуры  Задачи   Разработка и развитие Web B2B панели   Реализация сложных интерфейсов  таблицы  кабинеты  управленческие панели   Интеграция с backend через REST API   Участие в проектировании архитектуры Frontend-приложения   Поддержка и улучшение существующего интерфейса   Требования   Опыт коммерческой разработки от 2–3 лет   Уверенное владение React и TypeScript   Опыт работы с Next js   Практический опыт разработки B2B-интерфейсов   Уверенная работа с REST API   Понимание принципов архитектуры Frontend-приложений   Аккуратность  ответственность  умение работать в команде   Условия   Формат работы  офис (не удалённо)   Разработка Web B2B панели   Участие в построении и развитии интерфейсной архитектуры   Работа над продуктом с реальными бизнес-пользователями   Заработная плата от 10 млн(обсуждается индивидуально в зависимости от опыта и квалификации) Как откликнуться Если вам интересна работа над сложными B2B-интерфейсами и развитие Frontend-архитектуры — оставляйте отклик и заполните форму Мы рассмотрим заявку и свяжемся с подходящими кандидатами</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Strong Junior NodeJS Developer</t>
+          <t>Senior Backend Engineer (Node.js / NestJS)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>от 7 000 000 so'm за месяц до вычета налогов</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Node.js,Английский язык,TypeScript,MongoDB,Английский — B2 — Средне-продвинутый</t>
-        </is>
-      </c>
+          <t>от 18 000 000 so'm за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ташкент, Чиланзарский район, проспект Бунёдкор, 40/1</t>
+          <t>Ташкент</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>We are hiring a strong Junior NodeJs Backend Developer to join the Bito ERP engineering team    You will work on  Production NodeJs services used daily by businesses Data-heavy operations (users  roles  warehouse  finance) Reading  understanding  and improving an existing codebase   You should already be comfortable with  NodeJs (NestJS or Express) in production JavaScript fundamentals  async/await  error propagation  promises MongoDB  schema design  indexes  query optimization basics REST API design  pagination  filtering  status codes JWT-based authentication and role-based authorization Git workflows (PRs  reviews  resolving conflicts) Debugging backend issues without step-by-step guidance   You are likely a good fit if  You can explain why a solution works  not just make it work You’ve worked with an existing backend written by other developers You care about code structure  not only delivery speed   Nice to have (strong advantage)  NestJS experience Experience with ERP / CRM / business systems English C1   What we offer  Salary  starting from 7 000 000 UZS  skill-based Serious code reviews and technical mentorship Clear path to Mid-level Backend Developer Delicious lunch</t>
+          <t xml:space="preserve">Мы ищем опытного Senior Backend Engineer  который возьмёт на себя ключевую роль в проектировании и развитии backend-архитектуры продукта  Это позиция с высоким уровнем ответственности и прямым влиянием на технические решения  Задачи  Проектирование и развитие архитектуры backend-системы Разработка и поддержка ключевых модулей продукта Создание и развитие API для Web и Mobile клиентов Работа с асинхронными процессами  очередями и событиями Участие в технических решениях и выборе архитектурных подходов  Требования  Опыт коммерческой разработки от 4 лет Уверенное владение Node js и TypeScript Отличное знание NestJS Опыт проектирования модульной и масштабируемой архитектуры Практический опыт работы с PostgreSQL  Redis Понимание и применение принципов DDD (Domain-Driven Design) Опыт работы с очередями и событийной архитектурой Опыт разработки API для Web и Mobile приложений Будет плюсом  опыт интеграций с внешними сервисами разработка backend-части Telegram Bot  Условия  Формат работы  офис / гибрид (удалёнка нежелательна) Участие в разработке ядра системы Полная ответственность за архитектуру и ключевые модули Конкурентная заработная плата и рост вместе с проектом  Заработная плата от 18 млн(обсуждается индивидуально в зависимости от квалификации) Как откликнуться Если вы готовы влиять на архитектуру продукта и брать ответственность за ключевые технические решения — оставляйте отклик на вакансию и заполните форму Мы внимательно рассматриваем каждый отклик и обязательно свяжемся с подходящими кандидатами </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IT специалист</t>
+          <t>Strong Junior NodeJS Developer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>от 7 000 000 so'm за месяц до вычета налогов</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Node.js,Английский язык,TypeScript,MongoDB,Английский — B2 — Средне-продвинутый</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ташкент</t>
+          <t>Ташкент, Чиланзарский район, проспект Бунёдкор, 40/1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПРОЧИТАЙТЕ ПОЖАЛУЙСТА ДО КОНЦА И ВНИМАТЕЛЬНО!!!ЧАСТИЧНАЯ РАБОТА ИЛИ УДАЛЕННАЯ РАБОТА НАМ НЕПОДХОДИТ ВООБЩЕ!!! Обязанности   обслуживание IT-инфраструктуры (сети  серверы  оборудование)  техническую поддержку пользователей (устранение проблем  консультации)  поддержку ПО (сайты  приложения  системы) Обслуживание компьютеров  оргтехники и других цифровых устройств   Условия   график работы с 10 00 до 22 00  либо с 11 00 до 23 00  с понедельника по пятницу можно выбрать один день выходной (суббота  воскресенье рабочие дни) обед  ужин бесплатно официальное трудоустройство стабильное повышение зарплаты каждый год на 20% молодой дружный коллектив Место работы  парк Ташкент сити </t>
+          <t>We are hiring a strong Junior NodeJs Backend Developer to join the Bito ERP engineering team    You will work on  Production NodeJs services used daily by businesses Data-heavy operations (users  roles  warehouse  finance) Reading  understanding  and improving an existing codebase   You should already be comfortable with  NodeJs (NestJS or Express) in production JavaScript fundamentals  async/await  error propagation  promises MongoDB  schema design  indexes  query optimization basics REST API design  pagination  filtering  status codes JWT-based authentication and role-based authorization Git workflows (PRs  reviews  resolving conflicts) Debugging backend issues without step-by-step guidance   You are likely a good fit if  You can explain why a solution works  not just make it work You’ve worked with an existing backend written by other developers You care about code structure  not only delivery speed   Nice to have (strong advantage)  NestJS experience Experience with ERP / CRM / business systems English C1   What we offer  Salary  starting from 7 000 000 UZS  skill-based Serious code reviews and technical mentorship Clear path to Mid-level Backend Developer Delicious lunch</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2172,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Настройка ПК,Пользователь ПК,Ответственность,Работа в команде,Техническая поддержка,HTML,Деловое общение,Работа с большим объемом информации,Google Docs,Английский — B1 — Средний,Узбекский — C2 — В совершенстве,Русский — C2 — В совершенстве</t>
+          <t>Настройка ПК,Пользователь ПК,Ответственность,Работа в команде,Техническая поддержка,HTML,Деловое общение,Работа с большим объемом информации,Google Docs,Узбекский — C2 — В совершенстве,Английский — B1 — Средний,Русский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2274,7 +2270,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Backend-разработчик</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2282,21 +2278,13 @@
           <t>None</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Git,PostgreSQL,JavaScript,Docker,MySQL,Django Framework,Django Rest Framework,Python</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ташкент, улица Баходыра, 44А</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Backend-разработчик Ты любишь создавать мощные и надежные системы  которые работают как часы? Хочешь влиять на развитие продукта и видеть результат своей работы? Тогда тебе к нам! Чем предстоит заниматься   Проектировать и развивать архитектуру веб-сайта Интегрировать API платежных систем и обмениваться данными с сайтами партнеров Разрабатывать и поддерживать серверную часть на Django Оптимизировать и улучшать существующий функционал Оперативно исправлять ошибки и повышать стабильность продукта Работать в тесной связке с командой фронтенда и проджект-менеджерами  Что важно для нас   Опыт коммерческой разработки на Python и Django от 3 лет Уверенное знание принципов построения REST API Опыт интеграции сторонних сервисов и платежных систем Навыки оптимизации кода и работы с базами данных (PostgreSQL/MySQL) ВАЖНО  Умение быстро разбираться в чужом коде и находить решения Ответственность  самостоятельность и желание развиваться  Условия и бонусы   Оформление по ТК  стабильная  белая  зарплата Гибкий формат работы  офис  удалёнка или гибрид — выбирай  как тебе удобнее График 5/2  рабочий день — 8 часов Современный стек  интересные задачи  дружная команда Возможности для профессионального роста и обучения  О компании  Мы — динамичная рекламная компания  которая создает и развивает digital-продукты для клиентов по всему миру  У нас ценят инициативу  открыты к новым идеям и поддерживают профессиональное развитие каждого члена команды  Присоединяйся — вместе сделаем крутые проекты!</t>
-        </is>
-      </c>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2465,7 +2453,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3D Моделирование,Точность и внимательность к деталям,3D Max,MS Office,Узбекский — C2 — В совершенстве,Русский — C2 — В совершенстве,Английский — A1 — Начальный</t>
+          <t>3D Моделирование,Точность и внимательность к деталям,3D Max,MS Office,Узбекский — C2 — В совершенстве,Английский — A1 — Начальный,Русский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2654,7 +2642,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Узбекский — C1 — Продвинутый,Английский — C1 — Продвинутый,Русский — C1 — Продвинутый</t>
+          <t>Английский — C1 — Продвинутый,Узбекский — C1 — Продвинутый,Русский — C1 — Продвинутый</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2893,7 +2881,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Проектный менеджмент,Управление бэклогом,Управление ресурсами,Разработка бизнес-требований,Деловая коммуникация,Организаторские навыки,Жизненный цикл проекта,Заключение договоров,Узбекский — C2 — В совершенстве,Русский — C1 — Продвинутый</t>
+          <t>Проектный менеджмент,Управление бэклогом,Управление ресурсами,Разработка бизнес-требований,Деловая коммуникация,Организаторские навыки,Жизненный цикл проекта,Заключение договоров,Русский — C1 — Продвинутый,Узбекский — C2 — В совершенстве</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2947,7 +2935,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Организаторские навыки,Деловая коммуникация,Управление командой,Интернет-реклама,Деловое общение,Project management,Проведение презентаций,Продвижение бренда,Навыки переговоров,Планирование,Деловая переписка,Разработка маркетинговой стратегии,Подбор персонала,Стратегическое мышление,Аналитическое мышление,Управленческие навыки,Разработка концепции,Планирование маркетинговых кампаний,Узбекский — C1 — Продвинутый,Английский — A2 — Элементарный,Русский — C1 — Продвинутый</t>
+          <t>Организаторские навыки,Деловая коммуникация,Управление командой,Интернет-реклама,Деловое общение,Project management,Проведение презентаций,Продвижение бренда,Навыки переговоров,Планирование,Деловая переписка,Разработка маркетинговой стратегии,Подбор персонала,Стратегическое мышление,Аналитическое мышление,Управленческие навыки,Разработка концепции,Планирование маркетинговых кампаний,Русский — C1 — Продвинутый,Узбекский — C1 — Продвинутый,Английский — A2 — Элементарный</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3078,7 +3066,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Узбекский — B1 — Средний,Русский — B1 — Средний</t>
+          <t>Русский — B1 — Средний,Узбекский — B1 — Средний</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
